--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Project Manager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7C555-7F0F-B34D-91F9-1F7049444D37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -18,9 +17,15 @@
     <sheet name="Meetings" sheetId="2" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="42">
   <si>
     <t>group totals (hrs)</t>
   </si>
@@ -167,16 +172,19 @@
   <si>
     <t>Master Gantt Chart</t>
   </si>
+  <si>
+    <t xml:space="preserve">Coding Standards </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,11 +285,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -290,7 +298,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -298,17 +306,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -318,7 +326,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -326,12 +334,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -340,31 +348,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -372,23 +380,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,15 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +535,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,14 +857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -876,427 +884,427 @@
     <col min="16" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="J1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="N1" s="28" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="N1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
-    </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1">
-      <c r="B2" s="42" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="42" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="50">
-        <v>0</v>
-      </c>
-      <c r="C3" s="51">
-        <v>0</v>
-      </c>
-      <c r="D3" s="52">
+      <c r="B3" s="47">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49">
         <f>(B3-C3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="53">
+      <c r="E3" s="42"/>
+      <c r="F3" s="50">
         <f>(Gantt!$B10)*100</f>
         <v>0</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="51">
         <f>(Gantt!$C10)*100</f>
         <v>0</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="52">
         <f>(F3-G3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50">
-        <v>0</v>
-      </c>
-      <c r="K3" s="51">
+      <c r="I3" s="46"/>
+      <c r="J3" s="47">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
         <f>Meetings!B4*100</f>
         <v>150</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="49">
         <f>(J3-K3)</f>
         <v>-150</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50">
-        <v>0</v>
-      </c>
-      <c r="O3" s="51">
-        <v>0</v>
-      </c>
-      <c r="P3" s="52">
+      <c r="M3" s="46"/>
+      <c r="N3" s="47">
+        <v>0</v>
+      </c>
+      <c r="O3" s="48">
+        <v>0</v>
+      </c>
+      <c r="P3" s="49">
         <f>(N3-O3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="53">
-        <v>0</v>
-      </c>
-      <c r="C4" s="54">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55">
+      <c r="B4" s="50">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0</v>
+      </c>
+      <c r="D4" s="52">
         <f t="shared" ref="D4:D5" si="0">(B4-C4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="53">
+      <c r="E4" s="42"/>
+      <c r="F4" s="50">
         <f>(Gantt!$B18)*100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="51">
         <f>(Gantt!$C18)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="52">
         <f t="shared" ref="H4:H5" si="1">(F4-G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="53">
-        <v>0</v>
-      </c>
-      <c r="K4" s="54">
-        <v>0</v>
-      </c>
-      <c r="L4" s="55">
+      <c r="I4" s="46"/>
+      <c r="J4" s="50">
+        <v>0</v>
+      </c>
+      <c r="K4" s="51">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
         <f t="shared" ref="L4:L5" si="2">(J4-K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="53">
-        <v>0</v>
-      </c>
-      <c r="O4" s="54">
-        <v>0</v>
-      </c>
-      <c r="P4" s="55">
+      <c r="M4" s="46"/>
+      <c r="N4" s="50">
+        <v>0</v>
+      </c>
+      <c r="O4" s="51">
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
         <f t="shared" ref="P4:P5" si="3">(N4-O4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="53">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54">
-        <v>0</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="B5" s="50">
+        <v>0</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="53">
+      <c r="E5" s="42"/>
+      <c r="F5" s="50">
         <f>(Gantt!$B26)*100</f>
         <v>0</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="51">
         <f>(Gantt!$C26)*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="54">
+      <c r="I5" s="46"/>
+      <c r="J5" s="50">
+        <v>0</v>
+      </c>
+      <c r="K5" s="51">
         <f>Meetings!B4*100</f>
         <v>150</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="52">
         <f t="shared" si="2"/>
         <v>-150</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="53">
-        <v>0</v>
-      </c>
-      <c r="O5" s="54">
-        <v>0</v>
-      </c>
-      <c r="P5" s="55">
+      <c r="M5" s="46"/>
+      <c r="N5" s="50">
+        <v>0</v>
+      </c>
+      <c r="O5" s="51">
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="53">
-        <v>0</v>
-      </c>
-      <c r="C6" s="54">
-        <v>0</v>
-      </c>
-      <c r="D6" s="55">
+      <c r="B6" s="50">
+        <v>0</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="52">
         <f t="shared" ref="D6:D8" si="4">(B6-C6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="53">
+      <c r="E6" s="42"/>
+      <c r="F6" s="50">
         <f>(Gantt!$B20)*100</f>
         <v>0</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="51">
         <f>(Gantt!$C20)*100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="52">
         <f t="shared" ref="H6:H8" si="5">(F6-G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="53">
-        <v>0</v>
-      </c>
-      <c r="K6" s="54">
+      <c r="I6" s="46"/>
+      <c r="J6" s="50">
+        <v>0</v>
+      </c>
+      <c r="K6" s="51">
         <f>Meetings!B5*100</f>
         <v>150</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="52">
         <f t="shared" ref="L6:L8" si="6">(J6-K6)</f>
         <v>-150</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="53">
-        <v>0</v>
-      </c>
-      <c r="O6" s="54">
-        <v>0</v>
-      </c>
-      <c r="P6" s="55">
+      <c r="M6" s="46"/>
+      <c r="N6" s="50">
+        <v>0</v>
+      </c>
+      <c r="O6" s="51">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
         <f t="shared" ref="P6:P8" si="7">(N6-O6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="53">
-        <v>0</v>
-      </c>
-      <c r="C7" s="54">
-        <v>0</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="B7" s="50">
+        <v>0</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="53">
+      <c r="E7" s="42"/>
+      <c r="F7" s="50">
         <f>(Gantt!$B28)*100</f>
         <v>0</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="51">
         <f>(Gantt!$C28)*100</f>
         <v>0</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="53">
-        <v>0</v>
-      </c>
-      <c r="K7" s="54">
+      <c r="I7" s="46"/>
+      <c r="J7" s="50">
+        <v>0</v>
+      </c>
+      <c r="K7" s="51">
         <f>Meetings!B6*100</f>
         <v>150</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="52">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="53">
-        <v>0</v>
-      </c>
-      <c r="O7" s="54">
-        <v>0</v>
-      </c>
-      <c r="P7" s="55">
+      <c r="M7" s="46"/>
+      <c r="N7" s="50">
+        <v>0</v>
+      </c>
+      <c r="O7" s="51">
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1">
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="56">
-        <v>0</v>
-      </c>
-      <c r="C8" s="57">
-        <v>0</v>
-      </c>
-      <c r="D8" s="58">
+      <c r="B8" s="53">
+        <v>0</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0</v>
+      </c>
+      <c r="D8" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="53">
+      <c r="E8" s="42"/>
+      <c r="F8" s="50">
         <f>(Gantt!$B36)*100</f>
         <v>100</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="51">
         <f>(Gantt!$C36)*100</f>
         <v>75</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="52">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53">
-        <v>0</v>
-      </c>
-      <c r="K8" s="54">
+      <c r="I8" s="46"/>
+      <c r="J8" s="50">
+        <v>0</v>
+      </c>
+      <c r="K8" s="51">
         <f>Meetings!B7*100</f>
         <v>150</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="52">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="56">
-        <v>0</v>
-      </c>
-      <c r="O8" s="57">
-        <v>0</v>
-      </c>
-      <c r="P8" s="58">
+      <c r="M8" s="46"/>
+      <c r="N8" s="53">
+        <v>0</v>
+      </c>
+      <c r="O8" s="54">
+        <v>0</v>
+      </c>
+      <c r="P8" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="56">
         <f>SUM(B3:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="57">
         <f>SUM(C3:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="58">
         <f>SUM(D3:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="62">
+      <c r="E9" s="42"/>
+      <c r="F9" s="59">
         <f>SUM(F3:F8)</f>
         <v>100</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="60">
         <f>SUM(G3:G8)</f>
         <v>75</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="61">
         <f>SUM(H3:H8)</f>
         <v>25</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="62">
+      <c r="I9" s="46"/>
+      <c r="J9" s="59">
         <f>SUM(J3:J8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="60">
         <f>SUM(K3:K8)</f>
         <v>750</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="61">
         <f>SUM(L3:L8)</f>
         <v>-750</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="59">
+      <c r="M9" s="46"/>
+      <c r="N9" s="56">
         <f>SUM(N3:N8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="57">
         <f>SUM(O3:O8)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="58">
         <f>SUM(P3:P8)</f>
         <v>0</v>
       </c>
@@ -1314,14 +1322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1329,7 +1337,7 @@
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1402,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1428,7 +1436,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1470,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1477,7 +1485,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1496,7 +1504,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1538,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1564,7 +1572,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1606,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1642,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1665,7 +1673,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1707,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +1741,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1775,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1809,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1843,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1877,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1903,7 +1911,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1945,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1973,7 +1981,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -2004,7 +2012,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2022,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2038,7 +2046,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2072,7 +2080,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2106,7 +2114,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2148,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2174,7 +2182,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2203,13 +2211,13 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="41"/>
+      <c r="X27" s="38"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B28">
@@ -2244,7 +2252,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +2283,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2309,7 +2317,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2343,7 +2351,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2385,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2411,7 +2419,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2445,7 +2453,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2479,8 +2487,8 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B36">
@@ -2515,7 +2523,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2546,7 +2554,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2580,7 +2588,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2614,7 +2622,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2656,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2663,7 +2671,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -2682,7 +2690,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +2724,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2750,7 +2758,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -2784,7 +2792,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2820,7 +2828,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
@@ -2851,7 +2859,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -2885,7 +2893,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2927,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2961,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2987,7 +2995,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3021,7 +3029,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3063,7 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3089,7 +3097,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3123,7 +3131,7 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -3159,7 +3167,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3203,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -3214,317 +3222,317 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="31"/>
-    <col min="3" max="3" width="7.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="31" customWidth="1"/>
-    <col min="7" max="9" width="8.83203125" style="31"/>
-    <col min="10" max="10" width="6.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="31" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="31"/>
+    <col min="1" max="1" width="15.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="28"/>
+    <col min="3" max="3" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="28" customWidth="1"/>
+    <col min="7" max="9" width="8.83203125" style="28"/>
+    <col min="10" max="10" width="6.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1">
-      <c r="B2" s="32" t="s">
+      <c r="D1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="34">
         <v>1.5</v>
       </c>
-      <c r="D3" s="37">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0</v>
-      </c>
-      <c r="J3" s="37">
-        <v>0</v>
-      </c>
-      <c r="K3" s="37">
-        <v>0</v>
-      </c>
-      <c r="L3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="32" t="s">
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0</v>
+      </c>
+      <c r="J3" s="34">
+        <v>0</v>
+      </c>
+      <c r="K3" s="34">
+        <v>0</v>
+      </c>
+      <c r="L3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32">
-        <f>SUMIF(C4:L4,A$1,C$3:Z$3)</f>
+      <c r="B4" s="29">
+        <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>1.5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="32" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="32">
-        <f>SUMIF(C5:L5,A$1,C$3:Z$3)</f>
+      <c r="B5" s="29">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="32" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="32">
-        <f>SUMIF(C6:L6,A$1,C$3:Z$3)</f>
+      <c r="B6" s="29">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="32" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="32">
-        <f>SUMIF(C7:L7,A$1,C$3:Z$3)</f>
+      <c r="B7" s="29">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="32" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="32">
-        <f>SUMIF(C8:L8,A$1,C$3:Z$3)</f>
+      <c r="B8" s="29">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="32" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="32">
-        <f>SUMIF(C9:L9,A$1,C$3:Z$3)</f>
+      <c r="B9" s="29">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="32" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="32">
         <f>SUM(B4:B9)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="38">
-        <f>COUNTIF(C4:C9,"*ü*") * C3</f>
+      <c r="C10" s="35">
+        <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="38">
-        <f>COUNTIF(D4:D9,"*ü*") * D3</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="38">
-        <f>COUNTIF(E4:E9,"*ü*") * E3</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="38">
-        <f>COUNTIF(F4:F9,"*ü*") * F3</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="38">
-        <f>COUNTIF(G4:G9,"*ü*") * G3</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="38">
-        <f>COUNTIF(H4:H9,"*ü*") * H3</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="38">
-        <f>COUNTIF(I4:I9,"*ü*") * I3</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="38">
-        <f>COUNTIF(J4:J9,"*ü*") * J3</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="38">
-        <f>COUNTIF(K4:K9,"*ü*") * K3</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
-        <f>COUNTIF(L4:L9,"*ü*") * L3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="36"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="34"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="34"/>
+      <c r="D10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3533,14 +3541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
@@ -3549,7 +3557,7 @@
     <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>36</v>
@@ -3606,7 +3614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -3631,7 +3639,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="17" t="s">
         <v>20</v>
@@ -3654,7 +3662,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="17" t="s">
         <v>20</v>
@@ -3670,14 +3678,14 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="66"/>
+      <c r="J4" s="63"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>17</v>
@@ -3702,7 +3710,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -3727,7 +3735,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="17" t="s">
         <v>20</v>
@@ -3750,7 +3758,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="17" t="s">
         <v>20</v>
@@ -3766,14 +3774,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="66"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="17" t="s">
         <v>17</v>
@@ -3798,7 +3806,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
@@ -3823,7 +3831,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="17" t="s">
         <v>20</v>
@@ -3846,7 +3854,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
         <v>20</v>
@@ -3863,13 +3871,13 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="66"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="17" t="s">
         <v>20</v>
@@ -3892,7 +3900,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="17" t="s">
         <v>20</v>
@@ -3915,7 +3923,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>17</v>
@@ -3940,7 +3948,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
@@ -3965,7 +3973,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="17" t="s">
         <v>20</v>
@@ -3988,7 +3996,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
         <v>20</v>
@@ -4004,14 +4012,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="17" t="s">
         <v>17</v>
@@ -4036,18 +4044,18 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4061,7 +4069,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="17" t="s">
         <v>20</v>
@@ -4084,7 +4092,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="17" t="s">
         <v>20</v>
@@ -4101,13 +4109,13 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="66"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="17" t="s">
         <v>20</v>
@@ -4130,7 +4138,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="17" t="s">
         <v>20</v>
@@ -4153,18 +4161,18 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="17">
         <f>SUM(C20:C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="21">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -4178,7 +4186,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
@@ -4203,7 +4211,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="17" t="s">
         <v>20</v>
@@ -4226,7 +4234,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="17" t="s">
         <v>20</v>
@@ -4242,14 +4250,14 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="66"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="22" t="s">
         <v>39</v>
@@ -4274,7 +4282,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="16" thickBot="1">
+    <row r="30" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
         <v>29</v>
@@ -4299,7 +4307,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA1624C-D91E-8445-98E9-EF2514D2704B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777CAAFD-D313-8C40-B424-EED794D1F746}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="42">
   <si>
     <t>Total</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>TDB</t>
+  </si>
+  <si>
+    <t>Logo Design</t>
+  </si>
+  <si>
+    <t>Setup Master Gantt</t>
+  </si>
+  <si>
+    <t>Coding Standards</t>
+  </si>
+  <si>
+    <t>GitHub and Discord Setup</t>
   </si>
 </sst>
 </file>
@@ -894,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -988,29 +1000,29 @@
         <v>7</v>
       </c>
       <c r="B3" s="11">
-        <f>(SUM(F3,J3,N3))</f>
-        <v>500</v>
+        <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
+        <v>1500</v>
       </c>
       <c r="C3" s="12">
-        <f>(SUM(G3,K3,O3))</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D8" si="0">(B3-C3)</f>
-        <v>350</v>
+        <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
+        <v>1300</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
         <f>(Gantt!$B13)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="15">
         <f>(Gantt!$C13)*100</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" ref="H3:H8" si="1">(F3-G3)</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
+        <v>50</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="11">
@@ -1021,21 +1033,21 @@
         <v>150</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L8" si="2">(J3-K3)</f>
+        <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
         <v>350</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="11">
         <f>SA!C5*100</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O3" s="12">
         <f>SA!D5*100</f>
         <v>0</v>
       </c>
       <c r="P3" s="13">
-        <f t="shared" ref="P3:P8" si="3">(N3-O3)</f>
-        <v>0</v>
+        <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1043,16 +1055,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="14">
-        <f>(SUM(F4,J4,N4))</f>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="C4" s="15">
-        <f>(SUM(G4,K4,O4))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>1250</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="9"/>
@@ -1076,21 +1088,21 @@
         <v>150</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="14">
         <f>SA!C9*100</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O4" s="15">
         <f>SA!D9*100</f>
         <v>0</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1098,16 +1110,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="14">
-        <f>(SUM(F5,J5,N5))</f>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="C5" s="15">
-        <f>(SUM(G5,K5,O5))</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14">
@@ -1119,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="9"/>
@@ -1128,24 +1140,24 @@
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="14">
         <f>SA!C13*100</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O5" s="15">
         <f>SA!D13*100</f>
         <v>0</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1153,16 +1165,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="14">
-        <f>(SUM(F6,J6,N6))</f>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="C6" s="15">
-        <f>(SUM(G6,K6,O6))</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
@@ -1183,24 +1195,24 @@
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="14">
         <f>SA!C17*100</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O6" s="15">
         <f>SA!D17*100</f>
         <v>0</v>
       </c>
       <c r="P6" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1208,29 +1220,29 @@
         <v>11</v>
       </c>
       <c r="B7" s="14">
-        <f>(SUM(F7,J7,N7))</f>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="C7" s="15">
-        <f>(SUM(G7,K7,O7))</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>1100</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
         <f>(Gantt!$B61)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="15">
         <f>(Gantt!$C61)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H7" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="14">
@@ -1238,24 +1250,24 @@
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="14">
         <f>SA!C21*100</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O7" s="15">
         <f>SA!D21*100</f>
         <v>0</v>
       </c>
       <c r="P7" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1263,29 +1275,29 @@
         <v>12</v>
       </c>
       <c r="B8" s="18">
-        <f>(SUM(F8,J8,N8))</f>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="C8" s="19">
-        <f>(SUM(G8,K8,O8))</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="D8" s="20">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>1280</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="14">
         <f>(Gantt!$B73)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="15">
         <f>(Gantt!$C73)*100</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="14">
@@ -1293,24 +1305,24 @@
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="18">
         <f>SA!C25*100</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O8" s="19">
         <f>SA!D25*100</f>
         <v>0</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1319,28 +1331,28 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>3000</v>
+        <v>8700</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>900</v>
+        <v>1370</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>2100</v>
+        <v>7330</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
         <f>SUM(F3:F8)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G9" s="26">
         <f>SUM(G3:G8)</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H3:H8)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="25">
@@ -1349,16 +1361,16 @@
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="22">
         <f>SUM(N3:N8)</f>
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="O9" s="23">
         <f>SUM(O3:O8)</f>
@@ -1366,7 +1378,7 @@
       </c>
       <c r="P9" s="24">
         <f>SUM(P3:P8)</f>
-        <v>0</v>
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
@@ -1385,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1432,13 +1444,13 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -1707,11 +1719,11 @@
       </c>
       <c r="B13">
         <f>SUM(B3:B12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -2126,7 +2138,7 @@
     </row>
     <row r="39" spans="1:27" s="32" customFormat="1">
       <c r="A39" s="32" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B39" s="32">
         <v>0</v>
@@ -2304,13 +2316,13 @@
     </row>
     <row r="51" spans="1:27" s="32" customFormat="1">
       <c r="A51" s="32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B51" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="32" customFormat="1">
@@ -2419,11 +2431,11 @@
       </c>
       <c r="B61">
         <f>SUM(B51:B60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <f>SUM(C51:C60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -2482,13 +2494,13 @@
     </row>
     <row r="63" spans="1:27" s="32" customFormat="1">
       <c r="A63" s="32" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B63" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:27" s="32" customFormat="1">
@@ -2597,11 +2609,11 @@
       </c>
       <c r="B73">
         <f>SUM(B63:B72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <f>SUM(C63:C72)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -2669,11 +2681,11 @@
       </c>
       <c r="B75" s="36">
         <f>B74*100</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C75" s="36">
         <f>C74*100</f>
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2699,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2786,7 +2798,7 @@
         <v>1.5</v>
       </c>
       <c r="D3" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="40">
         <v>0</v>
@@ -2859,12 +2871,14 @@
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -2880,12 +2894,14 @@
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -2901,12 +2917,14 @@
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -2922,12 +2940,14 @@
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -2943,7 +2963,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2951,7 +2971,7 @@
       </c>
       <c r="D10" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
@@ -2997,7 +3017,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3075,7 +3095,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="48">
         <v>0</v>
@@ -3098,7 +3118,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="48">
         <v>0</v>
@@ -3121,7 +3141,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="48">
         <v>0</v>
@@ -3135,7 +3155,7 @@
       </c>
       <c r="C5" s="46">
         <f>SUM(C2:C4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="51">
         <f>SUM(D2:D4)</f>
@@ -3161,7 +3181,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="48">
         <v>0</v>
@@ -3173,7 +3193,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="48">
         <v>0</v>
@@ -3186,7 +3206,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="48">
         <v>0</v>
@@ -3200,7 +3220,7 @@
       </c>
       <c r="C9" s="46">
         <f>SUM(C6:C8)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="51">
         <f>SUM(D6:D8)</f>
@@ -3226,7 +3246,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -3238,7 +3258,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -3251,7 +3271,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="48">
         <v>0</v>
@@ -3265,7 +3285,7 @@
       </c>
       <c r="C13" s="46">
         <f>SUM(C10:C12)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" s="51">
         <f>SUM(D10:D12)</f>
@@ -3291,7 +3311,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -3303,7 +3323,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -3316,7 +3336,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="48">
         <v>0</v>
@@ -3330,7 +3350,7 @@
       </c>
       <c r="C17" s="46">
         <f>SUM(C14:C16)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" s="51">
         <f>SUM(D14:D16)</f>
@@ -3356,7 +3376,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
@@ -3368,7 +3388,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
@@ -3381,7 +3401,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="48">
         <v>0</v>
@@ -3395,7 +3415,7 @@
       </c>
       <c r="C21" s="46">
         <f>SUM(C18:C20)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" s="51">
         <f>SUM(D18:D20)</f>
@@ -3421,7 +3441,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -3433,7 +3453,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
@@ -3446,7 +3466,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -3460,7 +3480,7 @@
       </c>
       <c r="C25" s="46">
         <f>SUM(C22:C24)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25" s="51">
         <f>SUM(D22:D24)</f>
@@ -3485,7 +3505,7 @@
       </c>
       <c r="C26" s="55">
         <f>SUM(C5,C9,C13,C17,C21,C25)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D26" s="56">
         <f>SUM(D5,D9,D13,D17,D21,D25)</f>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777CAAFD-D313-8C40-B424-EED794D1F746}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F46F4-089D-BE4A-B5AE-F1ADC4BEA9D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
   <si>
     <t>Total</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Champion</t>
   </si>
   <si>
-    <t>RFP</t>
-  </si>
-  <si>
     <t>SA Presentation</t>
   </si>
   <si>
@@ -177,6 +174,33 @@
   </si>
   <si>
     <t>GitHub and Discord Setup</t>
+  </si>
+  <si>
+    <t>RFP (3 &amp; 4)</t>
+  </si>
+  <si>
+    <t>RFP (9)</t>
+  </si>
+  <si>
+    <t>RFP (1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>RFP (8 &amp; 10)</t>
+  </si>
+  <si>
+    <t>Creating Shared Documents and Organizing Workload</t>
+  </si>
+  <si>
+    <t>RFP (5 &amp; 6)</t>
+  </si>
+  <si>
+    <t>RFP (7)</t>
+  </si>
+  <si>
+    <t>Scheduled Next Meeting</t>
+  </si>
+  <si>
+    <t>Jan. 29</t>
   </si>
 </sst>
 </file>
@@ -401,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,6 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1005,11 +1032,11 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>1300</v>
+        <v>1275</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
@@ -1030,11 +1057,11 @@
       </c>
       <c r="K3" s="12">
         <f>Meetings!B4*100</f>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="11">
@@ -1060,11 +1087,11 @@
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1085,11 +1112,11 @@
       </c>
       <c r="K4" s="15">
         <f>Meetings!B5*100</f>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="14">
@@ -1115,11 +1142,11 @@
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14">
@@ -1140,11 +1167,11 @@
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="14">
@@ -1166,24 +1193,24 @@
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
         <f>(Gantt!$B49)*100</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G6" s="15">
         <f>(Gantt!$C49)*100</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="2"/>
@@ -1195,11 +1222,11 @@
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="14">
@@ -1225,11 +1252,11 @@
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
@@ -1250,11 +1277,11 @@
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="14">
@@ -1280,11 +1307,11 @@
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D8" s="20">
         <f t="shared" si="1"/>
-        <v>1280</v>
+        <v>1255</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="14">
@@ -1305,11 +1332,11 @@
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="18">
@@ -1331,24 +1358,24 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>8700</v>
+        <v>8850</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>1370</v>
+        <v>1670</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>7330</v>
+        <v>7180</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
         <f>SUM(F3:F8)</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="G9" s="26">
         <f>SUM(G3:G8)</f>
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H3:H8)</f>
@@ -1361,11 +1388,11 @@
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="22">
@@ -1398,7 +1425,7 @@
   <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1444,7 +1471,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2138,24 +2165,24 @@
     </row>
     <row r="39" spans="1:27" s="32" customFormat="1">
       <c r="A39" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="32" customFormat="1">
-      <c r="A40" s="32" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="32" customFormat="1" ht="32">
+      <c r="A40" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="B40" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C40" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="32" customFormat="1">
@@ -2253,11 +2280,11 @@
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
@@ -2316,7 +2343,7 @@
     </row>
     <row r="51" spans="1:27" s="32" customFormat="1">
       <c r="A51" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="32">
         <v>1</v>
@@ -2494,7 +2521,7 @@
     </row>
     <row r="63" spans="1:27" s="32" customFormat="1">
       <c r="A63" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="32">
         <v>1</v>
@@ -2645,11 +2672,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -2681,11 +2708,11 @@
       </c>
       <c r="B75" s="36">
         <f>B74*100</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C75" s="36">
         <f>C74*100</f>
-        <v>270</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -2698,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2728,10 +2755,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>21</v>
@@ -2760,25 +2787,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>21</v>
@@ -2801,7 +2828,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="40">
         <v>0</v>
@@ -2831,13 +2858,15 @@
       </c>
       <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="E4" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -2852,13 +2881,15 @@
       </c>
       <c r="B5" s="39">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="E5" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="J5" s="42"/>
@@ -2871,7 +2902,7 @@
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>24</v>
@@ -2879,7 +2910,9 @@
       <c r="D6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -2894,7 +2927,7 @@
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>24</v>
@@ -2902,7 +2935,9 @@
       <c r="D7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -2917,7 +2952,7 @@
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>24</v>
@@ -2925,7 +2960,9 @@
       <c r="D8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
@@ -2940,7 +2977,7 @@
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>24</v>
@@ -2948,7 +2985,9 @@
       <c r="D9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -2963,7 +3002,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2975,7 +3014,7 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F10" s="40">
         <f t="shared" si="1"/>
@@ -3017,7 +3056,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3115,7 +3154,7 @@
     <row r="3" spans="1:19">
       <c r="A3" s="49"/>
       <c r="B3" s="46" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C3" s="47">
         <v>4</v>
@@ -3138,7 +3177,7 @@
     <row r="4" spans="1:19" s="32" customFormat="1">
       <c r="A4" s="49"/>
       <c r="B4" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="47">
         <v>2</v>
@@ -3190,7 +3229,7 @@
     <row r="7" spans="1:19" s="32" customFormat="1">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C7" s="47">
         <v>4</v>
@@ -3203,7 +3242,7 @@
     <row r="8" spans="1:19" s="32" customFormat="1">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="47">
         <v>2</v>
@@ -3255,7 +3294,7 @@
     <row r="11" spans="1:19" s="32" customFormat="1">
       <c r="A11" s="49"/>
       <c r="B11" s="46" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C11" s="47">
         <v>4</v>
@@ -3268,7 +3307,7 @@
     <row r="12" spans="1:19" s="32" customFormat="1">
       <c r="A12" s="49"/>
       <c r="B12" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="47">
         <v>2</v>
@@ -3320,7 +3359,7 @@
     <row r="15" spans="1:19" s="32" customFormat="1">
       <c r="A15" s="49"/>
       <c r="B15" s="46" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C15" s="47">
         <v>4</v>
@@ -3333,7 +3372,7 @@
     <row r="16" spans="1:19" s="32" customFormat="1">
       <c r="A16" s="49"/>
       <c r="B16" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="47">
         <v>2</v>
@@ -3385,7 +3424,7 @@
     <row r="19" spans="1:15" s="32" customFormat="1">
       <c r="A19" s="49"/>
       <c r="B19" s="46" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C19" s="47">
         <v>4</v>
@@ -3398,7 +3437,7 @@
     <row r="20" spans="1:15" s="32" customFormat="1">
       <c r="A20" s="49"/>
       <c r="B20" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="47">
         <v>2</v>
@@ -3450,7 +3489,7 @@
     <row r="23" spans="1:15" s="32" customFormat="1">
       <c r="A23" s="49"/>
       <c r="B23" s="46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C23" s="47">
         <v>4</v>
@@ -3463,7 +3502,7 @@
     <row r="24" spans="1:15" s="32" customFormat="1">
       <c r="A24" s="49"/>
       <c r="B24" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="47">
         <v>2</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F46F4-089D-BE4A-B5AE-F1ADC4BEA9D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF19C53-60B0-3542-B606-630FBADB7CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -56,24 +56,6 @@
     <t>Deficit</t>
   </si>
   <si>
-    <t>Jacob Friedberg:</t>
-  </si>
-  <si>
-    <t>Cameron Dearien:</t>
-  </si>
-  <si>
-    <t>Conrad Mearns:</t>
-  </si>
-  <si>
-    <t>Benjamin Hallman:</t>
-  </si>
-  <si>
-    <t>Delaney Fitzgerald:</t>
-  </si>
-  <si>
-    <t>Corbin Schueller:</t>
-  </si>
-  <si>
     <t>Totals:</t>
   </si>
   <si>
@@ -201,6 +183,24 @@
   </si>
   <si>
     <t>Jan. 29</t>
+  </si>
+  <si>
+    <t>Jacob:</t>
+  </si>
+  <si>
+    <t>Cameron:</t>
+  </si>
+  <si>
+    <t>Conrad:</t>
+  </si>
+  <si>
+    <t>Benjamin:</t>
+  </si>
+  <si>
+    <t>Delaney:</t>
+  </si>
+  <si>
+    <t>Corbin:</t>
   </si>
 </sst>
 </file>
@@ -543,11 +543,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,7 +934,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -959,27 +959,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="17" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="17" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1440,38 +1440,38 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="31" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="10" spans="1:27" s="32" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="32">
         <v>0</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="11" spans="1:27" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="32">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="12" spans="1:27" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" s="32">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>SUM(B3:B12)</f>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="34" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="15" spans="1:27" s="32" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="32">
         <v>0</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="16" spans="1:27" s="32" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="32">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="17" spans="1:27" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="32">
         <v>0</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="18" spans="1:27" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" s="32">
         <v>0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="19" spans="1:27" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" s="32">
         <v>0</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="20" spans="1:27" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" s="32">
         <v>0</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="21" spans="1:27" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21" s="32">
         <v>0</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="22" spans="1:27" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" s="32">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="23" spans="1:27" s="32" customFormat="1">
       <c r="A23" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" s="32">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="24" spans="1:27" s="32" customFormat="1">
       <c r="A24" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24" s="32">
         <v>0</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <f>SUM(B15:B24)</f>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="34" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="27" spans="1:27" s="32" customFormat="1">
       <c r="A27" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" s="32">
         <v>0</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="28" spans="1:27" s="32" customFormat="1">
       <c r="A28" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B28" s="32">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="29" spans="1:27" s="32" customFormat="1">
       <c r="A29" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B29" s="32">
         <v>0</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="30" spans="1:27" s="32" customFormat="1">
       <c r="A30" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B30" s="32">
         <v>0</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="31" spans="1:27" s="32" customFormat="1">
       <c r="A31" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31" s="32">
         <v>0</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="32" spans="1:27" s="32" customFormat="1">
       <c r="A32" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B32" s="32">
         <v>0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="33" spans="1:27" s="32" customFormat="1">
       <c r="A33" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B33" s="32">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="34" spans="1:27" s="32" customFormat="1">
       <c r="A34" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B34" s="32">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="35" spans="1:27" s="32" customFormat="1">
       <c r="A35" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B35" s="32">
         <v>0</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="36" spans="1:27" s="32" customFormat="1">
       <c r="A36" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B36" s="32">
         <v>0</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="34" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="39" spans="1:27" s="32" customFormat="1">
       <c r="A39" s="32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39" s="32">
         <v>1</v>
@@ -2175,8 +2175,8 @@
       </c>
     </row>
     <row r="40" spans="1:27" s="32" customFormat="1" ht="32">
-      <c r="A40" s="58" t="s">
-        <v>45</v>
+      <c r="A40" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="32">
         <v>0.5</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="41" spans="1:27" s="32" customFormat="1">
       <c r="A41" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B41" s="32">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="42" spans="1:27" s="32" customFormat="1">
       <c r="A42" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B42" s="32">
         <v>0</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="43" spans="1:27" s="32" customFormat="1">
       <c r="A43" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B43" s="32">
         <v>0</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="44" spans="1:27" s="32" customFormat="1">
       <c r="A44" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B44" s="32">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="45" spans="1:27" s="32" customFormat="1">
       <c r="A45" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B45" s="32">
         <v>0</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="46" spans="1:27" s="32" customFormat="1">
       <c r="A46" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B46" s="32">
         <v>0</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="47" spans="1:27" s="32" customFormat="1">
       <c r="A47" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B47" s="32">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="48" spans="1:27" s="32" customFormat="1">
       <c r="A48" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B48" s="32">
         <v>0</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="31" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="51" spans="1:27" s="32" customFormat="1">
       <c r="A51" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B51" s="32">
         <v>1</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="52" spans="1:27" s="32" customFormat="1">
       <c r="A52" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B52" s="32">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="53" spans="1:27" s="32" customFormat="1">
       <c r="A53" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B53" s="32">
         <v>0</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="54" spans="1:27" s="32" customFormat="1">
       <c r="A54" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B54" s="32">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="55" spans="1:27" s="32" customFormat="1">
       <c r="A55" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B55" s="32">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="56" spans="1:27" s="32" customFormat="1">
       <c r="A56" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B56" s="32">
         <v>0</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="57" spans="1:27" s="32" customFormat="1">
       <c r="A57" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B57" s="32">
         <v>0</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="58" spans="1:27" s="32" customFormat="1">
       <c r="A58" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B58" s="32">
         <v>0</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="59" spans="1:27" s="32" customFormat="1">
       <c r="A59" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B59" s="32">
         <v>0</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="60" spans="1:27" s="32" customFormat="1">
       <c r="A60" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B60" s="32">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <f>SUM(B51:B60)</f>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="34" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="63" spans="1:27" s="32" customFormat="1">
       <c r="A63" s="32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B63" s="32">
         <v>1</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="64" spans="1:27" s="32" customFormat="1">
       <c r="A64" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B64" s="32">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="65" spans="1:27" s="32" customFormat="1">
       <c r="A65" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B65" s="32">
         <v>0</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="66" spans="1:27" s="32" customFormat="1">
       <c r="A66" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B66" s="32">
         <v>0</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="67" spans="1:27" s="32" customFormat="1">
       <c r="A67" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B67" s="32">
         <v>0</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="68" spans="1:27" s="32" customFormat="1">
       <c r="A68" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B68" s="32">
         <v>0</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="69" spans="1:27" s="32" customFormat="1">
       <c r="A69" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B69" s="32">
         <v>0</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="70" spans="1:27" s="32" customFormat="1">
       <c r="A70" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B70" s="32">
         <v>0</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="71" spans="1:27" s="32" customFormat="1">
       <c r="A71" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B71" s="32">
         <v>0</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="72" spans="1:27" s="32" customFormat="1">
       <c r="A72" s="32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B72" s="32">
         <v>0</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B73">
         <f>SUM(B63:B72)</f>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B75" s="36">
         <f>B74*100</f>
@@ -2725,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2746,80 +2746,80 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="64">
       <c r="B2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" s="41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="40">
         <v>1.5</v>
@@ -2854,18 +2854,18 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="39" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>1.75</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -2877,18 +2877,18 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="39" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B5" s="39">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -2898,20 +2898,20 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="39" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -2923,20 +2923,20 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="39" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -2948,20 +2948,20 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="39" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -2973,20 +2973,20 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="39" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
@@ -3055,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3072,13 +3072,13 @@
     <row r="1" spans="1:19">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="47">
         <v>3</v>
@@ -3154,7 +3154,7 @@
     <row r="3" spans="1:19">
       <c r="A3" s="49"/>
       <c r="B3" s="46" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" s="47">
         <v>4</v>
@@ -3177,7 +3177,7 @@
     <row r="4" spans="1:19" s="32" customFormat="1">
       <c r="A4" s="49"/>
       <c r="B4" s="46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="47">
         <v>2</v>
@@ -3190,7 +3190,7 @@
     <row r="5" spans="1:19">
       <c r="A5" s="49"/>
       <c r="B5" s="46" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" s="46">
         <f>SUM(C2:C4)</f>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="6" spans="1:19" s="32" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="47">
         <v>3</v>
@@ -3229,7 +3229,7 @@
     <row r="7" spans="1:19" s="32" customFormat="1">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" s="47">
         <v>4</v>
@@ -3242,7 +3242,7 @@
     <row r="8" spans="1:19" s="32" customFormat="1">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="47">
         <v>2</v>
@@ -3255,7 +3255,7 @@
     <row r="9" spans="1:19">
       <c r="A9" s="49"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="46">
         <f>SUM(C6:C8)</f>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="10" spans="1:19" s="32" customFormat="1">
       <c r="A10" s="17" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="47">
         <v>3</v>
@@ -3294,7 +3294,7 @@
     <row r="11" spans="1:19" s="32" customFormat="1">
       <c r="A11" s="49"/>
       <c r="B11" s="46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="47">
         <v>4</v>
@@ -3307,7 +3307,7 @@
     <row r="12" spans="1:19" s="32" customFormat="1">
       <c r="A12" s="49"/>
       <c r="B12" s="46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="47">
         <v>2</v>
@@ -3320,7 +3320,7 @@
     <row r="13" spans="1:19">
       <c r="A13" s="49"/>
       <c r="B13" s="52" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="46">
         <f>SUM(C10:C12)</f>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="14" spans="1:19" s="32" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="47">
         <v>3</v>
@@ -3359,7 +3359,7 @@
     <row r="15" spans="1:19" s="32" customFormat="1">
       <c r="A15" s="49"/>
       <c r="B15" s="46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="47">
         <v>4</v>
@@ -3372,7 +3372,7 @@
     <row r="16" spans="1:19" s="32" customFormat="1">
       <c r="A16" s="49"/>
       <c r="B16" s="46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="47">
         <v>2</v>
@@ -3385,7 +3385,7 @@
     <row r="17" spans="1:15">
       <c r="A17" s="49"/>
       <c r="B17" s="46" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="46">
         <f>SUM(C14:C16)</f>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="18" spans="1:15" s="32" customFormat="1">
       <c r="A18" s="17" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" s="47">
         <v>3</v>
@@ -3424,7 +3424,7 @@
     <row r="19" spans="1:15" s="32" customFormat="1">
       <c r="A19" s="49"/>
       <c r="B19" s="46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="47">
         <v>4</v>
@@ -3437,7 +3437,7 @@
     <row r="20" spans="1:15" s="32" customFormat="1">
       <c r="A20" s="49"/>
       <c r="B20" s="46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" s="47">
         <v>2</v>
@@ -3450,7 +3450,7 @@
     <row r="21" spans="1:15">
       <c r="A21" s="49"/>
       <c r="B21" s="52" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C21" s="46">
         <f>SUM(C18:C20)</f>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="22" spans="1:15" s="32" customFormat="1">
       <c r="A22" s="17" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" s="47">
         <v>3</v>
@@ -3489,7 +3489,7 @@
     <row r="23" spans="1:15" s="32" customFormat="1">
       <c r="A23" s="49"/>
       <c r="B23" s="46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C23" s="47">
         <v>4</v>
@@ -3502,7 +3502,7 @@
     <row r="24" spans="1:15" s="32" customFormat="1">
       <c r="A24" s="49"/>
       <c r="B24" s="46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="47">
         <v>2</v>
@@ -3515,7 +3515,7 @@
     <row r="25" spans="1:15">
       <c r="A25" s="49"/>
       <c r="B25" s="52" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C25" s="46">
         <f>SUM(C22:C24)</f>
@@ -3540,7 +3540,7 @@
     <row r="26" spans="1:15">
       <c r="A26" s="53"/>
       <c r="B26" s="54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" s="55">
         <f>SUM(C5,C9,C13,C17,C21,C25)</f>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF19C53-60B0-3542-B606-630FBADB7CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88051562-6346-EA4D-8812-6879DE041E8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t>Total</t>
   </si>
@@ -179,9 +179,6 @@
     <t>RFP (7)</t>
   </si>
   <si>
-    <t>Scheduled Next Meeting</t>
-  </si>
-  <si>
     <t>Jan. 29</t>
   </si>
   <si>
@@ -201,6 +198,15 @@
   </si>
   <si>
     <t>Corbin:</t>
+  </si>
+  <si>
+    <t>Assigned RFP Sections</t>
+  </si>
+  <si>
+    <t>Jan. 31</t>
+  </si>
+  <si>
+    <t>Assigned Features</t>
   </si>
 </sst>
 </file>
@@ -934,7 +940,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1024,19 +1030,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>1275</v>
+        <v>2250</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
@@ -1053,15 +1059,15 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="11">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K3" s="12">
         <f>Meetings!B4*100</f>
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>325</v>
+        <v>1300</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="11">
@@ -1079,19 +1085,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>2200</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1108,15 +1114,15 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="14">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K4" s="15">
         <f>Meetings!B5*100</f>
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>1300</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="14">
@@ -1134,19 +1140,19 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>1175</v>
+        <v>2150</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14">
@@ -1163,15 +1169,15 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="14">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>1250</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="14">
@@ -1189,19 +1195,19 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>2550</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>1175</v>
+        <v>2150</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
@@ -1218,15 +1224,15 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="14">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>1250</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="14">
@@ -1244,19 +1250,19 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>2050</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
@@ -1273,15 +1279,15 @@
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="14">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>1250</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="14">
@@ -1299,19 +1305,19 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D8" s="20">
         <f t="shared" si="1"/>
-        <v>1255</v>
+        <v>2230</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="14">
@@ -1328,15 +1334,15 @@
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="14">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>1250</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="18">
@@ -1358,15 +1364,15 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>8850</v>
+        <v>14850</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>1670</v>
+        <v>1820</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>7180</v>
+        <v>13030</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
@@ -1384,15 +1390,15 @@
       <c r="I9" s="9"/>
       <c r="J9" s="25">
         <f>SUM(J3:J8)</f>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>1750</v>
+        <v>7600</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="22">
@@ -1463,7 +1469,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -2134,7 +2140,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2312,7 +2318,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2490,7 +2496,7 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -2726,7 +2732,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2758,10 +2764,10 @@
         <v>28</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>15</v>
@@ -2793,10 +2799,10 @@
         <v>29</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>30</v>
@@ -2831,7 +2837,7 @@
         <v>0.25</v>
       </c>
       <c r="F3" s="40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="40">
         <v>0</v>
@@ -2854,11 +2860,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>18</v>
@@ -2867,7 +2873,9 @@
       <c r="E4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -2877,11 +2885,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="39">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>18</v>
@@ -2890,7 +2898,9 @@
       <c r="E5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
@@ -2898,11 +2908,11 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>18</v>
@@ -2913,7 +2923,9 @@
       <c r="E6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
@@ -2923,11 +2935,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>18</v>
@@ -2938,7 +2950,9 @@
       <c r="E7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -2948,11 +2962,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>18</v>
@@ -2963,7 +2977,9 @@
       <c r="E8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -2973,11 +2989,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>18</v>
@@ -2988,7 +3004,9 @@
       <c r="E9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
@@ -3002,7 +3020,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -3018,7 +3036,7 @@
       </c>
       <c r="F10" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="40">
         <f t="shared" si="1"/>
@@ -3056,7 +3074,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3128,13 +3146,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="48">
         <v>0</v>
@@ -3157,7 +3175,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="48">
         <v>0</v>
@@ -3214,13 +3232,13 @@
     </row>
     <row r="6" spans="1:19" s="32" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="48">
         <v>0</v>
@@ -3232,7 +3250,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="48">
         <v>0</v>
@@ -3279,13 +3297,13 @@
     </row>
     <row r="10" spans="1:19" s="32" customFormat="1">
       <c r="A10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -3297,7 +3315,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="48">
         <v>0</v>
@@ -3344,13 +3362,13 @@
     </row>
     <row r="14" spans="1:19" s="32" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -3362,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="48">
         <v>0</v>
@@ -3409,13 +3427,13 @@
     </row>
     <row r="18" spans="1:15" s="32" customFormat="1">
       <c r="A18" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
@@ -3427,7 +3445,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="48">
         <v>0</v>
@@ -3474,13 +3492,13 @@
     </row>
     <row r="22" spans="1:15" s="32" customFormat="1">
       <c r="A22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -3492,7 +3510,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88051562-6346-EA4D-8812-6879DE041E8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA308177-AAB7-224E-9541-76022ABBE48F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
   <si>
     <t>Total</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Subtotal:</t>
   </si>
   <si>
-    <t>Champion</t>
-  </si>
-  <si>
     <t>SA Presentation</t>
   </si>
   <si>
@@ -206,7 +203,25 @@
     <t>Jan. 31</t>
   </si>
   <si>
-    <t>Assigned Features</t>
+    <t>Worked through RFP and SA Presentations</t>
+  </si>
+  <si>
+    <t>Champion (Map)</t>
+  </si>
+  <si>
+    <t>Champion (Menu &amp; Sound)</t>
+  </si>
+  <si>
+    <t>Champion (Score)</t>
+  </si>
+  <si>
+    <t>Champion (Player)</t>
+  </si>
+  <si>
+    <t>Champion (Items)</t>
+  </si>
+  <si>
+    <t>Champion (Enemies)</t>
   </si>
 </sst>
 </file>
@@ -1030,19 +1045,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>2250</v>
+        <v>2175</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
@@ -1063,16 +1078,16 @@
       </c>
       <c r="K3" s="12">
         <f>Meetings!B4*100</f>
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>1300</v>
+        <v>1025</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="11">
         <f>SA!C5*100</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O3" s="12">
         <f>SA!D5*100</f>
@@ -1080,24 +1095,24 @@
       </c>
       <c r="P3" s="13">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>2125</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1118,16 +1133,16 @@
       </c>
       <c r="K4" s="15">
         <f>Meetings!B5*100</f>
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>1300</v>
+        <v>1025</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="14">
         <f>SA!C9*100</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O4" s="15">
         <f>SA!D9*100</f>
@@ -1135,24 +1150,24 @@
       </c>
       <c r="P4" s="16">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>2150</v>
+        <v>2075</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14">
@@ -1173,16 +1188,16 @@
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="14">
         <f>SA!C13*100</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O5" s="15">
         <f>SA!D13*100</f>
@@ -1190,24 +1205,24 @@
       </c>
       <c r="P5" s="16">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>2750</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>825</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>2150</v>
+        <v>1925</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
@@ -1228,41 +1243,41 @@
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="14">
         <f>SA!C17*100</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O6" s="15">
         <f>SA!D17*100</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P6" s="16">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>2050</v>
+        <v>1975</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
@@ -1283,16 +1298,16 @@
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="14">
         <f>SA!C21*100</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O7" s="15">
         <f>SA!D21*100</f>
@@ -1300,24 +1315,24 @@
       </c>
       <c r="P7" s="16">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>545</v>
       </c>
       <c r="D8" s="20">
         <f t="shared" si="1"/>
-        <v>2230</v>
+        <v>2155</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="14">
@@ -1338,16 +1353,16 @@
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="18">
         <f>SA!C25*100</f>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O8" s="19">
         <f>SA!D25*100</f>
@@ -1355,7 +1370,7 @@
       </c>
       <c r="P8" s="20">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1364,15 +1379,15 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>14850</v>
+        <v>16050</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>1820</v>
+        <v>3620</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>13030</v>
+        <v>12430</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
@@ -1394,24 +1409,24 @@
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>1400</v>
+        <v>3050</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>7600</v>
+        <v>5950</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="22">
         <f>SUM(N3:N8)</f>
-        <v>5400</v>
+        <v>6600</v>
       </c>
       <c r="O9" s="23">
         <f>SUM(O3:O8)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P9" s="24">
         <f>SUM(P3:P8)</f>
-        <v>5400</v>
+        <v>6450</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1484,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1477,7 +1492,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1784,7 +1799,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1962,7 +1977,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -2140,7 +2155,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2171,7 +2186,7 @@
     </row>
     <row r="39" spans="1:27" s="32" customFormat="1">
       <c r="A39" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="32">
         <v>1</v>
@@ -2182,7 +2197,7 @@
     </row>
     <row r="40" spans="1:27" s="32" customFormat="1" ht="32">
       <c r="A40" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="32">
         <v>0.5</v>
@@ -2318,7 +2333,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2349,7 +2364,7 @@
     </row>
     <row r="51" spans="1:27" s="32" customFormat="1">
       <c r="A51" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="32">
         <v>1</v>
@@ -2496,7 +2511,7 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -2527,7 +2542,7 @@
     </row>
     <row r="63" spans="1:27" s="32" customFormat="1">
       <c r="A63" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="32">
         <v>1</v>
@@ -2731,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2742,7 +2757,7 @@
     <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
     <col min="7" max="9" width="8.83203125" style="37" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" style="37" customWidth="1"/>
     <col min="11" max="11" width="9" style="37" customWidth="1"/>
@@ -2761,13 +2776,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>15</v>
@@ -2788,30 +2803,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64">
+    <row r="2" spans="1:12" ht="80">
       <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>15</v>
@@ -2837,7 +2852,7 @@
         <v>0.25</v>
       </c>
       <c r="F3" s="40">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="G3" s="40">
         <v>0</v>
@@ -2860,11 +2875,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>18</v>
@@ -2885,11 +2900,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>18</v>
@@ -2908,11 +2923,11 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>18</v>
@@ -2935,11 +2950,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>18</v>
@@ -2962,11 +2977,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>18</v>
@@ -2989,11 +3004,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>18</v>
@@ -3020,7 +3035,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
-        <v>14</v>
+        <v>30.5</v>
       </c>
       <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -3036,7 +3051,7 @@
       </c>
       <c r="F10" s="40">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="G10" s="40">
         <f t="shared" si="1"/>
@@ -3073,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3146,13 +3161,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C2" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="48">
         <v>0</v>
@@ -3172,7 +3187,7 @@
     <row r="3" spans="1:19">
       <c r="A3" s="49"/>
       <c r="B3" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="47">
         <v>3</v>
@@ -3195,7 +3210,7 @@
     <row r="4" spans="1:19" s="32" customFormat="1">
       <c r="A4" s="49"/>
       <c r="B4" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="47">
         <v>2</v>
@@ -3212,7 +3227,7 @@
       </c>
       <c r="C5" s="46">
         <f>SUM(C2:C4)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="51">
         <f>SUM(D2:D4)</f>
@@ -3232,13 +3247,13 @@
     </row>
     <row r="6" spans="1:19" s="32" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C6" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="48">
         <v>0</v>
@@ -3247,7 +3262,7 @@
     <row r="7" spans="1:19" s="32" customFormat="1">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
@@ -3260,7 +3275,7 @@
     <row r="8" spans="1:19" s="32" customFormat="1">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="47">
         <v>2</v>
@@ -3277,7 +3292,7 @@
       </c>
       <c r="C9" s="46">
         <f>SUM(C6:C8)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="51">
         <f>SUM(D6:D8)</f>
@@ -3297,13 +3312,13 @@
     </row>
     <row r="10" spans="1:19" s="32" customFormat="1">
       <c r="A10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C10" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
@@ -3312,7 +3327,7 @@
     <row r="11" spans="1:19" s="32" customFormat="1">
       <c r="A11" s="49"/>
       <c r="B11" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="47">
         <v>3</v>
@@ -3325,7 +3340,7 @@
     <row r="12" spans="1:19" s="32" customFormat="1">
       <c r="A12" s="49"/>
       <c r="B12" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="47">
         <v>2</v>
@@ -3342,7 +3357,7 @@
       </c>
       <c r="C13" s="46">
         <f>SUM(C10:C12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="51">
         <f>SUM(D10:D12)</f>
@@ -3362,13 +3377,13 @@
     </row>
     <row r="14" spans="1:19" s="32" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C14" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
@@ -3377,20 +3392,20 @@
     <row r="15" spans="1:19" s="32" customFormat="1">
       <c r="A15" s="49"/>
       <c r="B15" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="47">
         <v>3</v>
       </c>
       <c r="D15" s="48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:19" s="32" customFormat="1">
       <c r="A16" s="49"/>
       <c r="B16" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="47">
         <v>2</v>
@@ -3407,11 +3422,11 @@
       </c>
       <c r="C17" s="46">
         <f>SUM(C14:C16)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="51">
         <f>SUM(D14:D16)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -3427,13 +3442,13 @@
     </row>
     <row r="18" spans="1:15" s="32" customFormat="1">
       <c r="A18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C18" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="48">
         <v>0</v>
@@ -3442,7 +3457,7 @@
     <row r="19" spans="1:15" s="32" customFormat="1">
       <c r="A19" s="49"/>
       <c r="B19" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="47">
         <v>3</v>
@@ -3455,7 +3470,7 @@
     <row r="20" spans="1:15" s="32" customFormat="1">
       <c r="A20" s="49"/>
       <c r="B20" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="47">
         <v>2</v>
@@ -3472,7 +3487,7 @@
       </c>
       <c r="C21" s="46">
         <f>SUM(C18:C20)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="51">
         <f>SUM(D18:D20)</f>
@@ -3492,13 +3507,13 @@
     </row>
     <row r="22" spans="1:15" s="32" customFormat="1">
       <c r="A22" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C22" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -3507,7 +3522,7 @@
     <row r="23" spans="1:15" s="32" customFormat="1">
       <c r="A23" s="49"/>
       <c r="B23" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="47">
         <v>3</v>
@@ -3520,7 +3535,7 @@
     <row r="24" spans="1:15" s="32" customFormat="1">
       <c r="A24" s="49"/>
       <c r="B24" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="47">
         <v>2</v>
@@ -3537,7 +3552,7 @@
       </c>
       <c r="C25" s="46">
         <f>SUM(C22:C24)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="51">
         <f>SUM(D22:D24)</f>
@@ -3562,11 +3577,11 @@
       </c>
       <c r="C26" s="55">
         <f>SUM(C5,C9,C13,C17,C21,C25)</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D26" s="56">
         <f>SUM(D5,D9,D13,D17,D21,D25)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA308177-AAB7-224E-9541-76022ABBE48F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23319790-79E7-0B47-8526-AA685D1F3B84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="64">
   <si>
     <t>Total</t>
   </si>
@@ -167,9 +167,6 @@
     <t>RFP (8 &amp; 10)</t>
   </si>
   <si>
-    <t>Creating Shared Documents and Organizing Workload</t>
-  </si>
-  <si>
     <t>RFP (5 &amp; 6)</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Jan. 31</t>
   </si>
   <si>
-    <t>Worked through RFP and SA Presentations</t>
-  </si>
-  <si>
     <t>Champion (Map)</t>
   </si>
   <si>
@@ -222,6 +216,33 @@
   </si>
   <si>
     <t>Champion (Enemies)</t>
+  </si>
+  <si>
+    <t>Finished Champions, RFP, and SA Presentation</t>
+  </si>
+  <si>
+    <t>Worked through RFP and SA Presentation</t>
+  </si>
+  <si>
+    <t>Feb. 5</t>
+  </si>
+  <si>
+    <t>Requirements Collection</t>
+  </si>
+  <si>
+    <t>Implement Update Player Position</t>
+  </si>
+  <si>
+    <t>Implement Manage Player Controls</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Implement Collision Check</t>
+  </si>
+  <si>
+    <t>Installation</t>
   </si>
 </sst>
 </file>
@@ -446,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,9 +585,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,7 +973,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -980,27 +998,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="J1" s="58" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="J1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1045,7 +1063,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
@@ -1053,11 +1071,11 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>2175</v>
+        <v>1925</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
@@ -1078,11 +1096,11 @@
       </c>
       <c r="K3" s="12">
         <f>Meetings!B4*100</f>
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>1025</v>
+        <v>775</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="11">
@@ -1100,7 +1118,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
@@ -1108,11 +1126,11 @@
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>2125</v>
+        <v>1875</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1133,11 +1151,11 @@
       </c>
       <c r="K4" s="15">
         <f>Meetings!B5*100</f>
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>1025</v>
+        <v>775</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="14">
@@ -1155,7 +1173,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
@@ -1163,11 +1181,11 @@
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>2075</v>
+        <v>1825</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14">
@@ -1188,11 +1206,11 @@
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="14">
@@ -1210,28 +1228,28 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>2750</v>
+        <v>2700</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>825</v>
+        <v>1525</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>1925</v>
+        <v>1175</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
         <f>(Gantt!$B49)*100</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G6" s="15">
         <f>(Gantt!$C49)*100</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="2"/>
@@ -1243,11 +1261,11 @@
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="14">
@@ -1256,16 +1274,16 @@
       </c>
       <c r="O6" s="15">
         <f>SA!D17*100</f>
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="P6" s="16">
         <f t="shared" si="4"/>
-        <v>950</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
@@ -1273,11 +1291,11 @@
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>1975</v>
+        <v>1725</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
@@ -1298,11 +1316,11 @@
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="14">
@@ -1320,7 +1338,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
@@ -1328,11 +1346,11 @@
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>545</v>
+        <v>795</v>
       </c>
       <c r="D8" s="20">
         <f t="shared" si="1"/>
-        <v>2155</v>
+        <v>1905</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="14">
@@ -1353,11 +1371,11 @@
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>975</v>
+        <v>725</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="18">
@@ -1379,24 +1397,24 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>16050</v>
+        <v>16000</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>3620</v>
+        <v>5570</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>12430</v>
+        <v>10430</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
         <f>SUM(F3:F8)</f>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G9" s="26">
         <f>SUM(G3:G8)</f>
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H3:H8)</f>
@@ -1409,11 +1427,11 @@
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>3050</v>
+        <v>4550</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>5950</v>
+        <v>4450</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="22">
@@ -1422,11 +1440,11 @@
       </c>
       <c r="O9" s="23">
         <f>SUM(O3:O8)</f>
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="P9" s="24">
         <f>SUM(P3:P8)</f>
-        <v>6450</v>
+        <v>5950</v>
       </c>
     </row>
   </sheetData>
@@ -1445,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1484,7 +1502,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1799,7 +1817,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1977,7 +1995,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -2155,7 +2173,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2195,20 +2213,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="32" customFormat="1" ht="32">
-      <c r="A40" s="57" t="s">
-        <v>38</v>
+    <row r="40" spans="1:27" s="32" customFormat="1">
+      <c r="A40" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C40" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="32" customFormat="1">
       <c r="A41" s="32" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B41" s="32">
         <v>0</v>
@@ -2216,10 +2234,11 @@
       <c r="C41" s="32">
         <v>0</v>
       </c>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:27" s="32" customFormat="1">
       <c r="A42" s="32" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B42" s="32">
         <v>0</v>
@@ -2227,11 +2246,10 @@
       <c r="C42" s="32">
         <v>0</v>
       </c>
-      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:27" s="32" customFormat="1">
       <c r="A43" s="32" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B43" s="32">
         <v>0</v>
@@ -2242,7 +2260,7 @@
     </row>
     <row r="44" spans="1:27" s="32" customFormat="1">
       <c r="A44" s="32" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B44" s="32">
         <v>0</v>
@@ -2253,7 +2271,7 @@
     </row>
     <row r="45" spans="1:27" s="32" customFormat="1">
       <c r="A45" s="32" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B45" s="32">
         <v>0</v>
@@ -2276,12 +2294,6 @@
     <row r="47" spans="1:27" s="32" customFormat="1">
       <c r="A47" s="32" t="s">
         <v>15</v>
-      </c>
-      <c r="B47" s="32">
-        <v>0</v>
-      </c>
-      <c r="C47" s="32">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="32" customFormat="1">
@@ -2301,11 +2313,11 @@
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
@@ -2333,7 +2345,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2511,7 +2523,7 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -2693,11 +2705,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="B75" s="36">
         <f>B74*100</f>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C75" s="36">
         <f>C74*100</f>
-        <v>420</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2746,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2758,10 +2770,8 @@
     <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
-    <col min="7" max="9" width="8.83203125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="9" style="37" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="37" customWidth="1"/>
+    <col min="8" max="12" width="4.1640625" style="37" bestFit="1" customWidth="1"/>
     <col min="13" max="1025" width="8.83203125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2779,13 +2789,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>15</v>
@@ -2803,7 +2813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
+    <row r="2" spans="1:12" ht="96">
       <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
@@ -2814,13 +2824,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>29</v>
@@ -2855,7 +2865,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="40">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="40">
         <v>0</v>
@@ -2875,11 +2885,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>18</v>
@@ -2891,7 +2901,9 @@
       <c r="F4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
@@ -2900,11 +2912,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="39">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>18</v>
@@ -2916,18 +2928,20 @@
       <c r="F5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>7.75</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>18</v>
@@ -2941,7 +2955,9 @@
       <c r="F6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
@@ -2950,11 +2966,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>7.75</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>18</v>
@@ -2968,7 +2984,9 @@
       <c r="F7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
@@ -2977,11 +2995,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>7.75</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>18</v>
@@ -2995,7 +3013,9 @@
       <c r="F8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
@@ -3004,11 +3024,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>7.75</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>18</v>
@@ -3022,7 +3042,9 @@
       <c r="F9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -3035,7 +3057,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
-        <v>30.5</v>
+        <v>45.5</v>
       </c>
       <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -3055,7 +3077,7 @@
       </c>
       <c r="G10" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="1"/>
@@ -3089,7 +3111,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3161,10 +3183,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="47">
         <v>6</v>
@@ -3247,10 +3269,10 @@
     </row>
     <row r="6" spans="1:19" s="32" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="47">
         <v>6</v>
@@ -3262,7 +3284,7 @@
     <row r="7" spans="1:19" s="32" customFormat="1">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="47">
         <v>3</v>
@@ -3312,10 +3334,10 @@
     </row>
     <row r="10" spans="1:19" s="32" customFormat="1">
       <c r="A10" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="47">
         <v>6</v>
@@ -3327,7 +3349,7 @@
     <row r="11" spans="1:19" s="32" customFormat="1">
       <c r="A11" s="49"/>
       <c r="B11" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="47">
         <v>3</v>
@@ -3377,16 +3399,16 @@
     </row>
     <row r="14" spans="1:19" s="32" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="47">
         <v>6</v>
       </c>
       <c r="D14" s="48">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="32" customFormat="1">
@@ -3426,7 +3448,7 @@
       </c>
       <c r="D17" s="51">
         <f>SUM(D14:D16)</f>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -3442,10 +3464,10 @@
     </row>
     <row r="18" spans="1:15" s="32" customFormat="1">
       <c r="A18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="47">
         <v>6</v>
@@ -3507,10 +3529,10 @@
     </row>
     <row r="22" spans="1:15" s="32" customFormat="1">
       <c r="A22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="47">
         <v>6</v>
@@ -3581,7 +3603,7 @@
       </c>
       <c r="D26" s="56">
         <f>SUM(D5,D9,D13,D17,D21,D25)</f>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23319790-79E7-0B47-8526-AA685D1F3B84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B212808-61CE-4AA8-8F57-DA25EDCC0703}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>Total</t>
   </si>
@@ -243,6 +244,21 @@
   </si>
   <si>
     <t>Installation</t>
+  </si>
+  <si>
+    <t>Plan Menus</t>
+  </si>
+  <si>
+    <t>Collect Sounds</t>
+  </si>
+  <si>
+    <t>Create Menus</t>
+  </si>
+  <si>
+    <t>Create Buttons</t>
+  </si>
+  <si>
+    <t>Make stuff work together</t>
   </si>
 </sst>
 </file>
@@ -976,25 +992,25 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1126,11 +1142,11 @@
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>1525</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>1875</v>
+        <v>1075</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1164,11 +1180,11 @@
       </c>
       <c r="O4" s="15">
         <f>SA!D9*100</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1401,11 +1417,11 @@
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>5570</v>
+        <v>6370</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>10430</v>
+        <v>9630</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
@@ -1440,11 +1456,11 @@
       </c>
       <c r="O9" s="23">
         <f>SUM(O3:O8)</f>
-        <v>650</v>
+        <v>1450</v>
       </c>
       <c r="P9" s="24">
         <f>SUM(P3:P8)</f>
-        <v>5950</v>
+        <v>5150</v>
       </c>
     </row>
   </sheetData>
@@ -1463,18 +1479,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1848,7 +1864,7 @@
     </row>
     <row r="15" spans="1:27" s="32" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B15" s="32">
         <v>0</v>
@@ -1859,7 +1875,7 @@
     </row>
     <row r="16" spans="1:27" s="32" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B16" s="32">
         <v>0</v>
@@ -1870,7 +1886,7 @@
     </row>
     <row r="17" spans="1:27" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B17" s="32">
         <v>0</v>
@@ -1881,7 +1897,7 @@
     </row>
     <row r="18" spans="1:27" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B18" s="32">
         <v>0</v>
@@ -1893,7 +1909,7 @@
     </row>
     <row r="19" spans="1:27" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B19" s="32">
         <v>0</v>
@@ -1904,7 +1920,7 @@
     </row>
     <row r="20" spans="1:27" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B20" s="32">
         <v>0</v>
@@ -1915,7 +1931,7 @@
     </row>
     <row r="21" spans="1:27" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B21" s="32">
         <v>0</v>
@@ -2762,17 +2778,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="37" customWidth="1"/>
-    <col min="8" max="12" width="4.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="37" customWidth="1"/>
+    <col min="8" max="12" width="4.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.81640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2813,7 +2829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="96">
+    <row r="2" spans="1:12" ht="87">
       <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
@@ -3110,18 +3126,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.6328125" customWidth="1"/>
+    <col min="20" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3278,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="48">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="32" customFormat="1">
@@ -3290,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="50"/>
     </row>
@@ -3303,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="50"/>
     </row>
@@ -3318,7 +3334,7 @@
       </c>
       <c r="D9" s="51">
         <f>SUM(D6:D8)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -3603,7 +3619,7 @@
       </c>
       <c r="D26" s="56">
         <f>SUM(D5,D9,D13,D17,D21,D25)</f>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B212808-61CE-4AA8-8F57-DA25EDCC0703}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12820" windowHeight="15240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,14 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
   <si>
     <t>Total</t>
   </si>
@@ -260,16 +265,25 @@
   <si>
     <t>Make stuff work together</t>
   </si>
+  <si>
+    <t>Function Definitions</t>
+  </si>
+  <si>
+    <t>User Documentation</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -985,35 +999,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1050,7 @@
       <c r="O1" s="57"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>42</v>
       </c>
@@ -1187,7 +1201,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
@@ -1297,13 +1311,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
@@ -1311,12 +1325,12 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>1725</v>
+        <v>3025</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
         <f>(Gantt!$B61)*100</f>
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="G7" s="15">
         <f>(Gantt!$C61)*100</f>
@@ -1324,7 +1338,7 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>1200</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="14">
@@ -1352,7 +1366,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>46</v>
       </c>
@@ -1407,13 +1421,13 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>16000</v>
+        <v>17300</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
@@ -1421,12 +1435,12 @@
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>9630</v>
+        <v>10930</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
         <f>SUM(F3:F8)</f>
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="G9" s="26">
         <f>SUM(G3:G8)</f>
@@ -1434,7 +1448,7 @@
       </c>
       <c r="H9" s="27">
         <f>SUM(H3:H8)</f>
-        <v>30</v>
+        <v>1330</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="25">
@@ -1476,24 +1490,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1558,7 +1572,7 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1606,7 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1626,7 +1640,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1660,7 +1674,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1708,7 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1742,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1762,7 +1776,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" s="32" customFormat="1">
+    <row r="10" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="32" customFormat="1">
+    <row r="11" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="32" customFormat="1">
+    <row r="12" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
@@ -1795,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1845,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>42</v>
       </c>
@@ -1862,7 +1876,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" s="32" customFormat="1">
+    <row r="15" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
@@ -1873,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="32" customFormat="1">
+    <row r="16" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="32" customFormat="1">
+    <row r="17" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>67</v>
       </c>
@@ -1895,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="32" customFormat="1">
+    <row r="18" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>65</v>
       </c>
@@ -1907,7 +1921,7 @@
       </c>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:27" s="32" customFormat="1">
+    <row r="19" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>68</v>
       </c>
@@ -1918,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="32" customFormat="1">
+    <row r="20" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>61</v>
       </c>
@@ -1929,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="32" customFormat="1">
+    <row r="21" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>63</v>
       </c>
@@ -1940,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="32" customFormat="1">
+    <row r="22" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>15</v>
       </c>
@@ -1951,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="32" customFormat="1">
+    <row r="23" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>15</v>
       </c>
@@ -1962,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="32" customFormat="1">
+    <row r="24" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>15</v>
       </c>
@@ -1973,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2023,7 @@
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>43</v>
       </c>
@@ -2040,7 +2054,7 @@
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
     </row>
-    <row r="27" spans="1:27" s="32" customFormat="1">
+    <row r="27" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="32" customFormat="1">
+    <row r="28" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="32" customFormat="1">
+    <row r="29" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>15</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="32" customFormat="1">
+    <row r="30" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2099,7 @@
       </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:27" s="32" customFormat="1">
+    <row r="31" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="32" customFormat="1">
+    <row r="32" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="32" customFormat="1">
+    <row r="33" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="32" customFormat="1">
+    <row r="34" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>15</v>
       </c>
@@ -2129,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="32" customFormat="1">
+    <row r="35" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>15</v>
       </c>
@@ -2140,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="32" customFormat="1">
+    <row r="36" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2201,7 @@
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>44</v>
       </c>
@@ -2218,7 +2232,7 @@
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
     </row>
-    <row r="39" spans="1:27" s="32" customFormat="1">
+    <row r="39" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>31</v>
       </c>
@@ -2229,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="32" customFormat="1">
+    <row r="40" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>58</v>
       </c>
@@ -2240,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="32" customFormat="1">
+    <row r="41" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>60</v>
       </c>
@@ -2252,7 +2266,7 @@
       </c>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:27" s="32" customFormat="1">
+    <row r="42" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>59</v>
       </c>
@@ -2263,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="32" customFormat="1">
+    <row r="43" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
         <v>62</v>
       </c>
@@ -2274,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="32" customFormat="1">
+    <row r="44" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
         <v>61</v>
       </c>
@@ -2285,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="32" customFormat="1">
+    <row r="45" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>63</v>
       </c>
@@ -2296,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="32" customFormat="1">
+    <row r="46" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
         <v>15</v>
       </c>
@@ -2307,12 +2321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="32" customFormat="1">
+    <row r="47" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="32" customFormat="1">
+    <row r="48" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>15</v>
       </c>
@@ -2323,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2373,7 @@
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
         <v>45</v>
       </c>
@@ -2390,7 +2404,7 @@
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
     </row>
-    <row r="51" spans="1:27" s="32" customFormat="1">
+    <row r="51" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
         <v>32</v>
       </c>
@@ -2401,74 +2415,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="32" customFormat="1">
+    <row r="52" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B52" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="32" customFormat="1">
+    <row r="53" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B53" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="32" customFormat="1">
+    <row r="54" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B54" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="32">
         <v>0</v>
       </c>
       <c r="J54" s="33"/>
     </row>
-    <row r="55" spans="1:27" s="32" customFormat="1">
+    <row r="55" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B55" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="32" customFormat="1">
+    <row r="56" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B56" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="32" customFormat="1">
+    <row r="57" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B57" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="32" customFormat="1">
+    <row r="58" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
         <v>15</v>
       </c>
@@ -2479,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="32" customFormat="1">
+    <row r="59" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="32" customFormat="1">
+    <row r="60" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
         <v>15</v>
       </c>
@@ -2501,13 +2515,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61">
         <f>SUM(B51:B60)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <f>SUM(C51:C60)</f>
@@ -2537,7 +2551,7 @@
       <c r="Z61" s="32"/>
       <c r="AA61" s="32"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="34" t="s">
         <v>46</v>
       </c>
@@ -2568,7 +2582,7 @@
       <c r="Z62" s="32"/>
       <c r="AA62" s="32"/>
     </row>
-    <row r="63" spans="1:27" s="32" customFormat="1">
+    <row r="63" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
         <v>30</v>
       </c>
@@ -2579,7 +2593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="32" customFormat="1">
+    <row r="64" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
         <v>15</v>
       </c>
@@ -2590,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="32" customFormat="1">
+    <row r="65" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="32" customFormat="1">
+    <row r="66" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
         <v>15</v>
       </c>
@@ -2613,7 +2627,7 @@
       </c>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="1:27" s="32" customFormat="1">
+    <row r="67" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="32" customFormat="1">
+    <row r="68" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="32" customFormat="1">
+    <row r="69" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
         <v>15</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="32" customFormat="1">
+    <row r="70" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
         <v>15</v>
       </c>
@@ -2657,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="32" customFormat="1">
+    <row r="71" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
         <v>15</v>
       </c>
@@ -2668,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="32" customFormat="1">
+    <row r="72" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2715,13 +2729,13 @@
       <c r="Z73" s="32"/>
       <c r="AA73" s="32"/>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
@@ -2751,13 +2765,13 @@
       <c r="Z74" s="32"/>
       <c r="AA74" s="32"/>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
       <c r="B75" s="36">
         <f>B74*100</f>
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="C75" s="36">
         <f>C74*100</f>
@@ -2771,27 +2785,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="37" customWidth="1"/>
-    <col min="8" max="12" width="4.1796875" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.81640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="37" customWidth="1"/>
+    <col min="8" max="12" width="4.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -2829,7 +2843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="87">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>41</v>
       </c>
@@ -2926,7 +2940,7 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>42</v>
       </c>
@@ -2951,7 +2965,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>43</v>
       </c>
@@ -2980,7 +2994,7 @@
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
@@ -3009,7 +3023,7 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3052,7 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>46</v>
       </c>
@@ -3067,7 +3081,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
@@ -3123,24 +3137,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6328125" customWidth="1"/>
-    <col min="20" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>22</v>
@@ -3197,7 +3211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -3222,7 +3236,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="46" t="s">
         <v>36</v>
@@ -3245,7 +3259,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:19" s="32" customFormat="1">
+    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="46" t="s">
         <v>25</v>
@@ -3258,7 +3272,7 @@
       </c>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="46" t="s">
         <v>23</v>
@@ -3283,7 +3297,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:19" s="32" customFormat="1">
+    <row r="6" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -3297,7 +3311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="32" customFormat="1">
+    <row r="7" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
         <v>39</v>
@@ -3310,7 +3324,7 @@
       </c>
       <c r="J7" s="50"/>
     </row>
-    <row r="8" spans="1:19" s="32" customFormat="1">
+    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
         <v>25</v>
@@ -3323,7 +3337,7 @@
       </c>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="46" t="s">
         <v>23</v>
@@ -3348,7 +3362,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:19" s="32" customFormat="1">
+    <row r="10" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
@@ -3362,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="32" customFormat="1">
+    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
       <c r="B11" s="46" t="s">
         <v>38</v>
@@ -3375,7 +3389,7 @@
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1">
+    <row r="12" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="46" t="s">
         <v>25</v>
@@ -3388,7 +3402,7 @@
       </c>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="49"/>
       <c r="B13" s="52" t="s">
         <v>23</v>
@@ -3413,7 +3427,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
     </row>
-    <row r="14" spans="1:19" s="32" customFormat="1">
+    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="32" customFormat="1">
+    <row r="15" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="46" t="s">
         <v>35</v>
@@ -3440,7 +3454,7 @@
       </c>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="1:19" s="32" customFormat="1">
+    <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="46" t="s">
         <v>25</v>
@@ -3453,7 +3467,7 @@
       </c>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="46" t="s">
         <v>23</v>
@@ -3478,7 +3492,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
     </row>
-    <row r="18" spans="1:15" s="32" customFormat="1">
+    <row r="18" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>45</v>
       </c>
@@ -3492,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="32" customFormat="1">
+    <row r="19" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="46" t="s">
         <v>37</v>
@@ -3505,7 +3519,7 @@
       </c>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:15" s="32" customFormat="1">
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="B20" s="46" t="s">
         <v>25</v>
@@ -3518,7 +3532,7 @@
       </c>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="52" t="s">
         <v>23</v>
@@ -3543,7 +3557,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:15" s="32" customFormat="1">
+    <row r="22" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>46</v>
       </c>
@@ -3557,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="32" customFormat="1">
+    <row r="23" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="46" t="s">
         <v>34</v>
@@ -3570,7 +3584,7 @@
       </c>
       <c r="J23" s="50"/>
     </row>
-    <row r="24" spans="1:15" s="32" customFormat="1">
+    <row r="24" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="46" t="s">
         <v>25</v>
@@ -3583,7 +3597,7 @@
       </c>
       <c r="J24" s="50"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="52" t="s">
         <v>24</v>
@@ -3608,7 +3622,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="54" t="s">
         <v>7</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A9703-40F9-45BA-8422-F3C7D2EFB022}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12820" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -274,16 +275,31 @@
   <si>
     <t>Programming</t>
   </si>
+  <si>
+    <t>Gather 3D assets</t>
+  </si>
+  <si>
+    <t>Program world generation</t>
+  </si>
+  <si>
+    <t>Program hit detection</t>
+  </si>
+  <si>
+    <t>Place all box coliders</t>
+  </si>
+  <si>
+    <t>Place 3D assets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -999,35 +1015,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1066,7 @@
       <c r="O1" s="57"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1091,26 +1107,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>2700</v>
+        <v>5700</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
-        <v>775</v>
+        <v>1975</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>1925</v>
+        <v>3725</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
         <f>(Gantt!$B13)*100</f>
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="G3" s="15">
         <f>(Gantt!$C13)*100</f>
@@ -1118,7 +1134,7 @@
       </c>
       <c r="H3" s="16">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
-        <v>50</v>
+        <v>3050</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="11">
@@ -1139,14 +1155,14 @@
       </c>
       <c r="O3" s="12">
         <f>SA!D5*100</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P3" s="13">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="17" t="s">
         <v>43</v>
       </c>
@@ -1256,7 +1272,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1327,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1382,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
         <v>46</v>
       </c>
@@ -1421,26 +1437,26 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>17300</v>
+        <v>20300</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>6370</v>
+        <v>7570</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>10930</v>
+        <v>12730</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
         <f>SUM(F3:F8)</f>
-        <v>1700</v>
+        <v>4700</v>
       </c>
       <c r="G9" s="26">
         <f>SUM(G3:G8)</f>
@@ -1448,7 +1464,7 @@
       </c>
       <c r="H9" s="27">
         <f>SUM(H3:H8)</f>
-        <v>1330</v>
+        <v>4330</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="25">
@@ -1470,11 +1486,11 @@
       </c>
       <c r="O9" s="23">
         <f>SUM(O3:O8)</f>
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="P9" s="24">
         <f>SUM(P3:P8)</f>
-        <v>5150</v>
+        <v>3950</v>
       </c>
     </row>
   </sheetData>
@@ -1490,24 +1506,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="31" t="s">
         <v>41</v>
       </c>
@@ -1538,7 +1554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1572,12 +1588,12 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1606,12 +1622,12 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1640,12 +1656,12 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1674,12 +1690,12 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1708,12 +1724,12 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1742,12 +1758,12 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1776,18 +1792,18 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" s="32" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B10" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
@@ -1809,13 +1825,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
         <f>SUM(B3:B12)</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
@@ -1845,7 +1861,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" s="34" t="s">
         <v>42</v>
       </c>
@@ -1876,7 +1892,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="32" customFormat="1">
       <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="32" customFormat="1">
       <c r="A16" s="32" t="s">
         <v>66</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
         <v>67</v>
       </c>
@@ -1909,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1937,7 @@
       </c>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
         <v>68</v>
       </c>
@@ -1932,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
         <v>61</v>
       </c>
@@ -1943,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
         <v>63</v>
       </c>
@@ -1954,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="32" customFormat="1">
       <c r="A23" s="32" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="32" customFormat="1">
       <c r="A24" s="32" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2039,7 @@
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26" s="34" t="s">
         <v>43</v>
       </c>
@@ -2054,7 +2070,7 @@
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
     </row>
-    <row r="27" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" s="32" customFormat="1">
       <c r="A27" s="32" t="s">
         <v>15</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="32" customFormat="1">
       <c r="A28" s="32" t="s">
         <v>15</v>
       </c>
@@ -2076,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="32" customFormat="1">
       <c r="A29" s="32" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" s="32" customFormat="1">
       <c r="A30" s="32" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2115,7 @@
       </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="32" customFormat="1">
       <c r="A31" s="32" t="s">
         <v>15</v>
       </c>
@@ -2110,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="32" customFormat="1">
       <c r="A32" s="32" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="32" customFormat="1">
       <c r="A33" s="32" t="s">
         <v>15</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="32" customFormat="1">
       <c r="A34" s="32" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="32" customFormat="1">
       <c r="A35" s="32" t="s">
         <v>15</v>
       </c>
@@ -2154,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="32" customFormat="1">
       <c r="A36" s="32" t="s">
         <v>15</v>
       </c>
@@ -2165,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37" s="35" t="s">
         <v>7</v>
       </c>
@@ -2201,7 +2217,7 @@
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38" s="34" t="s">
         <v>44</v>
       </c>
@@ -2232,7 +2248,7 @@
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
     </row>
-    <row r="39" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="32" customFormat="1">
       <c r="A39" s="32" t="s">
         <v>31</v>
       </c>
@@ -2243,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="32" customFormat="1">
       <c r="A40" s="32" t="s">
         <v>58</v>
       </c>
@@ -2254,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="32" customFormat="1">
       <c r="A41" s="32" t="s">
         <v>60</v>
       </c>
@@ -2266,7 +2282,7 @@
       </c>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" s="32" customFormat="1">
       <c r="A42" s="32" t="s">
         <v>59</v>
       </c>
@@ -2277,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="32" customFormat="1">
       <c r="A43" s="32" t="s">
         <v>62</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="32" customFormat="1">
       <c r="A44" s="32" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="32" customFormat="1">
       <c r="A45" s="32" t="s">
         <v>63</v>
       </c>
@@ -2310,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" s="32" customFormat="1">
       <c r="A46" s="32" t="s">
         <v>15</v>
       </c>
@@ -2321,12 +2337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" s="32" customFormat="1">
       <c r="A47" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="32" customFormat="1">
       <c r="A48" s="32" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49" s="35" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2389,7 @@
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50" s="31" t="s">
         <v>45</v>
       </c>
@@ -2404,7 +2420,7 @@
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
     </row>
-    <row r="51" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" s="32" customFormat="1">
       <c r="A51" s="32" t="s">
         <v>32</v>
       </c>
@@ -2415,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" s="32" customFormat="1">
       <c r="A52" s="32" t="s">
         <v>58</v>
       </c>
@@ -2426,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" s="32" customFormat="1">
       <c r="A53" s="32" t="s">
         <v>69</v>
       </c>
@@ -2437,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" s="32" customFormat="1">
       <c r="A54" s="32" t="s">
         <v>70</v>
       </c>
@@ -2449,7 +2465,7 @@
       </c>
       <c r="J54" s="33"/>
     </row>
-    <row r="55" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" s="32" customFormat="1">
       <c r="A55" s="32" t="s">
         <v>71</v>
       </c>
@@ -2460,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" s="32" customFormat="1">
       <c r="A56" s="32" t="s">
         <v>61</v>
       </c>
@@ -2471,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" s="32" customFormat="1">
       <c r="A57" s="32" t="s">
         <v>63</v>
       </c>
@@ -2482,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" s="32" customFormat="1">
       <c r="A58" s="32" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" s="32" customFormat="1">
       <c r="A59" s="32" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" s="32" customFormat="1">
       <c r="A60" s="32" t="s">
         <v>15</v>
       </c>
@@ -2515,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2567,7 @@
       <c r="Z61" s="32"/>
       <c r="AA61" s="32"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62" s="34" t="s">
         <v>46</v>
       </c>
@@ -2582,7 +2598,7 @@
       <c r="Z62" s="32"/>
       <c r="AA62" s="32"/>
     </row>
-    <row r="63" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" s="32" customFormat="1">
       <c r="A63" s="32" t="s">
         <v>30</v>
       </c>
@@ -2593,7 +2609,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" s="32" customFormat="1">
       <c r="A64" s="32" t="s">
         <v>15</v>
       </c>
@@ -2604,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" s="32" customFormat="1">
       <c r="A65" s="32" t="s">
         <v>15</v>
       </c>
@@ -2615,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" s="32" customFormat="1">
       <c r="A66" s="32" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2643,7 @@
       </c>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" s="32" customFormat="1">
       <c r="A67" s="32" t="s">
         <v>15</v>
       </c>
@@ -2638,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" s="32" customFormat="1">
       <c r="A68" s="32" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" s="32" customFormat="1">
       <c r="A69" s="32" t="s">
         <v>15</v>
       </c>
@@ -2660,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" s="32" customFormat="1">
       <c r="A70" s="32" t="s">
         <v>15</v>
       </c>
@@ -2671,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" s="32" customFormat="1">
       <c r="A71" s="32" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" s="32" customFormat="1">
       <c r="A72" s="32" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2729,13 +2745,13 @@
       <c r="Z73" s="32"/>
       <c r="AA73" s="32"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
         <v>16</v>
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
@@ -2765,13 +2781,13 @@
       <c r="Z74" s="32"/>
       <c r="AA74" s="32"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
         <v>17</v>
       </c>
       <c r="B75" s="36">
         <f>B74*100</f>
-        <v>1700</v>
+        <v>4700</v>
       </c>
       <c r="C75" s="36">
         <f>C74*100</f>
@@ -2785,27 +2801,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="37" customWidth="1"/>
-    <col min="8" max="12" width="4.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="37" customWidth="1"/>
+    <col min="8" max="12" width="4.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="90">
       <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
@@ -2878,7 +2894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
@@ -2913,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="39" t="s">
         <v>41</v>
       </c>
@@ -2940,7 +2956,7 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="39" t="s">
         <v>42</v>
       </c>
@@ -2965,7 +2981,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="39" t="s">
         <v>43</v>
       </c>
@@ -2994,7 +3010,7 @@
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
@@ -3023,7 +3039,7 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="39" t="s">
         <v>45</v>
       </c>
@@ -3052,7 +3068,7 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="39" t="s">
         <v>46</v>
       </c>
@@ -3081,7 +3097,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
@@ -3137,24 +3153,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>22</v>
@@ -3211,7 +3227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -3222,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -3236,7 +3252,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="49"/>
       <c r="B3" s="46" t="s">
         <v>36</v>
@@ -3245,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -3259,7 +3275,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="32" customFormat="1">
       <c r="A4" s="49"/>
       <c r="B4" s="46" t="s">
         <v>25</v>
@@ -3268,11 +3284,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="49"/>
       <c r="B5" s="46" t="s">
         <v>23</v>
@@ -3283,7 +3299,7 @@
       </c>
       <c r="D5" s="51">
         <f>SUM(D2:D4)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -3297,7 +3313,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="32" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -3311,7 +3327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="32" customFormat="1">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
         <v>39</v>
@@ -3324,7 +3340,7 @@
       </c>
       <c r="J7" s="50"/>
     </row>
-    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="32" customFormat="1">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
         <v>25</v>
@@ -3337,7 +3353,7 @@
       </c>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="49"/>
       <c r="B9" s="46" t="s">
         <v>23</v>
@@ -3362,7 +3378,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="32" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
@@ -3376,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="32" customFormat="1">
       <c r="A11" s="49"/>
       <c r="B11" s="46" t="s">
         <v>38</v>
@@ -3389,7 +3405,7 @@
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="32" customFormat="1">
       <c r="A12" s="49"/>
       <c r="B12" s="46" t="s">
         <v>25</v>
@@ -3402,7 +3418,7 @@
       </c>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="49"/>
       <c r="B13" s="52" t="s">
         <v>23</v>
@@ -3427,7 +3443,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
     </row>
-    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="32" customFormat="1">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
@@ -3441,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="32" customFormat="1">
       <c r="A15" s="49"/>
       <c r="B15" s="46" t="s">
         <v>35</v>
@@ -3454,7 +3470,7 @@
       </c>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="32" customFormat="1">
       <c r="A16" s="49"/>
       <c r="B16" s="46" t="s">
         <v>25</v>
@@ -3467,7 +3483,7 @@
       </c>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="49"/>
       <c r="B17" s="46" t="s">
         <v>23</v>
@@ -3492,7 +3508,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
     </row>
-    <row r="18" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="32" customFormat="1">
       <c r="A18" s="17" t="s">
         <v>45</v>
       </c>
@@ -3506,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="32" customFormat="1">
       <c r="A19" s="49"/>
       <c r="B19" s="46" t="s">
         <v>37</v>
@@ -3519,7 +3535,7 @@
       </c>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="32" customFormat="1">
       <c r="A20" s="49"/>
       <c r="B20" s="46" t="s">
         <v>25</v>
@@ -3532,7 +3548,7 @@
       </c>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="49"/>
       <c r="B21" s="52" t="s">
         <v>23</v>
@@ -3557,7 +3573,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="32" customFormat="1">
       <c r="A22" s="17" t="s">
         <v>46</v>
       </c>
@@ -3571,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="32" customFormat="1">
       <c r="A23" s="49"/>
       <c r="B23" s="46" t="s">
         <v>34</v>
@@ -3584,7 +3600,7 @@
       </c>
       <c r="J23" s="50"/>
     </row>
-    <row r="24" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="32" customFormat="1">
       <c r="A24" s="49"/>
       <c r="B24" s="46" t="s">
         <v>25</v>
@@ -3597,7 +3613,7 @@
       </c>
       <c r="J24" s="50"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="49"/>
       <c r="B25" s="52" t="s">
         <v>24</v>
@@ -3622,7 +3638,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="53"/>
       <c r="B26" s="54" t="s">
         <v>7</v>
@@ -3633,7 +3649,7 @@
       </c>
       <c r="D26" s="56">
         <f>SUM(D5,D9,D13,D17,D21,D25)</f>
-        <v>14.5</v>
+        <v>26.5</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B212808-61CE-4AA8-8F57-DA25EDCC0703}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C050B54-C50B-4949-BB7B-13FEFE24880B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="71">
   <si>
     <t>Total</t>
   </si>
@@ -259,6 +258,12 @@
   </si>
   <si>
     <t>Make stuff work together</t>
+  </si>
+  <si>
+    <t>Presentation Rehersal</t>
+  </si>
+  <si>
+    <t>Feb. 6</t>
   </si>
 </sst>
 </file>
@@ -992,25 +997,25 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1087,11 +1092,11 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>1925</v>
+        <v>1775</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="14">
@@ -1112,11 +1117,11 @@
       </c>
       <c r="K3" s="12">
         <f>Meetings!B4*100</f>
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="11">
@@ -1142,11 +1147,11 @@
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>1525</v>
+        <v>1675</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>925</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14">
@@ -1167,11 +1172,11 @@
       </c>
       <c r="K4" s="15">
         <f>Meetings!B5*100</f>
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="14">
@@ -1197,11 +1202,11 @@
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>1825</v>
+        <v>1675</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14">
@@ -1222,11 +1227,11 @@
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="14">
@@ -1252,11 +1257,11 @@
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>1525</v>
+        <v>1675</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>1175</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
@@ -1277,11 +1282,11 @@
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="14">
@@ -1307,11 +1312,11 @@
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>975</v>
+        <v>1125</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>1725</v>
+        <v>1575</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="14">
@@ -1332,11 +1337,11 @@
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="14">
@@ -1362,11 +1367,11 @@
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>795</v>
+        <v>945</v>
       </c>
       <c r="D8" s="20">
         <f t="shared" si="1"/>
-        <v>1905</v>
+        <v>1755</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="14">
@@ -1387,11 +1392,11 @@
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="18">
@@ -1417,11 +1422,11 @@
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>6370</v>
+        <v>7270</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>9630</v>
+        <v>8730</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="25">
@@ -1443,11 +1448,11 @@
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>4550</v>
+        <v>5450</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>4450</v>
+        <v>3550</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="22">
@@ -1479,18 +1484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2774,21 +2779,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="37" customWidth="1"/>
-    <col min="8" max="12" width="4.1796875" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.81640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="37" customWidth="1"/>
+    <col min="9" max="12" width="4.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2814,7 +2819,7 @@
         <v>57</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>15</v>
@@ -2829,7 +2834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="87">
+    <row r="2" spans="1:12" ht="112">
       <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>55</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>29</v>
@@ -2884,7 +2889,7 @@
         <v>2.5</v>
       </c>
       <c r="H3" s="40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="40">
         <v>0</v>
@@ -2905,7 +2910,7 @@
       </c>
       <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>18</v>
@@ -2920,7 +2925,9 @@
       <c r="G4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="42"/>
+      <c r="H4" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -2932,7 +2939,7 @@
       </c>
       <c r="B5" s="39">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>18</v>
@@ -2947,6 +2954,9 @@
       <c r="G5" s="38" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
@@ -2957,7 +2967,7 @@
       </c>
       <c r="B6" s="39">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>18</v>
@@ -2974,7 +2984,9 @@
       <c r="G6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
@@ -2986,7 +2998,7 @@
       </c>
       <c r="B7" s="39">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>18</v>
@@ -3003,7 +3015,9 @@
       <c r="G7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
@@ -3015,7 +3029,7 @@
       </c>
       <c r="B8" s="39">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>18</v>
@@ -3032,7 +3046,9 @@
       <c r="G8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
@@ -3044,7 +3060,7 @@
       </c>
       <c r="B9" s="39">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>18</v>
@@ -3061,7 +3077,9 @@
       <c r="G9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -3073,7 +3091,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
-        <v>45.5</v>
+        <v>54.5</v>
       </c>
       <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -3097,7 +3115,7 @@
       </c>
       <c r="H10" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="40">
         <f t="shared" si="1"/>
@@ -3130,14 +3148,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6328125" customWidth="1"/>
-    <col min="20" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8414EED2-9234-BA4A-9748-61CC52FCB21F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A04423-E541-2643-ACA6-938835154CA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>Total</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Instalation</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
   </si>
 </sst>
 </file>
@@ -519,11 +525,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,6 +643,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1050,451 +1057,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="J1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
         <v>2700</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
         <v>1775</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="14">
+      <c r="E3" s="5"/>
+      <c r="F3" s="13">
         <f>(Gantt!$B13)*100</f>
         <v>100</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
         <v>50</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
         <v>50</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="11">
+      <c r="I3" s="5"/>
+      <c r="J3" s="10">
         <v>1500</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>Meetings!B4*100</f>
         <v>875</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
         <v>625</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="11">
-        <f>SA!C5*100</f>
+      <c r="M3" s="5"/>
+      <c r="N3" s="10">
+        <f>SA!C7*100</f>
         <v>1100</v>
       </c>
-      <c r="O3" s="12">
-        <f>SA!D5*100</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="O3" s="11">
+        <f>SA!D7*100</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
         <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14">
+      <c r="E4" s="5"/>
+      <c r="F4" s="13">
         <f>(Gantt!$B25)*100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>(Gantt!$C25)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="14">
+      <c r="I4" s="5"/>
+      <c r="J4" s="13">
         <v>1500</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>Meetings!B5*100</f>
         <v>875</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="3"/>
         <v>625</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="14">
-        <f>SA!C9*100</f>
+      <c r="M4" s="5"/>
+      <c r="N4" s="13">
+        <f>SA!C13*100</f>
         <v>1100</v>
       </c>
-      <c r="O4" s="15">
-        <f>SA!D9*100</f>
+      <c r="O4" s="14">
+        <f>SA!D13*100</f>
         <v>800</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>1675</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14">
+      <c r="E5" s="5"/>
+      <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="14">
+      <c r="I5" s="5"/>
+      <c r="J5" s="13">
         <v>1500</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>Meetings!B6*100</f>
         <v>925</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="14">
-        <f>SA!C13*100</f>
+      <c r="M5" s="5"/>
+      <c r="N5" s="13">
+        <f>SA!C19*100</f>
         <v>1100</v>
       </c>
-      <c r="O5" s="15">
-        <f>SA!D13*100</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="O5" s="14">
+        <f>SA!D19*100</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
-        <v>5700</v>
-      </c>
-      <c r="C6" s="15">
+        <v>6000</v>
+      </c>
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>1875</v>
-      </c>
-      <c r="D6" s="16">
+        <v>2175</v>
+      </c>
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
         <v>3825</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="14">
+      <c r="E6" s="5"/>
+      <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
         <v>3100</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
         <v>100</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="14">
+      <c r="I6" s="5"/>
+      <c r="J6" s="13">
         <v>1500</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>Meetings!B7*100</f>
         <v>925</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14">
-        <f>SA!C17*100</f>
-        <v>1100</v>
-      </c>
-      <c r="O6" s="15">
-        <f>SA!D17*100</f>
-        <v>850</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="M6" s="5"/>
+      <c r="N6" s="13">
+        <f>SA!C25*100</f>
+        <v>1400</v>
+      </c>
+      <c r="O6" s="14">
+        <f>SA!D25*100</f>
+        <v>1150</v>
+      </c>
+      <c r="P6" s="15">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>1575</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="14">
+      <c r="E7" s="5"/>
+      <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
         <v>100</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
         <v>200</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14">
+      <c r="I7" s="5"/>
+      <c r="J7" s="13">
         <v>1500</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>Meetings!B8*100</f>
         <v>925</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="14">
-        <f>SA!C21*100</f>
+      <c r="M7" s="5"/>
+      <c r="N7" s="13">
+        <f>SA!C31*100</f>
         <v>1100</v>
       </c>
-      <c r="O7" s="15">
-        <f>SA!D21*100</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="O7" s="14">
+        <f>SA!D31*100</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>2395</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="14">
+      <c r="E8" s="5"/>
+      <c r="F8" s="13">
         <f>(Gantt!$B73)*100</f>
         <v>100</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>(Gantt!$C73)*100</f>
         <v>20</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14">
+      <c r="I8" s="5"/>
+      <c r="J8" s="13">
         <v>1500</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>Meetings!B9*100</f>
         <v>925</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="18">
-        <f>SA!C25*100</f>
+      <c r="M8" s="5"/>
+      <c r="N8" s="17">
+        <f>SA!C37*100</f>
         <v>1100</v>
       </c>
-      <c r="O8" s="19">
-        <f>SA!D25*100</f>
+      <c r="O8" s="18">
+        <f>SA!D37*100</f>
         <v>1450</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <f t="shared" si="4"/>
         <v>-350</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>19000</v>
-      </c>
-      <c r="C9" s="23">
+        <v>19300</v>
+      </c>
+      <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>8920</v>
-      </c>
-      <c r="D9" s="24">
+        <v>9220</v>
+      </c>
+      <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
         <v>10080</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
         <v>3400</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
         <v>370</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
         <v>3030</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
         <v>9000</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
         <v>5450</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
         <v>3550</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="22">
+      <c r="M9" s="5"/>
+      <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
-        <v>6600</v>
-      </c>
-      <c r="O9" s="23">
+        <v>6900</v>
+      </c>
+      <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
-        <v>3100</v>
-      </c>
-      <c r="P9" s="24">
+        <v>3400</v>
+      </c>
+      <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
         <v>3500</v>
       </c>
@@ -1515,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
@@ -1540,21 +1547,21 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
       <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="29"/>
       <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1604,7 +1611,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -1686,7 +1693,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -1736,7 +1743,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="32"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
@@ -1818,7 +1825,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
@@ -1868,7 +1875,7 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="J30" s="32"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
@@ -1937,7 +1944,7 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B37">
@@ -1950,7 +1957,7 @@
       </c>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
@@ -1967,7 +1974,7 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="57"/>
+      <c r="E39" s="56"/>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
@@ -1979,9 +1986,9 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
@@ -1993,12 +2000,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
@@ -2010,12 +2017,12 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
@@ -2027,15 +2034,15 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="55" t="s">
         <v>71</v>
       </c>
       <c r="B44">
@@ -2044,9 +2051,9 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
@@ -2058,10 +2065,10 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="58"/>
+      <c r="AD45" s="57"/>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="57"/>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
@@ -2073,8 +2080,8 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="AH46" s="58"/>
-      <c r="AI46" s="58"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
@@ -2099,7 +2106,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B49">
@@ -2112,7 +2119,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
@@ -2162,7 +2169,7 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="J54" s="32"/>
+      <c r="J54" s="31"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
@@ -2244,7 +2251,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
@@ -2294,7 +2301,7 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="J66" s="32"/>
+      <c r="J66" s="31"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
@@ -2392,11 +2399,11 @@
       <c r="A75" t="s">
         <v>38</v>
       </c>
-      <c r="B75" s="35">
+      <c r="B75" s="34">
         <f>B74*100</f>
         <v>3400</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="34">
         <f>C74*100</f>
         <v>370</v>
       </c>
@@ -2417,351 +2424,351 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="36" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="36" customWidth="1"/>
-    <col min="9" max="12" width="4.1640625" style="36" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="9" max="12" width="4.1640625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="39" t="s">
+      <c r="I1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="80">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="40" t="s">
+      <c r="J2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>1.5</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>0.5</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>0.25</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>3</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>2.5</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>1.5</v>
       </c>
-      <c r="I3" s="39">
-        <v>0</v>
-      </c>
-      <c r="J3" s="39">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39">
+      <c r="I3" s="38">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="C5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="C6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="C7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="C8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="C9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <f>SUM(B4:B9)</f>
         <v>54.5</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2774,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2791,14 +2798,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2848,341 +2855,497 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>6</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="48"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>3</v>
       </c>
-      <c r="D3" s="47">
-        <v>0</v>
-      </c>
-      <c r="J3" s="49"/>
+      <c r="D3" s="46">
+        <v>0</v>
+      </c>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="48"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>2</v>
       </c>
-      <c r="D4" s="47">
-        <v>0</v>
-      </c>
-      <c r="J4" s="49"/>
+      <c r="D4" s="46">
+        <v>0</v>
+      </c>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="48"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="60">
+        <v>0</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="60">
+        <v>0</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="45">
-        <f>SUM(C2:C4)</f>
+      <c r="C7" s="44">
+        <f>SUM(C2:C6)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="50">
-        <f>SUM(D2:D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="17" t="s">
+      <c r="D7" s="49">
+        <f>SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C8" s="45">
         <v>6</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D8" s="46">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="48"/>
-      <c r="B7" s="45" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C9" s="45">
         <v>3</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="48"/>
-      <c r="B8" s="45" t="s">
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="47"/>
+      <c r="B10" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C10" s="45">
         <v>2</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D10" s="46">
         <v>1</v>
       </c>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="48"/>
-      <c r="B9" s="45" t="s">
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="47"/>
+      <c r="B11" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="60">
+        <v>0</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="47"/>
+      <c r="B12" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="60">
+        <v>0</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0</v>
+      </c>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="47"/>
+      <c r="B13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="45">
-        <f>SUM(C6:C8)</f>
+      <c r="C13" s="44">
+        <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D9" s="50">
-        <f>SUM(D6:D8)</f>
+      <c r="D13" s="49">
+        <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="17" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C14" s="45">
         <v>6</v>
       </c>
-      <c r="D10" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="48"/>
-      <c r="B11" s="45" t="s">
+      <c r="D14" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="47"/>
+      <c r="B15" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C15" s="45">
         <v>3</v>
       </c>
-      <c r="D11" s="47">
-        <v>0</v>
-      </c>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="48"/>
-      <c r="B12" s="45" t="s">
+      <c r="D15" s="46">
+        <v>0</v>
+      </c>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="47"/>
+      <c r="B16" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C16" s="45">
         <v>2</v>
       </c>
-      <c r="D12" s="47">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51" t="s">
+      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="47"/>
+      <c r="B17" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="60">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="47"/>
+      <c r="B18" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="60">
+        <v>0</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0</v>
+      </c>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="47"/>
+      <c r="B19" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="45">
-        <f>SUM(C10:C12)</f>
+      <c r="C19" s="44">
+        <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="50">
-        <f>SUM(D10:D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="17" t="s">
+      <c r="D19" s="49">
+        <f>SUM(D14:D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C20" s="45">
         <v>6</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D20" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="48"/>
-      <c r="B15" s="45" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="47"/>
+      <c r="B21" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C21" s="45">
         <v>3</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D21" s="46">
         <v>1.5</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="48"/>
-      <c r="B16" s="45" t="s">
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="47"/>
+      <c r="B22" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C22" s="45">
         <v>2</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D22" s="46">
         <v>2</v>
       </c>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="48"/>
-      <c r="B17" s="45" t="s">
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="47"/>
+      <c r="B23" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="46">
+        <v>2</v>
+      </c>
+      <c r="J23" s="48"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="47"/>
+      <c r="B24" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="46">
+        <v>1</v>
+      </c>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="47"/>
+      <c r="B25" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="45">
-        <f>SUM(C14:C16)</f>
+      <c r="C25" s="44">
+        <f>SUM(C20:C24)</f>
+        <v>14</v>
+      </c>
+      <c r="D25" s="49">
+        <f>SUM(D20:D24)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="50">
-        <f>SUM(D14:D16)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="17" t="s">
+      <c r="B26" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="45">
+        <v>6</v>
+      </c>
+      <c r="D26" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="47"/>
+      <c r="B27" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="45">
+        <v>3</v>
+      </c>
+      <c r="D27" s="46">
+        <v>0</v>
+      </c>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="47"/>
+      <c r="B28" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="45">
+        <v>2</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0</v>
+      </c>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="47"/>
+      <c r="B29" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="60">
+        <v>0</v>
+      </c>
+      <c r="D29" s="46">
+        <v>0</v>
+      </c>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="47"/>
+      <c r="B30" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="60">
+        <v>0</v>
+      </c>
+      <c r="D30" s="46">
+        <v>0</v>
+      </c>
+      <c r="J30" s="48"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="47"/>
+      <c r="B31" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="44">
+        <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="46">
+      <c r="D31" s="49">
+        <f>SUM(D26:D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="45">
         <v>6</v>
       </c>
-      <c r="D18" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="48"/>
-      <c r="B19" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="46">
+      <c r="D32" s="46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="47"/>
+      <c r="B33" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="45">
         <v>3</v>
       </c>
-      <c r="D19" s="47">
-        <v>0</v>
-      </c>
-      <c r="J19" s="49"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="48"/>
-      <c r="B20" s="45" t="s">
+      <c r="D33" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="48"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="47"/>
+      <c r="B34" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C34" s="45">
         <v>2</v>
       </c>
-      <c r="D20" s="47">
-        <v>0</v>
-      </c>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="48"/>
-      <c r="B21" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="45">
-        <f>SUM(C18:C20)</f>
+      <c r="D34" s="46">
+        <v>2</v>
+      </c>
+      <c r="J34" s="48"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="47"/>
+      <c r="B35" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="60">
+        <v>0</v>
+      </c>
+      <c r="D35" s="46">
+        <v>0</v>
+      </c>
+      <c r="J35" s="48"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="47"/>
+      <c r="B36" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="60">
+        <v>0</v>
+      </c>
+      <c r="D36" s="46">
+        <v>0</v>
+      </c>
+      <c r="J36" s="48"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="47"/>
+      <c r="B37" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="44">
+        <f>SUM(C32:C36)</f>
         <v>11</v>
       </c>
-      <c r="D21" s="50">
-        <f>SUM(D18:D20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="46">
-        <v>6</v>
-      </c>
-      <c r="D22" s="47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="48"/>
-      <c r="B23" s="45" t="s">
+      <c r="D37" s="49">
+        <f>SUM(D32:D36)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="53">
+        <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>69</v>
       </c>
-      <c r="C23" s="46">
-        <v>3</v>
-      </c>
-      <c r="D23" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="46">
-        <v>2</v>
-      </c>
-      <c r="D24" s="47">
-        <v>2</v>
-      </c>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="48"/>
-      <c r="B25" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="45">
-        <f>SUM(C22:C24)</f>
-        <v>11</v>
-      </c>
-      <c r="D25" s="50">
-        <f>SUM(D22:D24)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="54">
-        <f>SUM(C5,C9,C13,C17,C21,C25)</f>
-        <v>66</v>
-      </c>
-      <c r="D26" s="55">
-        <f>SUM(D5,D9,D13,D17,D21,D25)</f>
-        <v>31</v>
+      <c r="D38" s="54">
+        <f>SUM(D7,D13,D19,D25,D31,D37)</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47BF457-497B-0C49-8E6D-7303024748F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="15160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,16 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="81">
   <si>
     <t>Total</t>
   </si>
@@ -289,16 +296,22 @@
   <si>
     <t>Subtotal:</t>
   </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -518,11 +531,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,6 +647,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,6 +728,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -981,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1009,454 +1026,454 @@
     <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:16">
+      <c r="B1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="J1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
         <v>2700</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
         <v>1775</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="14">
+      <c r="E3" s="5"/>
+      <c r="F3" s="13">
         <f>(Gantt!$B13)*100</f>
         <v>100</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
         <v>50</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
         <v>50</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="11">
+      <c r="I3" s="5"/>
+      <c r="J3" s="10">
         <v>1500</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>Meetings!B4*100</f>
         <v>875</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
         <v>625</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="11">
-        <f>SA!C5*100</f>
+      <c r="M3" s="5"/>
+      <c r="N3" s="10">
+        <f>SA!C7*100</f>
         <v>1100</v>
       </c>
-      <c r="O3" s="12">
-        <f>SA!D5*100</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="O3" s="11">
+        <f>SA!D7*100</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14">
+      <c r="E4" s="5"/>
+      <c r="F4" s="13">
         <f>(Gantt!$B25)*100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>(Gantt!$C25)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="14">
+      <c r="I4" s="5"/>
+      <c r="J4" s="13">
         <v>1500</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>Meetings!B5*100</f>
         <v>875</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="3"/>
         <v>625</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="14">
-        <f>SA!C9*100</f>
+      <c r="M4" s="5"/>
+      <c r="N4" s="13">
+        <f>SA!C13*100</f>
         <v>1100</v>
       </c>
-      <c r="O4" s="15">
-        <f>SA!D9*100</f>
+      <c r="O4" s="14">
+        <f>SA!D13*100</f>
         <v>800</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>1675</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14">
+      <c r="E5" s="5"/>
+      <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="14">
+      <c r="I5" s="5"/>
+      <c r="J5" s="13">
         <v>1500</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>Meetings!B6*100</f>
         <v>925</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="14">
-        <f>SA!C13*100</f>
+      <c r="M5" s="5"/>
+      <c r="N5" s="13">
+        <f>SA!C19*100</f>
         <v>1100</v>
       </c>
-      <c r="O5" s="15">
-        <f>SA!D13*100</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="O5" s="14">
+        <f>SA!D19*100</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
-        <v>5700</v>
-      </c>
-      <c r="C6" s="15">
+        <v>6100</v>
+      </c>
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>1875</v>
-      </c>
-      <c r="D6" s="16">
+        <v>2175</v>
+      </c>
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>3825</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="14">
+        <v>3925</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
         <v>3100</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
         <v>100</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="14">
+      <c r="I6" s="5"/>
+      <c r="J6" s="13">
         <v>1500</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>Meetings!B7*100</f>
         <v>925</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14">
-        <f>SA!C17*100</f>
-        <v>1100</v>
-      </c>
-      <c r="O6" s="15">
-        <f>SA!D17*100</f>
-        <v>850</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="M6" s="5"/>
+      <c r="N6" s="13">
+        <f>SA!C25*100</f>
+        <v>1500</v>
+      </c>
+      <c r="O6" s="14">
+        <f>SA!D25*100</f>
+        <v>1150</v>
+      </c>
+      <c r="P6" s="15">
         <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="14">
+      <c r="E7" s="5"/>
+      <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
         <v>100</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
         <v>200</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14">
+      <c r="I7" s="5"/>
+      <c r="J7" s="13">
         <v>1500</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>Meetings!B8*100</f>
         <v>925</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="14">
-        <f>SA!C21*100</f>
+      <c r="M7" s="5"/>
+      <c r="N7" s="13">
+        <f>SA!C31*100</f>
         <v>1100</v>
       </c>
-      <c r="O7" s="15">
-        <f>SA!D21*100</f>
+      <c r="O7" s="14">
+        <f>SA!D31*100</f>
         <v>900</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>6100</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>2395</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>3705</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="14">
+      <c r="E8" s="5"/>
+      <c r="F8" s="13">
         <f>(Gantt!$B73)*100</f>
         <v>3500</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>(Gantt!$C73)*100</f>
         <v>20</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>3480</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14">
+      <c r="I8" s="5"/>
+      <c r="J8" s="13">
         <v>1500</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>Meetings!B9*100</f>
         <v>925</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="18">
-        <f>SA!C25*100</f>
+      <c r="M8" s="5"/>
+      <c r="N8" s="17">
+        <f>SA!C37*100</f>
         <v>1100</v>
       </c>
-      <c r="O8" s="19">
-        <f>SA!D25*100</f>
+      <c r="O8" s="18">
+        <f>SA!D37*100</f>
         <v>1450</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <f t="shared" si="4"/>
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>22400</v>
-      </c>
-      <c r="C9" s="23">
+        <v>22800</v>
+      </c>
+      <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>9820</v>
-      </c>
-      <c r="D9" s="24">
+        <v>10120</v>
+      </c>
+      <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>12580</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25">
+        <v>12680</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
         <v>6800</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
         <v>370</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
         <v>6430</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
         <v>9000</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
         <v>5450</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
         <v>3550</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="22">
+      <c r="M9" s="5"/>
+      <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
-        <v>6600</v>
-      </c>
-      <c r="O9" s="23">
+        <v>7000</v>
+      </c>
+      <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
-        <v>4000</v>
-      </c>
-      <c r="P9" s="24">
+        <v>4300</v>
+      </c>
+      <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
-        <v>2600</v>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
@@ -1472,14 +1489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1490,7 +1507,7 @@
     <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1500,28 +1517,28 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
       <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="29"/>
       <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1532,7 +1549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1554,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1564,9 +1581,9 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1645,15 +1662,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1686,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1696,9 +1713,9 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1720,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1753,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1777,15 +1794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1828,9 +1845,9 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1885,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1896,8 +1913,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:35">
+      <c r="A37" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B37">
@@ -1909,15 +1926,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+    <row r="38" spans="1:35">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1927,9 +1944,9 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1939,11 +1956,11 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1953,14 +1970,14 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="I41" s="29"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1970,14 +1987,14 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1987,15 +2004,15 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B44">
@@ -2004,11 +2021,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2018,12 +2035,12 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2033,10 +2050,10 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2047,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2058,8 +2075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B49">
@@ -2071,15 +2088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -2101,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2122,9 +2139,9 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="J54" s="32"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="31"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -2135,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -2157,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2203,15 +2220,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2222,7 +2239,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -2254,9 +2271,9 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="J66" s="32"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -2278,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2289,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -2311,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2335,7 +2352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -2348,15 +2365,15 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="36">
         <f>B74*100</f>
         <v>6800</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="36">
         <f>C74*100</f>
         <v>370</v>
       </c>
@@ -2368,360 +2385,360 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="38" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="38" customWidth="1"/>
-    <col min="9" max="12" width="4.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="37" customWidth="1"/>
+    <col min="9" max="12" width="4.1640625" style="37" customWidth="1"/>
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="I1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="80">
+      <c r="B2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+      <c r="J2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>1.5</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="40">
         <v>0.5</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>0.25</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <v>3</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="40">
         <v>2.5</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="40">
         <v>1.5</v>
       </c>
-      <c r="I3" s="41">
-        <v>0</v>
-      </c>
-      <c r="J3" s="41">
-        <v>0</v>
-      </c>
-      <c r="K3" s="41">
-        <v>0</v>
-      </c>
-      <c r="L3" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="I3" s="40">
+        <v>0</v>
+      </c>
+      <c r="J3" s="40">
+        <v>0</v>
+      </c>
+      <c r="K3" s="40">
+        <v>0</v>
+      </c>
+      <c r="L3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="C4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="C5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="C6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="C7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="C8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="C9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <f>SUM(B4:B9)</f>
         <v>54.5</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2733,14 +2750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
@@ -2750,15 +2767,15 @@
     <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2807,342 +2824,498 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>6</v>
       </c>
-      <c r="D2" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="47" t="s">
+      <c r="D2" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="49"/>
+      <c r="B3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>3</v>
       </c>
-      <c r="D3" s="49">
-        <v>0</v>
-      </c>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="47" t="s">
+      <c r="D3" s="48">
+        <v>0</v>
+      </c>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="49"/>
+      <c r="B4" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <v>2</v>
       </c>
-      <c r="D4" s="49">
-        <v>0</v>
-      </c>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="47" t="s">
+      <c r="D4" s="48">
+        <v>0</v>
+      </c>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="49"/>
+      <c r="B5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="58">
+        <v>0</v>
+      </c>
+      <c r="D5" s="48">
+        <v>0</v>
+      </c>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="49"/>
+      <c r="B6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="58">
+        <v>0</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="49"/>
+      <c r="B7" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="47">
-        <f>SUM(C2:C4)</f>
+      <c r="C7" s="46">
+        <f>SUM(C2:C6)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="52">
-        <f>SUM(D2:D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="D7" s="51">
+        <f>SUM(D2:D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C8" s="47">
         <v>6</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D8" s="48">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="47" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="49"/>
+      <c r="B9" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C9" s="47">
         <v>3</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="47" t="s">
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="49"/>
+      <c r="B10" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C10" s="47">
         <v>2</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D10" s="48">
         <v>1</v>
       </c>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="47" t="s">
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="49"/>
+      <c r="B11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="58">
+        <v>0</v>
+      </c>
+      <c r="D11" s="48">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="49"/>
+      <c r="B12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="58">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="49"/>
+      <c r="B13" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="47">
-        <f>SUM(C6:C8)</f>
+      <c r="C13" s="46">
+        <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D9" s="52">
-        <f>SUM(D6:D8)</f>
+      <c r="D13" s="51">
+        <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C14" s="47">
         <v>6</v>
       </c>
-      <c r="D10" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="47" t="s">
+      <c r="D14" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="49"/>
+      <c r="B15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C15" s="47">
         <v>3</v>
       </c>
-      <c r="D11" s="49">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="47" t="s">
+      <c r="D15" s="48">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="49"/>
+      <c r="B16" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C16" s="47">
         <v>2</v>
       </c>
-      <c r="D12" s="49">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53" t="s">
+      <c r="D16" s="48">
+        <v>0</v>
+      </c>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="49"/>
+      <c r="B17" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="58">
+        <v>0</v>
+      </c>
+      <c r="D17" s="48">
+        <v>0</v>
+      </c>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="49"/>
+      <c r="B18" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="58">
+        <v>0</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0</v>
+      </c>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="49"/>
+      <c r="B19" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="47">
-        <f>SUM(C10:C12)</f>
+      <c r="C19" s="46">
+        <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="52">
-        <f>SUM(D10:D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="D19" s="51">
+        <f>SUM(D14:D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C20" s="47">
         <v>6</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D20" s="48">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="47" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="49"/>
+      <c r="B21" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C21" s="47">
         <v>3</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D21" s="48">
         <v>1.5</v>
       </c>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="47" t="s">
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="49"/>
+      <c r="B22" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C22" s="47">
         <v>2</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D22" s="48">
         <v>2</v>
       </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="47" t="s">
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="49"/>
+      <c r="B23" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="58">
+        <v>2</v>
+      </c>
+      <c r="D23" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="49"/>
+      <c r="B24" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="58">
+        <v>2</v>
+      </c>
+      <c r="D24" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="49"/>
+      <c r="B25" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="47">
-        <f>SUM(C14:C16)</f>
+      <c r="C25" s="46">
+        <f>SUM(C20:C24)</f>
+        <v>15</v>
+      </c>
+      <c r="D25" s="51">
+        <f>SUM(D20:D24)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="52">
-        <f>SUM(D14:D16)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="B26" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="47">
+        <v>6</v>
+      </c>
+      <c r="D26" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="49"/>
+      <c r="B27" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="47">
+        <v>3</v>
+      </c>
+      <c r="D27" s="48">
+        <v>1</v>
+      </c>
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="49"/>
+      <c r="B28" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="47">
+        <v>2</v>
+      </c>
+      <c r="D28" s="48">
+        <v>2</v>
+      </c>
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="49"/>
+      <c r="B29" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="58">
+        <v>0</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="49"/>
+      <c r="B30" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="58">
+        <v>0</v>
+      </c>
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="49"/>
+      <c r="B31" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="46">
+        <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="48">
+      <c r="D31" s="51">
+        <f>SUM(D26:D30)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="47">
         <v>6</v>
       </c>
-      <c r="D18" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="48">
+      <c r="D32" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="49"/>
+      <c r="B33" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="47">
         <v>3</v>
       </c>
-      <c r="D19" s="49">
-        <v>1</v>
-      </c>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="47" t="s">
+      <c r="D33" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="50"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="49"/>
+      <c r="B34" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C34" s="47">
         <v>2</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D34" s="48">
         <v>2</v>
       </c>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="47">
-        <f>SUM(C18:C20)</f>
+      <c r="J34" s="50"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="49"/>
+      <c r="B35" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="58">
+        <v>0</v>
+      </c>
+      <c r="D35" s="48">
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="49"/>
+      <c r="B36" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="58">
+        <v>0</v>
+      </c>
+      <c r="D36" s="48">
+        <v>0</v>
+      </c>
+      <c r="J36" s="50"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="49"/>
+      <c r="B37" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="46">
+        <f>SUM(C32:C36)</f>
         <v>11</v>
       </c>
-      <c r="D21" s="52">
-        <f>SUM(D18:D20)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="48">
-        <v>6</v>
-      </c>
-      <c r="D22" s="49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="48">
-        <v>3</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="51"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="48">
-        <v>2</v>
-      </c>
-      <c r="D24" s="49">
-        <v>2</v>
-      </c>
-      <c r="J24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="47">
-        <f>SUM(C22:C24)</f>
-        <v>11</v>
-      </c>
-      <c r="D25" s="52">
-        <f>SUM(D22:D24)</f>
+      <c r="D37" s="51">
+        <f>SUM(D32:D36)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="56">
-        <f>SUM(C5,C9,C13,C17,C21,C25)</f>
-        <v>66</v>
-      </c>
-      <c r="D26" s="57">
-        <f>SUM(D5,D9,D13,D17,D21,D25)</f>
-        <v>40</v>
+      <c r="C38" s="55">
+        <f>SUM(C7,C13,C19,C25,C31,C37)</f>
+        <v>70</v>
+      </c>
+      <c r="D38" s="56">
+        <f>SUM(D7,D13,D19,D25,D31,D37)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47BF457-497B-0C49-8E6D-7303024748F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E901201-88BB-4561-8612-F0E142342074}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16890" yWindow="2310" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
   <si>
     <t>Total</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Obtain 3D Assets</t>
+  </si>
+  <si>
+    <t>Implement World Loading</t>
+  </si>
+  <si>
+    <t>Implement Bounds Check</t>
+  </si>
+  <si>
+    <t>Implement item/playe/enemie loading</t>
+  </si>
+  <si>
+    <t>Implement Player manager collision</t>
+  </si>
+  <si>
+    <t>Implement Scene Swapper</t>
   </si>
 </sst>
 </file>
@@ -345,7 +363,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +404,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF0D0D0D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -531,33 +561,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,13 +600,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,7 +616,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +640,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -621,36 +650,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,49 +1031,49 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1096,20 +1122,20 @@
       </c>
       <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>2700</v>
+        <v>7100</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>2125</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>1775</v>
+        <v>4975</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
         <f>(Gantt!$B13)*100</f>
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
@@ -1117,7 +1143,7 @@
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
-        <v>50</v>
+        <v>4250</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10">
@@ -1134,15 +1160,15 @@
       <c r="M3" s="5"/>
       <c r="N3" s="10">
         <f>SA!C7*100</f>
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="O3" s="11">
         <f>SA!D7*100</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P3" s="12">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
-        <v>1100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1426,20 +1452,20 @@
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>22800</v>
+        <v>27200</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>10120</v>
+        <v>11320</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>12680</v>
+        <v>15880</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>6800</v>
+        <v>11000</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
@@ -1447,7 +1473,7 @@
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>6430</v>
+        <v>10630</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1465,15 +1491,15 @@
       <c r="M9" s="5"/>
       <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
-        <v>2700</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -1490,24 +1516,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI75"/>
+  <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:47">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:47">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1548,97 +1574,140 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+    </row>
+    <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+    </row>
+    <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="AO9" s="56"/>
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+    </row>
+    <row r="11" spans="1:47">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="AU11" s="56"/>
+    </row>
+    <row r="12" spans="1:47">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1649,20 +1718,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:47">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <f>SUM(B3:B12)</f>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:47">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:47">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:47">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1914,7 +1983,7 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="33" t="s">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37">
@@ -1944,7 +2013,7 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="34"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
@@ -1971,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="29"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="34"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -2012,7 +2081,7 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="33" t="s">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44">
@@ -2076,7 +2145,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="33" t="s">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49">
@@ -2358,7 +2427,7 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
@@ -2369,11 +2438,11 @@
       <c r="A75" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="35">
         <f>B74*100</f>
-        <v>6800</v>
-      </c>
-      <c r="C75" s="36">
+        <v>11000</v>
+      </c>
+      <c r="C75" s="35">
         <f>C74*100</f>
         <v>370</v>
       </c>
@@ -2392,353 +2461,353 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="37" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="37" customWidth="1"/>
-    <col min="9" max="12" width="4.1640625" style="37" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="36" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="36" customWidth="1"/>
+    <col min="9" max="12" width="4.140625" style="36" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:12" ht="90">
+      <c r="B2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="3">
         <v>0.25</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="3">
         <v>2.5</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="3">
         <v>1.5</v>
       </c>
-      <c r="I3" s="40">
-        <v>0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>0</v>
-      </c>
-      <c r="K3" s="40">
-        <v>0</v>
-      </c>
-      <c r="L3" s="40">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="C4" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="C5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="C6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="C7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="C8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="C9" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <f>SUM(B4:B9)</f>
         <v>54.5</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2754,28 +2823,28 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2828,158 +2897,158 @@
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="48">
-        <v>0</v>
+      <c r="D2" s="45">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="49"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="48">
-        <v>0</v>
-      </c>
-      <c r="J3" s="50"/>
+      <c r="D3" s="45">
+        <v>1</v>
+      </c>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="49"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="48">
-        <v>0</v>
-      </c>
-      <c r="J4" s="50"/>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="49"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="58">
-        <v>0</v>
-      </c>
-      <c r="D5" s="48">
-        <v>0</v>
-      </c>
-      <c r="J5" s="50"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1</v>
+      </c>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="49"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="58">
-        <v>0</v>
-      </c>
-      <c r="D6" s="48">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="49"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <f>SUM(C2:C6)</f>
-        <v>11</v>
-      </c>
-      <c r="D7" s="51">
+        <v>13</v>
+      </c>
+      <c r="D7" s="48">
         <f>SUM(D2:D6)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="49"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="49"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="49"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="58">
-        <v>0</v>
-      </c>
-      <c r="D11" s="48">
-        <v>0</v>
-      </c>
-      <c r="J11" s="50"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="49"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="58">
-        <v>0</v>
-      </c>
-      <c r="D12" s="48">
-        <v>0</v>
-      </c>
-      <c r="J12" s="50"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="49"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="44">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="48">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
@@ -2988,78 +3057,78 @@
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="48">
-        <v>0</v>
-      </c>
-      <c r="J15" s="50"/>
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="48">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50"/>
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="49"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="58">
-        <v>0</v>
-      </c>
-      <c r="D17" s="48">
-        <v>0</v>
-      </c>
-      <c r="J17" s="50"/>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="49"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="58">
-        <v>0</v>
-      </c>
-      <c r="D18" s="48">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50"/>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="44">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="48">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
@@ -3068,78 +3137,78 @@
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="49"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="45">
         <v>1.5</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="49"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="45">
         <v>2</v>
       </c>
-      <c r="J22" s="50"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="49"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="45">
         <v>1.5</v>
       </c>
-      <c r="J23" s="50"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="49"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="45">
         <v>1.5</v>
       </c>
-      <c r="J24" s="50"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="49"/>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="44">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="48">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
@@ -3148,78 +3217,78 @@
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="49"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="45">
         <v>1</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="49"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <v>2</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="49"/>
-      <c r="B29" s="46" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="58">
-        <v>0</v>
-      </c>
-      <c r="D29" s="48">
-        <v>0</v>
-      </c>
-      <c r="J29" s="50"/>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="45">
+        <v>0</v>
+      </c>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="49"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="58">
-        <v>0</v>
-      </c>
-      <c r="D30" s="48">
-        <v>0</v>
-      </c>
-      <c r="J30" s="50"/>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="44">
         <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="48">
         <f>SUM(D26:D30)</f>
         <v>9</v>
       </c>
@@ -3228,94 +3297,94 @@
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="49"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="45">
         <v>0.5</v>
       </c>
-      <c r="J33" s="50"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="49"/>
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="45">
         <v>2</v>
       </c>
-      <c r="J34" s="50"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="49"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="58">
-        <v>0</v>
-      </c>
-      <c r="D35" s="48">
-        <v>0</v>
-      </c>
-      <c r="J35" s="50"/>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="49"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="58">
-        <v>0</v>
-      </c>
-      <c r="D36" s="48">
-        <v>0</v>
-      </c>
-      <c r="J36" s="50"/>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0</v>
+      </c>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="44">
         <f>SUM(C32:C36)</f>
         <v>11</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="48">
         <f>SUM(D32:D36)</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="52">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
-        <v>70</v>
-      </c>
-      <c r="D38" s="56">
+        <v>72</v>
+      </c>
+      <c r="D38" s="53">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E901201-88BB-4561-8612-F0E142342074}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4416ED97-839A-034C-8701-169B9F244EB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16890" yWindow="2310" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
   <si>
     <t>Total</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Presentation Rehersal</t>
-  </si>
-  <si>
-    <t>TDB</t>
   </si>
   <si>
     <r>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>Implement Scene Swapper</t>
+  </si>
+  <si>
+    <t>Development and Merging</t>
+  </si>
+  <si>
+    <t>Feb. 26</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +419,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -561,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,7 +657,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,11 +686,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,53 +1044,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="J1" s="54" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="J1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="N1" s="54" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1126,11 +1143,11 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>2125</v>
+        <v>2425</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>4975</v>
+        <v>4675</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
@@ -1151,11 +1168,11 @@
       </c>
       <c r="K3" s="11">
         <f>Meetings!B4*100</f>
-        <v>875</v>
+        <v>1175</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="10">
@@ -1181,11 +1198,11 @@
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>1675</v>
+        <v>1975</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" si="1"/>
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13">
@@ -1206,11 +1223,11 @@
       </c>
       <c r="K4" s="14">
         <f>Meetings!B5*100</f>
-        <v>875</v>
+        <v>1175</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="13">
@@ -1236,11 +1253,11 @@
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>1225</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1675</v>
+        <v>1375</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
@@ -1261,11 +1278,11 @@
       </c>
       <c r="K5" s="14">
         <f>Meetings!B6*100</f>
-        <v>925</v>
+        <v>1225</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="13">
@@ -1291,11 +1308,11 @@
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>2175</v>
+        <v>3775</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>3925</v>
+        <v>2325</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -1304,11 +1321,11 @@
       </c>
       <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13">
@@ -1316,11 +1333,11 @@
       </c>
       <c r="K6" s="14">
         <f>Meetings!B7*100</f>
-        <v>925</v>
+        <v>1225</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="13">
@@ -1401,11 +1418,11 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>2395</v>
+        <v>2695</v>
       </c>
       <c r="D8" s="19">
         <f t="shared" si="1"/>
-        <v>3705</v>
+        <v>3405</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13">
@@ -1426,11 +1443,11 @@
       </c>
       <c r="K8" s="14">
         <f>Meetings!B9*100</f>
-        <v>925</v>
+        <v>1225</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>275</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="17">
@@ -1456,11 +1473,11 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>11320</v>
+        <v>14120</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>15880</v>
+        <v>13080</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1469,11 +1486,11 @@
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>370</v>
+        <v>1670</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>10630</v>
+        <v>9330</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1482,11 +1499,11 @@
       </c>
       <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
-        <v>5450</v>
+        <v>6950</v>
       </c>
       <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
-        <v>3550</v>
+        <v>2050</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="21">
@@ -1518,19 +1535,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView topLeftCell="A25" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1574,11 +1591,11 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:47">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1586,15 +1603,15 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1602,13 +1619,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1617,25 +1634,25 @@
         <v>0</v>
       </c>
       <c r="J6" s="31"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
     </row>
     <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1643,20 +1660,20 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1664,12 +1681,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
     </row>
     <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1677,7 +1694,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="AO9" s="56"/>
+      <c r="AO9" s="54"/>
     </row>
     <row r="10" spans="1:47">
       <c r="A10" t="s">
@@ -1689,11 +1706,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
     </row>
     <row r="11" spans="1:47">
       <c r="A11" t="s">
@@ -1705,7 +1722,7 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="AU11" s="56"/>
+      <c r="AU11" s="54"/>
     </row>
     <row r="12" spans="1:47">
       <c r="A12" t="s">
@@ -2023,11 +2040,11 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
@@ -2037,14 +2054,14 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
@@ -2054,14 +2071,14 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
@@ -2073,12 +2090,12 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
@@ -2154,7 +2171,7 @@
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2431,20 +2448,20 @@
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>3.7</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="35">
+      <c r="B75" s="34">
         <f>B74*100</f>
         <v>11000</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="34">
         <f>C74*100</f>
-        <v>370</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -2458,27 +2475,28 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="36" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="36" customWidth="1"/>
-    <col min="9" max="12" width="4.140625" style="36" customWidth="1"/>
-    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="9" max="9" width="11" style="35" customWidth="1"/>
+    <col min="10" max="12" width="4.1640625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2500,7 +2518,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>22</v>
@@ -2512,43 +2530,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="1:12" ht="128">
+      <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3">
@@ -2570,7 +2588,7 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -2583,193 +2601,204 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>8.75</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+        <v>11.75</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+        <v>11.75</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="37">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="37">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="38">
+      <c r="C8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="37">
         <f t="shared" si="0"/>
-        <v>9.25</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="38">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="38">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+        <v>12.25</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <f>SUM(B4:B9)</f>
-        <v>54.5</v>
+        <v>69.5</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2797,7 +2826,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
@@ -2822,29 +2851,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2897,78 +2926,78 @@
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>64</v>
+      <c r="B2" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="46"/>
-      <c r="B3" s="44" t="s">
-        <v>65</v>
+      <c r="A3" s="45"/>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>1</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="46"/>
-      <c r="B4" s="44" t="s">
-        <v>66</v>
+      <c r="A4" s="45"/>
+      <c r="B4" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>2</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="46"/>
-      <c r="B5" s="44" t="s">
-        <v>79</v>
+      <c r="A5" s="45"/>
+      <c r="B5" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>1</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="46"/>
-      <c r="B6" s="44" t="s">
-        <v>80</v>
+      <c r="A6" s="45"/>
+      <c r="B6" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>1</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="46"/>
-      <c r="B7" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="A7" s="45"/>
+      <c r="B7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="43">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
@@ -2977,78 +3006,78 @@
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>68</v>
+      <c r="B8" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="46"/>
-      <c r="B9" s="44" t="s">
-        <v>69</v>
+      <c r="A9" s="45"/>
+      <c r="B9" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>1</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="46"/>
-      <c r="B10" s="44" t="s">
-        <v>66</v>
+      <c r="A10" s="45"/>
+      <c r="B10" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>1</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="46"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="45"/>
+      <c r="B12" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0</v>
-      </c>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="46"/>
-      <c r="B12" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="45">
-        <v>0</v>
-      </c>
-      <c r="J12" s="47"/>
+      <c r="D12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="46"/>
-      <c r="B13" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44">
+      <c r="A13" s="45"/>
+      <c r="B13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="43">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
@@ -3057,332 +3086,347 @@
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>70</v>
+      <c r="B14" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="46"/>
-      <c r="B15" s="44" t="s">
-        <v>71</v>
+      <c r="A15" s="45"/>
+      <c r="B15" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="45">
-        <v>0</v>
-      </c>
-      <c r="J15" s="47"/>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="46"/>
-      <c r="B16" s="44" t="s">
-        <v>66</v>
+      <c r="A16" s="45"/>
+      <c r="B16" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="45">
-        <v>0</v>
-      </c>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="46"/>
-      <c r="B17" s="44" t="s">
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="45"/>
+      <c r="B17" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="45"/>
+      <c r="B18" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="45">
-        <v>0</v>
-      </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="46"/>
-      <c r="B18" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="45">
-        <v>0</v>
-      </c>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="46"/>
-      <c r="B19" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44">
+      <c r="D18" s="44">
+        <v>0</v>
+      </c>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="45"/>
+      <c r="B19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="43">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>72</v>
+      <c r="B20" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="46"/>
-      <c r="B21" s="44" t="s">
-        <v>73</v>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="45"/>
+      <c r="B21" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="44">
         <v>1.5</v>
       </c>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="46"/>
-      <c r="B22" s="44" t="s">
-        <v>66</v>
+      <c r="J21" s="46"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="45"/>
+      <c r="B22" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="44">
         <v>2</v>
       </c>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="46"/>
-      <c r="B23" s="44" t="s">
-        <v>79</v>
+      <c r="J22" s="46"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="45"/>
+      <c r="B23" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="44">
         <v>1.5</v>
       </c>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="46"/>
-      <c r="B24" s="44" t="s">
-        <v>80</v>
+      <c r="J23" s="46"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="45"/>
+      <c r="B24" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="44">
         <v>1.5</v>
       </c>
-      <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="46"/>
-      <c r="B25" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="44">
+      <c r="J24" s="46"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="45"/>
+      <c r="B25" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="43">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="47">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:19">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>74</v>
+      <c r="B26" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="44">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="46"/>
-      <c r="B27" s="44" t="s">
-        <v>75</v>
+    <row r="27" spans="1:19">
+      <c r="A27" s="45"/>
+      <c r="B27" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="44">
         <v>1</v>
       </c>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="46"/>
-      <c r="B28" s="44" t="s">
-        <v>66</v>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="45"/>
+      <c r="B28" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="44">
         <v>2</v>
       </c>
-      <c r="J28" s="47"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="46"/>
-      <c r="B29" s="44" t="s">
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="45"/>
+      <c r="B29" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="45"/>
+      <c r="B30" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="46"/>
-      <c r="B30" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="44">
+      <c r="D30" s="44">
+        <v>0</v>
+      </c>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="45"/>
+      <c r="B31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="43">
         <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="47">
         <f>SUM(D26:D30)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:19">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>76</v>
+      <c r="B32" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="46"/>
-      <c r="B33" s="44" t="s">
-        <v>77</v>
+      <c r="A33" s="45"/>
+      <c r="B33" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="44">
         <v>0.5</v>
       </c>
-      <c r="J33" s="47"/>
+      <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="46"/>
-      <c r="B34" s="44" t="s">
-        <v>66</v>
+      <c r="A34" s="45"/>
+      <c r="B34" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="44">
         <v>2</v>
       </c>
-      <c r="J34" s="47"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="46"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="44">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="45"/>
+      <c r="B36" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="J35" s="47"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="46"/>
-      <c r="B36" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="45">
-        <v>0</v>
-      </c>
-      <c r="J36" s="47"/>
+      <c r="D36" s="44">
+        <v>0</v>
+      </c>
+      <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="46"/>
-      <c r="B37" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="44">
+      <c r="A37" s="45"/>
+      <c r="B37" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="43">
         <f>SUM(C32:C36)</f>
         <v>11</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="47">
         <f>SUM(D32:D36)</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="51">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>72</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="52">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
         <v>55</v>
       </c>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4416ED97-839A-034C-8701-169B9F244EB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9F204-822D-074A-B481-FA4415D95E6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,12 +688,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,27 +1071,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1535,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A36" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2042,9 +2043,9 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
@@ -2056,12 +2057,12 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
@@ -2073,12 +2074,12 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
@@ -2090,12 +2091,12 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
@@ -2530,7 +2531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="128">
+    <row r="2" spans="1:12" ht="80">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -3175,12 +3176,15 @@
       <c r="D20" s="44">
         <v>5</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="45"/>
@@ -3193,10 +3197,13 @@
       <c r="D21" s="44">
         <v>1.5</v>
       </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
       <c r="J21" s="46"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="45"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9F204-822D-074A-B481-FA4415D95E6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F7798-47AF-E844-B792-D5A025C51172}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,55 +1045,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="J1" s="58" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1139,15 +1134,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
+        <f>(SUM(F3,J3,N3))</f>
         <v>7100</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" si="0"/>
+        <f>(SUM(G3,K3,O3))</f>
         <v>2425</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
+        <f t="shared" ref="D3:D8" si="0">(B3-C3)</f>
         <v>4675</v>
       </c>
       <c r="E3" s="5"/>
@@ -1160,7 +1155,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
+        <f t="shared" ref="H3:H8" si="1">(F3-G3)</f>
         <v>4250</v>
       </c>
       <c r="I3" s="5"/>
@@ -1172,7 +1167,7 @@
         <v>1175</v>
       </c>
       <c r="L3" s="12">
-        <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
+        <f t="shared" ref="L3:L8" si="2">(J3-K3)</f>
         <v>325</v>
       </c>
       <c r="M3" s="5"/>
@@ -1185,7 +1180,7 @@
         <v>1200</v>
       </c>
       <c r="P3" s="12">
-        <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
+        <f t="shared" ref="P3:P8" si="3">(N3-O3)</f>
         <v>100</v>
       </c>
     </row>
@@ -1194,15 +1189,15 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
+        <f>(SUM(F4,J4,N4))</f>
+        <v>2600</v>
+      </c>
+      <c r="C4" s="14">
+        <f>(SUM(G4,K4,O4))</f>
+        <v>1975</v>
+      </c>
+      <c r="D4" s="15">
         <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="C4" s="14">
-        <f t="shared" si="0"/>
-        <v>1975</v>
-      </c>
-      <c r="D4" s="15">
-        <f t="shared" si="1"/>
         <v>625</v>
       </c>
       <c r="E4" s="5"/>
@@ -1215,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="5"/>
@@ -1227,7 +1222,7 @@
         <v>1175</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="M4" s="5"/>
@@ -1240,7 +1235,7 @@
         <v>800</v>
       </c>
       <c r="P4" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
     </row>
@@ -1249,15 +1244,15 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
+        <f>(SUM(F5,J5,N5))</f>
+        <v>2600</v>
+      </c>
+      <c r="C5" s="14">
+        <f>(SUM(G5,K5,O5))</f>
+        <v>1225</v>
+      </c>
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="C5" s="14">
-        <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-      <c r="D5" s="15">
-        <f t="shared" si="1"/>
         <v>1375</v>
       </c>
       <c r="E5" s="5"/>
@@ -1270,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="5"/>
@@ -1282,7 +1277,7 @@
         <v>1225</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="M5" s="5"/>
@@ -1295,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
     </row>
@@ -1304,15 +1299,15 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
+        <f>(SUM(F6,J6,N6))</f>
+        <v>6100</v>
+      </c>
+      <c r="C6" s="14">
+        <f>(SUM(G6,K6,O6))</f>
+        <v>3775</v>
+      </c>
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>6100</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" si="0"/>
-        <v>3775</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" si="1"/>
         <v>2325</v>
       </c>
       <c r="E6" s="5"/>
@@ -1325,7 +1320,7 @@
         <v>1400</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1700</v>
       </c>
       <c r="I6" s="5"/>
@@ -1337,7 +1332,7 @@
         <v>1225</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="M6" s="5"/>
@@ -1350,7 +1345,7 @@
         <v>1150</v>
       </c>
       <c r="P6" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
@@ -1359,15 +1354,15 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
+        <f>(SUM(F7,J7,N7))</f>
+        <v>2700</v>
+      </c>
+      <c r="C7" s="14">
+        <f>(SUM(G7,K7,O7))</f>
+        <v>2025</v>
+      </c>
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="C7" s="14">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" si="1"/>
         <v>675</v>
       </c>
       <c r="E7" s="5"/>
@@ -1380,7 +1375,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
       <c r="I7" s="5"/>
@@ -1392,7 +1387,7 @@
         <v>925</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>575</v>
       </c>
       <c r="M7" s="5"/>
@@ -1405,24 +1400,24 @@
         <v>900</v>
       </c>
       <c r="P7" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="16" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17">
+        <f>(SUM(F8,J8,N8))</f>
+        <v>6100</v>
+      </c>
+      <c r="C8" s="18">
+        <f>(SUM(G8,K8,O8))</f>
+        <v>2695</v>
+      </c>
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
-        <v>6100</v>
-      </c>
-      <c r="C8" s="18">
-        <f t="shared" si="0"/>
-        <v>2695</v>
-      </c>
-      <c r="D8" s="19">
-        <f t="shared" si="1"/>
         <v>3405</v>
       </c>
       <c r="E8" s="5"/>
@@ -1435,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3480</v>
       </c>
       <c r="I8" s="5"/>
@@ -1447,7 +1442,7 @@
         <v>1225</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="M8" s="5"/>
@@ -1460,11 +1455,11 @@
         <v>1450</v>
       </c>
       <c r="P8" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="16" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1536,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="W52" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AR86" sqref="AR86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1546,9 +1541,8 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="47" width="4.83203125" customWidth="1"/>
+    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -2476,7 +2470,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2852,14 +2846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="19" width="3.6640625" customWidth="1"/>
@@ -3176,9 +3170,9 @@
       <c r="D20" s="44">
         <v>5</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
@@ -3201,9 +3195,9 @@
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="J21" s="46"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="45"/>
@@ -3232,8 +3226,12 @@
         <v>1.5</v>
       </c>
       <c r="J23" s="46"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="45"/>
@@ -3247,8 +3245,12 @@
         <v>1.5</v>
       </c>
       <c r="J24" s="46"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="45"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F7798-47AF-E844-B792-D5A025C51172}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CC62F-C7E6-42D5-B578-44D191A361D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="1530" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,7 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,46 +1048,46 @@
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-    </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1134,15 +1133,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="10">
-        <f>(SUM(F3,J3,N3))</f>
+        <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
         <v>7100</v>
       </c>
       <c r="C3" s="11">
-        <f>(SUM(G3,K3,O3))</f>
+        <f t="shared" si="0"/>
         <v>2425</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" ref="D3:D8" si="0">(B3-C3)</f>
+        <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
         <v>4675</v>
       </c>
       <c r="E3" s="5"/>
@@ -1155,7 +1154,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H8" si="1">(F3-G3)</f>
+        <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
         <v>4250</v>
       </c>
       <c r="I3" s="5"/>
@@ -1167,7 +1166,7 @@
         <v>1175</v>
       </c>
       <c r="L3" s="12">
-        <f t="shared" ref="L3:L8" si="2">(J3-K3)</f>
+        <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
         <v>325</v>
       </c>
       <c r="M3" s="5"/>
@@ -1180,7 +1179,7 @@
         <v>1200</v>
       </c>
       <c r="P3" s="12">
-        <f t="shared" ref="P3:P8" si="3">(N3-O3)</f>
+        <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
         <v>100</v>
       </c>
     </row>
@@ -1189,15 +1188,15 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <f>(SUM(F4,J4,N4))</f>
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="C4" s="14">
-        <f>(SUM(G4,K4,O4))</f>
+        <f t="shared" si="0"/>
         <v>1975</v>
       </c>
       <c r="D4" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
       <c r="E4" s="5"/>
@@ -1210,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="5"/>
@@ -1222,7 +1221,7 @@
         <v>1175</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>325</v>
       </c>
       <c r="M4" s="5"/>
@@ -1235,7 +1234,7 @@
         <v>800</v>
       </c>
       <c r="P4" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -1244,15 +1243,15 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <f>(SUM(F5,J5,N5))</f>
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="C5" s="14">
-        <f>(SUM(G5,K5,O5))</f>
+        <f t="shared" si="0"/>
         <v>1225</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1375</v>
       </c>
       <c r="E5" s="5"/>
@@ -1265,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="5"/>
@@ -1277,7 +1276,7 @@
         <v>1225</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="M5" s="5"/>
@@ -1290,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
@@ -1299,15 +1298,15 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <f>(SUM(F6,J6,N6))</f>
+        <f t="shared" si="0"/>
         <v>6100</v>
       </c>
       <c r="C6" s="14">
-        <f>(SUM(G6,K6,O6))</f>
+        <f t="shared" si="0"/>
         <v>3775</v>
       </c>
       <c r="D6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2325</v>
       </c>
       <c r="E6" s="5"/>
@@ -1320,7 +1319,7 @@
         <v>1400</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1700</v>
       </c>
       <c r="I6" s="5"/>
@@ -1332,7 +1331,7 @@
         <v>1225</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="M6" s="5"/>
@@ -1345,7 +1344,7 @@
         <v>1150</v>
       </c>
       <c r="P6" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
@@ -1354,15 +1353,15 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <f>(SUM(F7,J7,N7))</f>
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
       <c r="C7" s="14">
-        <f>(SUM(G7,K7,O7))</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="D7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>675</v>
       </c>
       <c r="E7" s="5"/>
@@ -1375,7 +1374,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-100</v>
       </c>
       <c r="I7" s="5"/>
@@ -1387,7 +1386,7 @@
         <v>925</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>575</v>
       </c>
       <c r="M7" s="5"/>
@@ -1400,24 +1399,24 @@
         <v>900</v>
       </c>
       <c r="P7" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17">
-        <f>(SUM(F8,J8,N8))</f>
+        <f t="shared" si="0"/>
         <v>6100</v>
       </c>
       <c r="C8" s="18">
-        <f>(SUM(G8,K8,O8))</f>
+        <f t="shared" si="0"/>
         <v>2695</v>
       </c>
       <c r="D8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3405</v>
       </c>
       <c r="E8" s="5"/>
@@ -1430,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3480</v>
       </c>
       <c r="I8" s="5"/>
@@ -1442,7 +1441,7 @@
         <v>1225</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
       <c r="M8" s="5"/>
@@ -1455,11 +1454,11 @@
         <v>1450</v>
       </c>
       <c r="P8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1535,14 +1534,14 @@
       <selection activeCell="AR86" sqref="AR86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="47" width="4.83203125" customWidth="1"/>
-    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="47" width="4.85546875" customWidth="1"/>
+    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -2473,18 +2472,18 @@
       <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
     <col min="9" max="9" width="11" style="35" customWidth="1"/>
-    <col min="10" max="12" width="4.1640625" style="35" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="10" max="12" width="4.140625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2525,7 +2524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
+    <row r="2" spans="1:12" ht="90">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -2847,17 +2846,17 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S38"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2930,6 +2929,13 @@
       <c r="D2" s="44">
         <v>7</v>
       </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="45"/>
@@ -2943,6 +2949,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="46"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="45"/>
@@ -2956,6 +2963,8 @@
         <v>2</v>
       </c>
       <c r="J4" s="46"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="45"/>
@@ -2969,6 +2978,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="46"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="45"/>
@@ -2982,6 +2992,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="46"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="45"/>
@@ -3117,7 +3128,7 @@
       </c>
       <c r="J16" s="46"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:15">
       <c r="A17" s="45"/>
       <c r="B17" s="43" t="s">
         <v>78</v>
@@ -3130,7 +3141,7 @@
       </c>
       <c r="J17" s="46"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:15">
       <c r="A18" s="45"/>
       <c r="B18" s="43" t="s">
         <v>79</v>
@@ -3143,7 +3154,7 @@
       </c>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:15">
       <c r="A19" s="45"/>
       <c r="B19" s="48" t="s">
         <v>66</v>
@@ -3157,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3170,9 +3181,6 @@
       <c r="D20" s="44">
         <v>5</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
@@ -3180,7 +3188,7 @@
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:15">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
         <v>72</v>
@@ -3195,11 +3203,8 @@
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="J21" s="46"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
         <v>65</v>
@@ -3214,7 +3219,7 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:15">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
         <v>78</v>
@@ -3228,12 +3233,8 @@
       <c r="J23" s="46"/>
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
         <v>79</v>
@@ -3247,12 +3248,8 @@
       <c r="J24" s="46"/>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-    </row>
-    <row r="25" spans="1:19">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
         <v>66</v>
@@ -3266,7 +3263,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:15">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:15">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
         <v>74</v>
@@ -3293,7 +3290,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:15">
       <c r="A28" s="45"/>
       <c r="B28" s="43" t="s">
         <v>65</v>
@@ -3306,7 +3303,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:15">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
         <v>78</v>
@@ -3319,7 +3316,7 @@
       </c>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:15">
       <c r="A30" s="45"/>
       <c r="B30" s="43" t="s">
         <v>79</v>
@@ -3332,7 +3329,7 @@
       </c>
       <c r="J30" s="46"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:15">
       <c r="A31" s="45"/>
       <c r="B31" s="48" t="s">
         <v>66</v>
@@ -3346,7 +3343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:15">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CC62F-C7E6-42D5-B578-44D191A361D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FD914-5FE9-4F2C-A3F1-BEC60547C779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1530" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -572,11 +572,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,6 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2846,7 +2862,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2935,7 +2951,6 @@
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="45"/>
@@ -2948,8 +2963,10 @@
       <c r="D3" s="44">
         <v>1</v>
       </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="J3" s="46"/>
-      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="45"/>
@@ -2963,8 +2980,8 @@
         <v>2</v>
       </c>
       <c r="J4" s="46"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="45"/>
@@ -2978,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="46"/>
-      <c r="O5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="45"/>
@@ -2992,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="46"/>
-      <c r="P6" s="53"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="45"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FD914-5FE9-4F2C-A3F1-BEC60547C779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A663E84-5713-694A-B016-FCFFC1ADCBA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
   <si>
     <t>Total</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Feb. 26</t>
+  </si>
+  <si>
+    <t>Mar. 19</t>
   </si>
 </sst>
 </file>
@@ -706,10 +709,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,50 +1063,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1153,7 @@
       </c>
       <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
@@ -1158,7 +1161,7 @@
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>4675</v>
+        <v>5175</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
@@ -1175,7 +1178,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K3" s="11">
         <f>Meetings!B4*100</f>
@@ -1183,7 +1186,7 @@
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="10">
@@ -1205,15 +1208,15 @@
       </c>
       <c r="B4" s="13">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>1975</v>
+        <v>2375</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13">
@@ -1230,15 +1233,15 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K4" s="14">
         <f>Meetings!B5*100</f>
-        <v>1175</v>
+        <v>1575</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="13">
@@ -1260,15 +1263,15 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>1625</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
@@ -1285,15 +1288,15 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K5" s="14">
         <f>Meetings!B6*100</f>
-        <v>1225</v>
+        <v>1625</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="13">
@@ -1315,15 +1318,15 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>3775</v>
+        <v>4175</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>2325</v>
+        <v>2425</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -1340,15 +1343,15 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K6" s="14">
         <f>Meetings!B7*100</f>
-        <v>1225</v>
+        <v>1625</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="13">
@@ -1370,15 +1373,15 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2425</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -1395,15 +1398,15 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K7" s="14">
         <f>Meetings!B8*100</f>
-        <v>925</v>
+        <v>1325</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="13">
@@ -1419,21 +1422,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="16" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>2695</v>
+        <v>3095</v>
       </c>
       <c r="D8" s="19">
         <f t="shared" si="1"/>
-        <v>3405</v>
+        <v>3505</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13">
@@ -1450,15 +1453,15 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="14">
         <f>Meetings!B9*100</f>
-        <v>1225</v>
+        <v>1625</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="17">
@@ -1474,21 +1477,21 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="16" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>27200</v>
+        <v>30200</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>14120</v>
+        <v>16120</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>13080</v>
+        <v>14080</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1506,15 +1509,15 @@
       <c r="I9" s="5"/>
       <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
-        <v>6950</v>
+        <v>8950</v>
       </c>
       <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
-        <v>2050</v>
+        <v>3050</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="21">
@@ -1550,14 +1553,14 @@
       <selection activeCell="AR86" sqref="AR86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="47" width="4.85546875" customWidth="1"/>
-    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="47" width="4.83203125" customWidth="1"/>
+    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -2485,21 +2488,21 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="11" style="35" customWidth="1"/>
-    <col min="10" max="12" width="4.140625" style="35" customWidth="1"/>
-    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="9" max="10" width="11" style="35" customWidth="1"/>
+    <col min="11" max="12" width="4.1640625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2531,7 +2534,7 @@
         <v>87</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>22</v>
@@ -2540,7 +2543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="80">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>86</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="K2" s="38" t="s">
         <v>22</v>
@@ -2601,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -2637,7 +2640,7 @@
       <c r="I4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
     </row>
@@ -2647,7 +2650,7 @@
       </c>
       <c r="B5" s="37">
         <f t="shared" si="0"/>
-        <v>11.75</v>
+        <v>15.75</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>47</v>
@@ -2668,7 +2671,9 @@
       <c r="I5" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
@@ -2678,7 +2683,7 @@
       </c>
       <c r="B6" s="37">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>16.25</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>47</v>
@@ -2701,7 +2706,9 @@
       <c r="I6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
     </row>
@@ -2711,7 +2718,7 @@
       </c>
       <c r="B7" s="37">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>16.25</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>47</v>
@@ -2734,7 +2741,9 @@
       <c r="I7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
     </row>
@@ -2744,7 +2753,7 @@
       </c>
       <c r="B8" s="37">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>13.25</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>47</v>
@@ -2765,7 +2774,9 @@
         <v>47</v>
       </c>
       <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
     </row>
@@ -2775,7 +2786,7 @@
       </c>
       <c r="B9" s="37">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>16.25</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>47</v>
@@ -2798,7 +2809,9 @@
       <c r="I9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
     </row>
@@ -2808,7 +2821,7 @@
       </c>
       <c r="B10" s="37">
         <f>SUM(B4:B9)</f>
-        <v>69.5</v>
+        <v>89.5</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2840,7 +2853,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
@@ -2861,18 +2874,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2981,7 +2994,7 @@
       </c>
       <c r="J4" s="46"/>
       <c r="K4" s="53"/>
-      <c r="L4" s="59"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="45"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Documents/GitHub/Maze_Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A663E84-5713-694A-B016-FCFFC1ADCBA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -18,19 +17,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -330,12 +329,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -577,16 +576,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,14 +1059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -1081,7 +1080,7 @@
     <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1105,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1">
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1">
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1546,14 +1545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="W52" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="W52" zoomScale="116" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="AR86" sqref="AR86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1563,7 +1562,7 @@
     <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1605,7 @@
       </c>
       <c r="E3" s="53"/>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1622,7 +1621,7 @@
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1636,7 +1635,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1663,7 +1662,7 @@
       <c r="AA6" s="54"/>
       <c r="AB6" s="54"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1684,7 +1683,7 @@
       <c r="AK7" s="54"/>
       <c r="AL7" s="54"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1697,7 +1696,7 @@
       <c r="AM8" s="54"/>
       <c r="AN8" s="54"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1709,7 +1708,7 @@
       </c>
       <c r="AO9" s="54"/>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1725,7 +1724,7 @@
       <c r="AS10" s="54"/>
       <c r="AT10" s="54"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="AU11" s="54"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1814,7 +1813,7 @@
       </c>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1945,7 @@
       </c>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2045,7 +2044,7 @@
       </c>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2075,7 @@
       <c r="M41" s="55"/>
       <c r="N41" s="55"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2093,7 +2092,7 @@
       <c r="S42" s="55"/>
       <c r="T42" s="55"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2109,7 @@
       <c r="Y43" s="57"/>
       <c r="Z43" s="57"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2124,7 +2123,7 @@
       <c r="AB44" s="29"/>
       <c r="AC44" s="29"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="AF45" s="29"/>
       <c r="AG45" s="29"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2152,7 +2151,7 @@
       <c r="AH46" s="29"/>
       <c r="AI46" s="29"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2239,7 @@
       </c>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="32" t="s">
         <v>12</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -2372,7 +2371,7 @@
       </c>
       <c r="J66" s="31"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -2484,14 +2483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
@@ -2505,7 +2504,7 @@
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2643,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2676,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -2712,7 +2711,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
@@ -2747,7 +2746,7 @@
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2779,7 @@
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2814,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
@@ -2871,14 +2870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
@@ -2888,7 +2887,7 @@
     <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="41" t="s">
         <v>62</v>
@@ -2945,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +2964,7 @@
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="43" t="s">
         <v>64</v>
@@ -2981,7 +2980,7 @@
       <c r="G3" s="53"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="43" t="s">
         <v>65</v>
@@ -2996,7 +2995,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="58"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="43" t="s">
         <v>78</v>
@@ -3010,7 +3009,7 @@
       <c r="J5" s="46"/>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="43" t="s">
         <v>79</v>
@@ -3024,7 +3023,7 @@
       <c r="J6" s="46"/>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="43" t="s">
         <v>66</v>
@@ -3038,7 +3037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="43" t="s">
         <v>68</v>
@@ -3065,7 +3064,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="43" t="s">
         <v>65</v>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="43" t="s">
         <v>78</v>
@@ -3091,7 +3090,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="43" t="s">
         <v>79</v>
@@ -3104,7 +3103,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="43" t="s">
         <v>66</v>
@@ -3118,7 +3117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="43" t="s">
         <v>70</v>
@@ -3145,7 +3144,7 @@
       </c>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="43" t="s">
         <v>65</v>
@@ -3158,7 +3157,7 @@
       </c>
       <c r="J16" s="46"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="43" t="s">
         <v>78</v>
@@ -3171,7 +3170,7 @@
       </c>
       <c r="J17" s="46"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="43" t="s">
         <v>79</v>
@@ -3184,7 +3183,7 @@
       </c>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="48" t="s">
         <v>66</v>
@@ -3198,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3218,7 +3217,7 @@
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
         <v>72</v>
@@ -3234,7 +3233,7 @@
       <c r="G21" s="53"/>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
         <v>65</v>
@@ -3249,7 +3248,7 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
         <v>78</v>
@@ -3264,7 +3263,7 @@
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
         <v>79</v>
@@ -3279,7 +3278,7 @@
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
         <v>66</v>
@@ -3293,7 +3292,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
         <v>74</v>
@@ -3320,7 +3319,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="43" t="s">
         <v>65</v>
@@ -3333,7 +3332,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
         <v>78</v>
@@ -3346,7 +3345,7 @@
       </c>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="43" t="s">
         <v>79</v>
@@ -3359,7 +3358,7 @@
       </c>
       <c r="J30" s="46"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="48" t="s">
         <v>66</v>
@@ -3373,7 +3372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="43" t="s">
         <v>76</v>
@@ -3400,7 +3399,7 @@
       </c>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="43" t="s">
         <v>65</v>
@@ -3413,7 +3412,7 @@
       </c>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="43" t="s">
         <v>78</v>
@@ -3426,7 +3425,7 @@
       </c>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="43" t="s">
         <v>79</v>
@@ -3439,7 +3438,7 @@
       </c>
       <c r="J36" s="46"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="48" t="s">
         <v>77</v>
@@ -3453,7 +3452,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="49"/>
       <c r="B38" s="50" t="s">
         <v>13</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mear8979\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4416ED97-839A-034C-8701-169B9F244EB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -18,10 +17,10 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t>Total</t>
   </si>
@@ -323,11 +322,35 @@
   <si>
     <t>Feb. 26</t>
   </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Enemy Testing</t>
+  </si>
+  <si>
+    <t>Item Integration</t>
+  </si>
+  <si>
+    <t>VR Integration and Setup</t>
+  </si>
+  <si>
+    <t>Maze Testing</t>
+  </si>
+  <si>
+    <t>Auto-Tester</t>
+  </si>
+  <si>
+    <t>Integrate Tests</t>
+  </si>
+  <si>
+    <t>Refactor Asset Organization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
@@ -688,12 +711,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,56 +1064,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1249,28 +1272,28 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>2025</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1375</v>
+        <v>2475</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
@@ -1469,28 +1492,28 @@
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>27200</v>
+        <v>29100</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>14120</v>
+        <v>14920</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>13080</v>
+        <v>14180</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>11000</v>
+        <v>12900</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>1670</v>
+        <v>2470</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>9330</v>
+        <v>10430</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1532,22 +1555,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK39" sqref="AK39:AL39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1778,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1824,7 @@
       </c>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1823,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1880,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:18">
       <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
@@ -1888,94 +1911,111 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
@@ -2005,11 +2045,11 @@
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -2042,9 +2082,9 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
@@ -2056,12 +2096,12 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
@@ -2073,12 +2113,12 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
@@ -2090,12 +2130,12 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
@@ -2444,11 +2484,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>16.7</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2457,11 +2497,11 @@
       </c>
       <c r="B75" s="34">
         <f>B74*100</f>
-        <v>11000</v>
+        <v>12900</v>
       </c>
       <c r="C75" s="34">
         <f>C74*100</f>
-        <v>1670</v>
+        <v>2470</v>
       </c>
     </row>
   </sheetData>
@@ -2471,25 +2511,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
     <col min="9" max="9" width="11" style="35" customWidth="1"/>
-    <col min="10" max="12" width="4.1640625" style="35" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="10" max="12" width="4.140625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2530,7 +2570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="128">
+    <row r="2" spans="1:12" ht="90">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -2848,21 +2888,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A663E84-5713-694A-B016-FCFFC1ADCBA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F78990-8F1D-4C0E-8DAD-08EC6AA47C43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="4680" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
   <si>
     <t>Total</t>
   </si>
@@ -326,6 +326,44 @@
   <si>
     <t>Mar. 19</t>
   </si>
+  <si>
+    <t>VR Integration and Setup</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Enemy Testing</t>
+  </si>
+  <si>
+    <t>Item Integration</t>
+  </si>
+  <si>
+    <t>Maze Testing</t>
+  </si>
+  <si>
+    <t>Auto-Tester</t>
+  </si>
+  <si>
+    <t>Integrate Tests</t>
+  </si>
+  <si>
+    <t>Refactor Asset Organization</t>
+  </si>
+  <si>
+    <r>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(30 min)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -367,6 +405,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1063,22 +1107,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1106,7 +1150,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1263,28 +1307,28 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>2425</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1475</v>
+        <v>2575</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
@@ -1422,7 +1466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1477,34 +1521,34 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>30200</v>
+        <v>32100</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>16120</v>
+        <v>16920</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>14080</v>
+        <v>15180</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>11000</v>
+        <v>12900</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>1670</v>
+        <v>2470</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>9330</v>
+        <v>10430</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1549,18 +1593,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="W52" zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AR86" sqref="AR86"/>
+    <sheetView zoomScale="116" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H33" activeCellId="1" sqref="G32 H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="47" width="4.83203125" customWidth="1"/>
-    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="47" width="4.85546875" customWidth="1"/>
+    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1791,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1802,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1814,7 +1858,7 @@
       </c>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1847,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1880,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:18">
       <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
@@ -1901,94 +1945,111 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
@@ -2018,11 +2079,11 @@
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -2457,11 +2518,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>16.7</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2470,11 +2531,11 @@
       </c>
       <c r="B75" s="34">
         <f>B74*100</f>
-        <v>11000</v>
+        <v>12900</v>
       </c>
       <c r="C75" s="34">
         <f>C74*100</f>
-        <v>1670</v>
+        <v>2470</v>
       </c>
     </row>
   </sheetData>
@@ -2487,22 +2548,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
     <col min="9" max="10" width="11" style="35" customWidth="1"/>
-    <col min="11" max="12" width="4.1640625" style="35" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="11" max="12" width="4.140625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2543,7 +2604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
+    <row r="2" spans="1:12" ht="90">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -2640,7 +2701,9 @@
       <c r="I4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="36"/>
+      <c r="J4" s="36" t="s">
+        <v>97</v>
+      </c>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
     </row>
@@ -2853,7 +2916,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
@@ -2866,7 +2929,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2878,14 +2941,14 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F78990-8F1D-4C0E-8DAD-08EC6AA47C43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E77487C-D529-4213-87CB-59FB625C59F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="4680" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2679,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="37">
-        <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
+        <f>SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>11.75</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -2712,7 +2712,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B9" si="0">SUMIF(C5:L5,A$1,C$3:Z$3)</f>
         <v>15.75</v>
       </c>
       <c r="C5" s="39" t="s">

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AB250-74A4-5141-ACCD-11A32D5BFDE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41109F8A-FD20-4552-B304-0604BF8A076E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16780" windowHeight="15520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -567,36 +567,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,7 +612,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,7 +622,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -662,19 +659,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,8 +682,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,473 +1074,473 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="J1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
         <v>7100</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f t="shared" si="0"/>
         <v>2125</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
         <v>4975</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="14">
+      <c r="E3" s="5"/>
+      <c r="F3" s="13">
         <f>(Gantt!$B13)*100</f>
         <v>4300</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
         <v>50</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
         <v>4250</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="11">
+      <c r="I3" s="5"/>
+      <c r="J3" s="10">
         <v>1500</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>Meetings!B4*100</f>
         <v>875</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
         <v>625</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="11">
+      <c r="M3" s="5"/>
+      <c r="N3" s="10">
         <f>SA!C7*100</f>
         <v>1300</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="11">
         <f>SA!D7*100</f>
         <v>1200</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14">
+      <c r="E4" s="5"/>
+      <c r="F4" s="13">
         <f>(Gantt!$B25)*100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>(Gantt!$C25)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="14">
+      <c r="I4" s="5"/>
+      <c r="J4" s="13">
         <v>1500</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>Meetings!B5*100</f>
         <v>875</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="3"/>
         <v>625</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="14">
+      <c r="M4" s="5"/>
+      <c r="N4" s="13">
         <f>SA!C13*100</f>
         <v>1100</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <f>SA!D13*100</f>
         <v>800</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>1675</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14">
+      <c r="E5" s="5"/>
+      <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="14">
+      <c r="I5" s="5"/>
+      <c r="J5" s="13">
         <v>1500</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>Meetings!B6*100</f>
         <v>925</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="14">
+      <c r="M5" s="5"/>
+      <c r="N5" s="13">
         <f>SA!C19*100</f>
         <v>1100</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <f>SA!D19*100</f>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>6100</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>2175</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
         <v>3925</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="14">
+      <c r="E6" s="5"/>
+      <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
         <v>3100</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
         <v>100</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="14">
+      <c r="I6" s="5"/>
+      <c r="J6" s="13">
         <v>1500</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>Meetings!B7*100</f>
         <v>925</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14">
+      <c r="M6" s="5"/>
+      <c r="N6" s="13">
         <f>SA!C25*100</f>
         <v>1500</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <f>SA!D25*100</f>
         <v>1150</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="14">
+      <c r="E7" s="5"/>
+      <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
         <v>100</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
         <v>200</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14">
+      <c r="I7" s="5"/>
+      <c r="J7" s="13">
         <v>1500</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>Meetings!B8*100</f>
         <v>925</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="14">
+      <c r="M7" s="5"/>
+      <c r="N7" s="13">
         <f>SA!C31*100</f>
         <v>1100</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <f>SA!D31*100</f>
         <v>900</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>3995</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>3005</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="14">
+      <c r="E8" s="5"/>
+      <c r="F8" s="13">
         <f>(Gantt!$B73)*100</f>
         <v>4000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>(Gantt!$C73)*100</f>
         <v>919.99999999999989</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>3080</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14">
+      <c r="I8" s="5"/>
+      <c r="J8" s="13">
         <v>1500</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>Meetings!B9*100</f>
         <v>925</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="18">
+      <c r="M8" s="5"/>
+      <c r="N8" s="17">
         <f>SA!C37*100</f>
         <v>1500</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <f>SA!D37*100</f>
         <v>2150</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <f t="shared" si="4"/>
         <v>-650</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
         <v>28100</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
         <v>12920</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
         <v>15180</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
         <v>11500</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
         <v>1270</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
         <v>10230</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
         <v>9000</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
         <v>5450</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
         <v>3550</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="22">
+      <c r="M9" s="5"/>
+      <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
         <v>7600</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
         <v>6200</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
         <v>1400</v>
       </c>
@@ -1562,19 +1561,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1587,21 +1586,21 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
       <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="29"/>
       <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:47">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1618,7 +1617,7 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:47">
       <c r="A4" t="s">
@@ -1630,11 +1629,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" t="s">
@@ -1646,9 +1645,9 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:47">
       <c r="A6" t="s">
@@ -1660,22 +1659,22 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
+      <c r="J6" s="32"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
     </row>
     <row r="7" spans="1:47">
       <c r="A7" t="s">
@@ -1687,16 +1686,16 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
@@ -1708,8 +1707,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
     </row>
     <row r="9" spans="1:47">
       <c r="A9" t="s">
@@ -1721,7 +1720,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="AO9" s="30"/>
+      <c r="AO9" s="29"/>
     </row>
     <row r="10" spans="1:47">
       <c r="A10" t="s">
@@ -1733,11 +1732,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
     </row>
     <row r="11" spans="1:47">
       <c r="A11" t="s">
@@ -1749,7 +1748,7 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="AU11" s="30"/>
+      <c r="AU11" s="29"/>
     </row>
     <row r="12" spans="1:47">
       <c r="A12" t="s">
@@ -1776,7 +1775,7 @@
       </c>
     </row>
     <row r="14" spans="1:47">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -1826,7 +1825,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
@@ -1908,7 +1907,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
@@ -1958,7 +1957,7 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
@@ -2040,7 +2039,7 @@
       </c>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
@@ -2057,7 +2056,7 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
@@ -2069,9 +2068,9 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
@@ -2083,12 +2082,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
@@ -2100,12 +2099,12 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
@@ -2117,12 +2116,12 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
@@ -2134,9 +2133,9 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
@@ -2148,10 +2147,10 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
@@ -2163,8 +2162,8 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
@@ -2202,7 +2201,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
@@ -2252,7 +2251,7 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="J54" s="33"/>
+      <c r="J54" s="32"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
@@ -2334,7 +2333,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
@@ -2351,7 +2350,7 @@
       <c r="C63">
         <v>0.2</v>
       </c>
-      <c r="D63" s="32"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
@@ -2363,9 +2362,9 @@
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65" t="s">
@@ -2377,8 +2376,8 @@
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66" t="s">
@@ -2390,8 +2389,8 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="J66" s="36"/>
-      <c r="K66" s="32"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="31"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
@@ -2403,8 +2402,8 @@
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
@@ -2416,10 +2415,10 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
@@ -2431,10 +2430,10 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70" t="s">
@@ -2446,16 +2445,16 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="37"/>
+      <c r="AE70" s="37"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71" t="s">
@@ -2509,11 +2508,11 @@
       <c r="A75" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="39">
+      <c r="B75" s="38">
         <f>B74*100</f>
         <v>11500</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="38">
         <f>C74*100</f>
         <v>1270</v>
       </c>
@@ -2532,353 +2531,353 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="40" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="40" customWidth="1"/>
-    <col min="9" max="12" width="4.1640625" style="40" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="39" customWidth="1"/>
+    <col min="7" max="8" width="10.453125" style="39" customWidth="1"/>
+    <col min="9" max="12" width="4.1796875" style="39" customWidth="1"/>
+    <col min="13" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="1:12" ht="87">
+      <c r="B2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.25</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2.5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.5</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <f>SUM(B4:B9)</f>
         <v>54.5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2893,29 +2892,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.6328125" customWidth="1"/>
+    <col min="20" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2965,526 +2964,529 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="50"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>1</v>
       </c>
-      <c r="J3" s="51"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="50"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>2</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="50"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>1</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>1</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="50"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>6</v>
       </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="50"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>1</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="50"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="49">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51"/>
+      <c r="D11" s="48">
+        <v>0</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="50"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="49">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51"/>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="50"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="51">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>78</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="50"/>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51"/>
+      <c r="D15" s="48">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="49">
-        <v>0</v>
-      </c>
-      <c r="J16" s="51"/>
+      <c r="D16" s="48">
+        <v>0</v>
+      </c>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="49">
-        <v>0</v>
-      </c>
-      <c r="J17" s="51"/>
+      <c r="D17" s="48">
+        <v>0</v>
+      </c>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="49">
-        <v>0</v>
-      </c>
-      <c r="J18" s="51"/>
+      <c r="D18" s="48">
+        <v>0</v>
+      </c>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="51">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>5</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="48">
         <v>1.5</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="48">
         <v>2</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
+      <c r="J22" s="50"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="48">
         <v>1.5</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
+      <c r="J23" s="50"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="50"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <v>1.5</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
+      <c r="J24" s="50"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="47">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="51">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="48">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="47" t="s">
         <v>83</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="48">
         <v>1</v>
       </c>
-      <c r="J27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="48">
         <v>2</v>
       </c>
-      <c r="J28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="49">
-        <v>0</v>
-      </c>
-      <c r="J29" s="51"/>
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="50"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="49">
-        <v>0</v>
-      </c>
-      <c r="J30" s="51"/>
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="47">
         <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="51">
         <f>SUM(D26:D30)</f>
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="50"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="47" t="s">
         <v>85</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="48">
         <v>0.5</v>
       </c>
-      <c r="J33" s="51"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="48">
         <v>2</v>
       </c>
-      <c r="J34" s="51"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="50"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="48">
         <v>4</v>
       </c>
-      <c r="J35" s="51"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="48">
         <v>3</v>
       </c>
-      <c r="J36" s="51"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="50"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="47">
         <f>SUM(C32:C36)</f>
         <v>15</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="51">
         <f>SUM(D32:D36)</f>
         <v>21.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="55">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>76</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="56">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
         <v>62</v>
       </c>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41109F8A-FD20-4552-B304-0604BF8A076E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578BC88-3A43-4239-840F-C3D2FC32EAD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1792,6 +1792,7 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:47">
       <c r="A16" t="s">
@@ -1803,6 +1804,7 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
@@ -1814,6 +1816,7 @@
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
@@ -1825,6 +1828,7 @@
       <c r="C18">
         <v>0</v>
       </c>
+      <c r="G18" s="29"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
@@ -1837,6 +1841,7 @@
       <c r="C19">
         <v>0</v>
       </c>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
@@ -1848,6 +1853,7 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
@@ -1859,6 +1865,7 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
@@ -2892,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41109F8A-FD20-4552-B304-0604BF8A076E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EBD8BD-D8A2-F143-A1A0-91DD4891B14A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="88">
   <si>
     <t>Total</t>
   </si>
@@ -314,6 +314,9 @@
   <si>
     <t>Subtotal:</t>
   </si>
+  <si>
+    <t>Implement Player Health</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -362,8 +365,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +432,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFED1C24"/>
       </patternFill>
     </fill>
   </fills>
@@ -567,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,7 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -686,6 +707,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,49 +1100,49 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="J1" s="59" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="N1" s="59" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1330,7 +1356,7 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
-        <v>6100</v>
+        <v>6700</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
@@ -1338,12 +1364,12 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>3925</v>
+        <v>4525</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
@@ -1351,7 +1377,7 @@
       </c>
       <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13">
@@ -1495,7 +1521,7 @@
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
@@ -1503,12 +1529,12 @@
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>15180</v>
+        <v>15780</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
@@ -1516,7 +1542,7 @@
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>10230</v>
+        <v>10830</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1561,19 +1587,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" customWidth="1"/>
-    <col min="7" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1981,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2014,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:41">
       <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2058,7 +2084,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2068,11 +2094,11 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2082,14 +2108,14 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2099,16 +2125,16 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -2116,67 +2142,79 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="63"/>
+      <c r="AC44" s="63"/>
+      <c r="AD44" s="63"/>
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="63"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>3</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>4</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="29"/>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" t="s">
         <v>29</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>2</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2193,7 +2231,7 @@
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
@@ -2389,7 +2427,7 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="J66" s="35"/>
+      <c r="J66" s="34"/>
       <c r="K66" s="31"/>
     </row>
     <row r="67" spans="1:31">
@@ -2415,10 +2453,10 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
@@ -2430,10 +2468,10 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70" t="s">
@@ -2445,16 +2483,16 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
-      <c r="AA70" s="37"/>
-      <c r="AB70" s="37"/>
-      <c r="AC70" s="37"/>
-      <c r="AD70" s="37"/>
-      <c r="AE70" s="37"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
+      <c r="AC70" s="36"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71" t="s">
@@ -2497,7 +2535,7 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
@@ -2508,11 +2546,11 @@
       <c r="A75" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75" s="37">
         <f>B74*100</f>
-        <v>11500</v>
-      </c>
-      <c r="C75" s="38">
+        <v>12100</v>
+      </c>
+      <c r="C75" s="37">
         <f>C74*100</f>
         <v>1270</v>
       </c>
@@ -2531,24 +2569,24 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="39" customWidth="1"/>
-    <col min="7" max="8" width="10.453125" style="39" customWidth="1"/>
-    <col min="9" max="12" width="4.1796875" style="39" customWidth="1"/>
-    <col min="13" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="38" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="38" customWidth="1"/>
+    <col min="9" max="12" width="4.1640625" style="38" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2582,43 +2620,43 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="87">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:12" ht="80">
+      <c r="B2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3">
@@ -2653,191 +2691,191 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <f>SUM(B4:B9)</f>
         <v>54.5</v>
       </c>
@@ -2892,29 +2930,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6328125" customWidth="1"/>
-    <col min="20" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2967,78 +3005,78 @@
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="49"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="49"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="49"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <v>1</v>
       </c>
-      <c r="J5" s="50"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="49"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="47">
         <v>1</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="49"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="50">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
@@ -3047,87 +3085,87 @@
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="47">
         <v>6</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="49"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
+      <c r="J9" s="49"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="49"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="48">
-        <v>0</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="J11" s="50"/>
+      <c r="D11" s="47">
+        <v>0</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="49"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="48">
-        <v>0</v>
-      </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="J12" s="50"/>
+      <c r="D12" s="47">
+        <v>0</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="49"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
@@ -3136,183 +3174,183 @@
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="49"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="48">
-        <v>0</v>
-      </c>
-      <c r="J15" s="50"/>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="49"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="48">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50"/>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="48">
-        <v>0</v>
-      </c>
-      <c r="J17" s="50"/>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="48">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50"/>
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <v>5</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="47">
         <v>1.5</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="J21" s="50"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="47">
         <v>2</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="J22" s="49"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="47">
         <v>1.5</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
+      <c r="J23" s="49"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="47">
         <v>1.5</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
+      <c r="J24" s="49"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="46">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="50">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
@@ -3321,78 +3359,78 @@
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <v>1</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="47">
         <v>2</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="48">
-        <v>0</v>
-      </c>
-      <c r="J29" s="50"/>
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="49"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="48">
-        <v>0</v>
-      </c>
-      <c r="J30" s="50"/>
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="46">
         <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="50">
         <f>SUM(D26:D30)</f>
         <v>9</v>
       </c>
@@ -3401,92 +3439,92 @@
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="46" t="s">
         <v>84</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="49"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="46" t="s">
         <v>85</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="47">
         <v>0.5</v>
       </c>
-      <c r="J33" s="50"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="49"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="47">
         <v>2</v>
       </c>
-      <c r="J34" s="50"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="49"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="47">
         <v>4</v>
       </c>
-      <c r="J35" s="50"/>
+      <c r="J35" s="49"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="49"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="47">
         <v>3</v>
       </c>
-      <c r="J36" s="50"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="46">
         <f>SUM(C32:C36)</f>
         <v>15</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="50">
         <f>SUM(D32:D36)</f>
         <v>21.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="54">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>76</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="55">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
         <v>62</v>
       </c>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EBD8BD-D8A2-F143-A1A0-91DD4891B14A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E9674F-7A4C-6948-82C4-1446F443CB49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,14 +704,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,27 +1122,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="J1" s="58" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="J1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
@@ -1587,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
@@ -2094,9 +2094,9 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
@@ -2108,12 +2108,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
     </row>
     <row r="42" spans="1:41">
       <c r="A42" t="s">
@@ -2125,12 +2125,12 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
     </row>
     <row r="43" spans="1:41">
       <c r="A43" t="s">
@@ -2142,12 +2142,12 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="U43" s="61"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="61"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="61"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
     </row>
     <row r="44" spans="1:41">
       <c r="A44" t="s">
@@ -2159,18 +2159,18 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63"/>
-      <c r="AC44" s="63"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="63"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
     </row>
     <row r="45" spans="1:41">
       <c r="A45" t="s">

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3F1BE-4BE7-2B49-B498-ECDFECC43A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E59890-A675-9B4D-AD47-FBABB2ECE7F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
   <si>
     <t>Total</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Presentation Rehersal</t>
-  </si>
-  <si>
-    <t>TDB</t>
   </si>
   <si>
     <r>
@@ -316,6 +313,24 @@
   </si>
   <si>
     <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>Mar. 19</t>
+  </si>
+  <si>
+    <t>Mar. 25</t>
+  </si>
+  <si>
+    <t>Player Development</t>
+  </si>
+  <si>
+    <t>Mar. 28</t>
+  </si>
+  <si>
+    <t>Master Merge and Progress Check</t>
+  </si>
+  <si>
+    <t>Stress Test Development and Progress Check</t>
   </si>
 </sst>
 </file>
@@ -1216,11 +1231,11 @@
       </c>
       <c r="C4" s="15">
         <f t="shared" si="0"/>
-        <v>1675</v>
+        <v>2025</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="1"/>
-        <v>925</v>
+        <v>575</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="14">
@@ -1241,11 +1256,11 @@
       </c>
       <c r="K4" s="15">
         <f>Meetings!B5*100</f>
-        <v>875</v>
+        <v>1225</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>625</v>
+        <v>275</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="14">
@@ -1271,11 +1286,11 @@
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>1425</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>1675</v>
+        <v>1175</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="14">
@@ -1296,11 +1311,11 @@
       </c>
       <c r="K5" s="15">
         <f>Meetings!B6*100</f>
-        <v>925</v>
+        <v>1425</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>75</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="14">
@@ -1326,11 +1341,11 @@
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>4075</v>
+        <v>4575</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>2425</v>
+        <v>1925</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="14">
@@ -1351,11 +1366,11 @@
       </c>
       <c r="K6" s="15">
         <f>Meetings!B7*100</f>
-        <v>925</v>
+        <v>1425</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>75</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="14">
@@ -1381,11 +1396,11 @@
       </c>
       <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2375</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>325</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="14">
@@ -1406,11 +1421,11 @@
       </c>
       <c r="K7" s="15">
         <f>Meetings!B8*100</f>
-        <v>925</v>
+        <v>1275</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>225</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="14">
@@ -1436,11 +1451,11 @@
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>3995</v>
+        <v>4345</v>
       </c>
       <c r="D8" s="20">
         <f t="shared" si="1"/>
-        <v>3005</v>
+        <v>2655</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="14">
@@ -1461,11 +1476,11 @@
       </c>
       <c r="K8" s="15">
         <f>Meetings!B9*100</f>
-        <v>925</v>
+        <v>1275</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>225</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="18">
@@ -1491,11 +1506,11 @@
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
-        <v>14820</v>
+        <v>16870</v>
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>13680</v>
+        <v>11630</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="25">
@@ -1517,11 +1532,11 @@
       </c>
       <c r="K9" s="26">
         <f>SUM(K3:K8)</f>
-        <v>5450</v>
+        <v>7500</v>
       </c>
       <c r="L9" s="27">
         <f>SUM(L3:L8)</f>
-        <v>3550</v>
+        <v>1500</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="22">
@@ -2618,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2631,7 +2646,9 @@
     <col min="5" max="5" width="9.5" style="41" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="41" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="41" customWidth="1"/>
-    <col min="9" max="12" width="4.1640625" style="41" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="41" customWidth="1"/>
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2661,13 +2678,13 @@
         <v>61</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>30</v>
@@ -2696,13 +2713,13 @@
         <v>68</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="L2" s="44" t="s">
         <v>30</v>
@@ -2731,10 +2748,10 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -2778,7 +2795,7 @@
       </c>
       <c r="B5" s="43">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>12.25</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>54</v>
@@ -2794,6 +2811,9 @@
         <v>54</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>54</v>
       </c>
       <c r="J5" s="45"/>
@@ -2806,7 +2826,7 @@
       </c>
       <c r="B6" s="43">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>14.25</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>54</v>
@@ -2826,8 +2846,12 @@
       <c r="H6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
@@ -2837,7 +2861,7 @@
       </c>
       <c r="B7" s="43">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>14.25</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>54</v>
@@ -2857,8 +2881,12 @@
       <c r="H7" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
     </row>
@@ -2868,7 +2896,7 @@
       </c>
       <c r="B8" s="43">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>12.75</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>54</v>
@@ -2888,7 +2916,9 @@
       <c r="H8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="45"/>
+      <c r="I8" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
       <c r="L8" s="45"/>
@@ -2899,7 +2929,7 @@
       </c>
       <c r="B9" s="43">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>12.75</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>54</v>
@@ -2919,7 +2949,9 @@
       <c r="H9" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
@@ -2930,7 +2962,7 @@
       </c>
       <c r="B10" s="43">
         <f>SUM(B4:B9)</f>
-        <v>54.5</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2958,11 +2990,11 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
@@ -2983,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3006,7 +3038,7 @@
     <row r="1" spans="1:27">
       <c r="A1" s="46"/>
       <c r="B1" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>14</v>
@@ -3089,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -3101,7 +3133,7 @@
     <row r="3" spans="1:27">
       <c r="A3" s="51"/>
       <c r="B3" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3114,7 +3146,7 @@
     <row r="4" spans="1:27">
       <c r="A4" s="51"/>
       <c r="B4" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3127,7 +3159,7 @@
     <row r="5" spans="1:27">
       <c r="A5" s="51"/>
       <c r="B5" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3140,7 +3172,7 @@
     <row r="6" spans="1:27">
       <c r="A6" s="51"/>
       <c r="B6" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3153,7 +3185,7 @@
     <row r="7" spans="1:27">
       <c r="A7" s="51"/>
       <c r="B7" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="49">
         <f>SUM(C2:C6)</f>
@@ -3169,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3183,7 +3215,7 @@
     <row r="9" spans="1:27">
       <c r="A9" s="51"/>
       <c r="B9" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3198,7 +3230,7 @@
     <row r="10" spans="1:27">
       <c r="A10" s="51"/>
       <c r="B10" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3212,7 +3244,7 @@
     <row r="11" spans="1:27">
       <c r="A11" s="51"/>
       <c r="B11" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3227,7 +3259,7 @@
     <row r="12" spans="1:27">
       <c r="A12" s="51"/>
       <c r="B12" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3242,7 +3274,7 @@
     <row r="13" spans="1:27">
       <c r="A13" s="51"/>
       <c r="B13" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="49">
         <f>SUM(C8:C12)</f>
@@ -3258,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3270,7 +3302,7 @@
     <row r="15" spans="1:27">
       <c r="A15" s="51"/>
       <c r="B15" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3283,7 +3315,7 @@
     <row r="16" spans="1:27">
       <c r="A16" s="51"/>
       <c r="B16" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3296,7 +3328,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="51"/>
       <c r="B17" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3309,7 +3341,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="51"/>
       <c r="B18" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3322,7 +3354,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="51"/>
       <c r="B19" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="49">
         <f>SUM(C14:C18)</f>
@@ -3348,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -3366,7 +3398,7 @@
     <row r="21" spans="1:16">
       <c r="A21" s="51"/>
       <c r="B21" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3382,7 +3414,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="51"/>
       <c r="B22" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3397,7 +3429,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="51"/>
       <c r="B23" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3412,7 +3444,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="51"/>
       <c r="B24" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3427,7 +3459,7 @@
     <row r="25" spans="1:16">
       <c r="A25" s="51"/>
       <c r="B25" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="49">
         <f>SUM(C20:C24)</f>
@@ -3443,7 +3475,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -3455,7 +3487,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="51"/>
       <c r="B27" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -3468,7 +3500,7 @@
     <row r="28" spans="1:16">
       <c r="A28" s="51"/>
       <c r="B28" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3481,7 +3513,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="51"/>
       <c r="B29" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3494,7 +3526,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="51"/>
       <c r="B30" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3507,7 +3539,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="51"/>
       <c r="B31" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="49">
         <f>SUM(C26:C30)</f>
@@ -3523,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -3547,7 +3579,7 @@
     <row r="33" spans="1:27">
       <c r="A33" s="51"/>
       <c r="B33" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -3561,7 +3593,7 @@
     <row r="34" spans="1:27">
       <c r="A34" s="51"/>
       <c r="B34" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3576,7 +3608,7 @@
     <row r="35" spans="1:27">
       <c r="A35" s="51"/>
       <c r="B35" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3594,7 +3626,7 @@
     <row r="36" spans="1:27">
       <c r="A36" s="51"/>
       <c r="B36" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3610,7 +3642,7 @@
     <row r="37" spans="1:27">
       <c r="A37" s="51"/>
       <c r="B37" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="49">
         <f>SUM(C32:C36)</f>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E59890-A675-9B4D-AD47-FBABB2ECE7F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534C661-3644-D04A-821B-5B9E7881D5FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,16 +321,16 @@
     <t>Mar. 25</t>
   </si>
   <si>
-    <t>Player Development</t>
-  </si>
-  <si>
     <t>Mar. 28</t>
   </si>
   <si>
     <t>Master Merge and Progress Check</t>
   </si>
   <si>
-    <t>Stress Test Development and Progress Check</t>
+    <t>Stress Testing and Progress Check</t>
+  </si>
+  <si>
+    <t>Player Additions</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="0"/>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>1925</v>
+        <v>2125</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="14">
         <f>(Gantt!$B49)*100</f>
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G6" s="15">
         <f>(Gantt!$C49)*100</f>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="14">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(B3:B8)</f>
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="C9" s="23">
         <f>SUM(C3:C8)</f>
@@ -1510,12 +1510,12 @@
       </c>
       <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
-        <v>11630</v>
+        <v>11830</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="25">
         <f>SUM(F3:F8)</f>
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="G9" s="26">
         <f>SUM(G3:G8)</f>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="H9" s="27">
         <f>SUM(H3:H8)</f>
-        <v>8730</v>
+        <v>8930</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="25">
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:AU75"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2223,7 +2223,7 @@
         <v>28</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2241,8 +2241,8 @@
       <c r="AE46" s="30"/>
       <c r="AF46" s="30"/>
       <c r="AG46" s="30"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
       <c r="AJ46" s="60"/>
       <c r="AK46" s="60"/>
       <c r="AL46" s="60"/>
@@ -2273,10 +2273,10 @@
       <c r="AE47" s="37"/>
       <c r="AF47" s="37"/>
       <c r="AG47" s="37"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="60"/>
+      <c r="AH47" s="60"/>
+      <c r="AI47" s="60"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="60"/>
       <c r="AM47" s="60"/>
       <c r="AN47" s="60"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B75" s="40">
         <f>B74*100</f>
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="C75" s="40">
         <f>C74*100</f>
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2642,12 +2642,13 @@
     <col min="1" max="1" width="15.5" style="41" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="41" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="41" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="41" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" style="41" customWidth="1"/>
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
@@ -2684,7 +2685,7 @@
         <v>88</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>30</v>
@@ -2713,13 +2714,13 @@
         <v>68</v>
       </c>
       <c r="I2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>89</v>
-      </c>
       <c r="K2" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="44" t="s">
         <v>30</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534C661-3644-D04A-821B-5B9E7881D5FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE7851-B473-FA4E-BE1C-6CF3D5DF4AC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>Meeting the Team</t>
   </si>
   <si>
-    <t>RFP and SA Presentation Breakdown</t>
-  </si>
-  <si>
     <t>Assigned RFP Sections</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>Player Additions</t>
+  </si>
+  <si>
+    <t>RFP and SA Breakdown</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2642,7 +2642,7 @@
     <col min="1" max="1" width="15.5" style="41" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="41" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="41" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
@@ -2679,13 +2679,13 @@
         <v>61</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>30</v>
@@ -2699,28 +2699,28 @@
         <v>63</v>
       </c>
       <c r="D2" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>68</v>
-      </c>
       <c r="I2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>92</v>
-      </c>
       <c r="K2" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="44" t="s">
         <v>30</v>
@@ -3039,7 +3039,7 @@
     <row r="1" spans="1:27">
       <c r="A1" s="46"/>
       <c r="B1" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>14</v>
@@ -3122,7 +3122,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -3134,7 +3134,7 @@
     <row r="3" spans="1:27">
       <c r="A3" s="51"/>
       <c r="B3" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3147,7 +3147,7 @@
     <row r="4" spans="1:27">
       <c r="A4" s="51"/>
       <c r="B4" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3160,7 +3160,7 @@
     <row r="5" spans="1:27">
       <c r="A5" s="51"/>
       <c r="B5" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3173,7 +3173,7 @@
     <row r="6" spans="1:27">
       <c r="A6" s="51"/>
       <c r="B6" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3186,7 +3186,7 @@
     <row r="7" spans="1:27">
       <c r="A7" s="51"/>
       <c r="B7" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="49">
         <f>SUM(C2:C6)</f>
@@ -3202,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3216,7 +3216,7 @@
     <row r="9" spans="1:27">
       <c r="A9" s="51"/>
       <c r="B9" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3231,7 +3231,7 @@
     <row r="10" spans="1:27">
       <c r="A10" s="51"/>
       <c r="B10" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3245,7 +3245,7 @@
     <row r="11" spans="1:27">
       <c r="A11" s="51"/>
       <c r="B11" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3260,7 +3260,7 @@
     <row r="12" spans="1:27">
       <c r="A12" s="51"/>
       <c r="B12" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3275,7 +3275,7 @@
     <row r="13" spans="1:27">
       <c r="A13" s="51"/>
       <c r="B13" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="49">
         <f>SUM(C8:C12)</f>
@@ -3291,7 +3291,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3303,7 +3303,7 @@
     <row r="15" spans="1:27">
       <c r="A15" s="51"/>
       <c r="B15" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3316,7 +3316,7 @@
     <row r="16" spans="1:27">
       <c r="A16" s="51"/>
       <c r="B16" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3329,7 +3329,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="51"/>
       <c r="B17" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3342,7 +3342,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="51"/>
       <c r="B18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3355,7 +3355,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="51"/>
       <c r="B19" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="49">
         <f>SUM(C14:C18)</f>
@@ -3381,7 +3381,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -3399,7 +3399,7 @@
     <row r="21" spans="1:16">
       <c r="A21" s="51"/>
       <c r="B21" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3415,7 +3415,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="51"/>
       <c r="B22" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3430,7 +3430,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="51"/>
       <c r="B23" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3445,7 +3445,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="51"/>
       <c r="B24" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3460,7 +3460,7 @@
     <row r="25" spans="1:16">
       <c r="A25" s="51"/>
       <c r="B25" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="49">
         <f>SUM(C20:C24)</f>
@@ -3476,7 +3476,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -3488,7 +3488,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="51"/>
       <c r="B27" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -3501,7 +3501,7 @@
     <row r="28" spans="1:16">
       <c r="A28" s="51"/>
       <c r="B28" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3514,7 +3514,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="51"/>
       <c r="B29" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="51"/>
       <c r="B30" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3540,7 +3540,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="51"/>
       <c r="B31" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="49">
         <f>SUM(C26:C30)</f>
@@ -3556,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -3580,7 +3580,7 @@
     <row r="33" spans="1:27">
       <c r="A33" s="51"/>
       <c r="B33" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -3594,7 +3594,7 @@
     <row r="34" spans="1:27">
       <c r="A34" s="51"/>
       <c r="B34" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3609,7 +3609,7 @@
     <row r="35" spans="1:27">
       <c r="A35" s="51"/>
       <c r="B35" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3627,7 +3627,7 @@
     <row r="36" spans="1:27">
       <c r="A36" s="51"/>
       <c r="B36" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3643,7 +3643,7 @@
     <row r="37" spans="1:27">
       <c r="A37" s="51"/>
       <c r="B37" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="49">
         <f>SUM(C32:C36)</f>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE7851-B473-FA4E-BE1C-6CF3D5DF4AC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEE553-6613-B14E-ABE6-B37E695F6F97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2633,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEE553-6613-B14E-ABE6-B37E695F6F97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7DC10-8547-1E46-81EE-5A6488686C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -240,27 +240,6 @@
     <t>Presentation Rehersal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Task: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(RED IS DEPENDENT ON OTHERS)</t>
-    </r>
-  </si>
-  <si>
     <t>Champion (Map)</t>
   </si>
   <si>
@@ -331,6 +310,9 @@
   </si>
   <si>
     <t>RFP and SA Breakdown</t>
+  </si>
+  <si>
+    <t>Task:</t>
   </si>
 </sst>
 </file>
@@ -341,7 +323,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -360,12 +342,6 @@
       <color rgb="FF000000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -575,9 +551,6 @@
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,6 +666,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,7 +1057,7 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1102,452 +1078,452 @@
     <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="J1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="B2" s="3" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
         <v>7100</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f t="shared" si="0"/>
         <v>2125</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
         <v>4975</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="14">
+      <c r="E3" s="5"/>
+      <c r="F3" s="13">
         <f>(Gantt!$B13)*100</f>
         <v>4300</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
         <v>50</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
         <v>4250</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="11">
+      <c r="I3" s="5"/>
+      <c r="J3" s="10">
         <v>1500</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>Meetings!B4*100</f>
         <v>875</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
         <v>625</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="11">
+      <c r="M3" s="5"/>
+      <c r="N3" s="10">
         <f>SA!C7*100</f>
         <v>1300</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="11">
         <f>SA!D7*100</f>
         <v>1200</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <f t="shared" ref="P3:P8" si="4">(N3-O3)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14">
+      <c r="E4" s="5"/>
+      <c r="F4" s="13">
         <f>(Gantt!$B25)*100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>(Gantt!$C25)*100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="14">
+      <c r="I4" s="5"/>
+      <c r="J4" s="13">
         <v>1500</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>Meetings!B5*100</f>
         <v>1225</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="14">
+      <c r="M4" s="5"/>
+      <c r="N4" s="13">
         <f>SA!C13*100</f>
         <v>1100</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <f>SA!D13*100</f>
         <v>800</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>1425</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14">
+      <c r="E5" s="5"/>
+      <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="14">
+      <c r="I5" s="5"/>
+      <c r="J5" s="13">
         <v>1500</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>Meetings!B6*100</f>
         <v>1425</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="14">
+      <c r="M5" s="5"/>
+      <c r="N5" s="13">
         <f>SA!C19*100</f>
         <v>1100</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <f>SA!D19*100</f>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>6700</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>4575</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
         <v>2125</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="14">
+      <c r="E6" s="5"/>
+      <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
         <v>3700</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
         <v>2000</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="14">
+      <c r="I6" s="5"/>
+      <c r="J6" s="13">
         <v>1500</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>Meetings!B7*100</f>
         <v>1425</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14">
+      <c r="M6" s="5"/>
+      <c r="N6" s="13">
         <f>SA!C25*100</f>
         <v>1500</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <f>SA!D25*100</f>
         <v>1150</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>2375</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="14">
+      <c r="E7" s="5"/>
+      <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
         <v>100</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
         <v>200</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14">
+      <c r="I7" s="5"/>
+      <c r="J7" s="13">
         <v>1500</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>Meetings!B8*100</f>
         <v>1275</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="14">
+      <c r="M7" s="5"/>
+      <c r="N7" s="13">
         <f>SA!C31*100</f>
         <v>1100</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <f>SA!D31*100</f>
         <v>900</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>4345</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>2655</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="14">
+      <c r="E8" s="5"/>
+      <c r="F8" s="13">
         <f>(Gantt!$B73)*100</f>
         <v>4000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>(Gantt!$C73)*100</f>
         <v>919.99999999999989</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>3080</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14">
+      <c r="I8" s="5"/>
+      <c r="J8" s="13">
         <v>1500</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>Meetings!B9*100</f>
         <v>1275</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="18">
+      <c r="M8" s="5"/>
+      <c r="N8" s="17">
         <f>SA!C37*100</f>
         <v>1500</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <f>SA!D37*100</f>
         <v>2150</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <f t="shared" si="4"/>
         <v>-650</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
         <v>28700</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
         <v>16870</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
         <v>11830</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
         <v>12100</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
         <v>3170</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
         <v>8930</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
         <v>9000</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
         <v>7500</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
         <v>1500</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="22">
+      <c r="M9" s="5"/>
+      <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
         <v>7600</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
         <v>6200</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
         <v>1400</v>
       </c>
@@ -1572,7 +1548,7 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1583,7 +1559,7 @@
     <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1593,28 +1569,28 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
       <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="29"/>
       <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1624,9 +1600,9 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:47">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1636,13 +1612,13 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:47">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1652,11 +1628,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:47">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1666,24 +1642,24 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-    </row>
-    <row r="7" spans="1:47">
+      <c r="J6" s="32"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1693,18 +1669,18 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-    </row>
-    <row r="8" spans="1:47">
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1714,10 +1690,10 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-    </row>
-    <row r="9" spans="1:47">
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1727,9 +1703,9 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="AO9" s="30"/>
-    </row>
-    <row r="10" spans="1:47">
+      <c r="AO9" s="29"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1739,13 +1715,13 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-    </row>
-    <row r="11" spans="1:47">
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1755,9 +1731,9 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="AU11" s="30"/>
-    </row>
-    <row r="12" spans="1:47">
+      <c r="AU11" s="29"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1768,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1781,15 +1757,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1811,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1832,9 +1808,9 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1845,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1856,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1867,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1878,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1900,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1913,15 +1889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1943,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1954,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1964,9 +1940,9 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="J30" s="33"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1988,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2032,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2045,15 +2021,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2063,9 +2039,9 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:41">
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2075,11 +2051,11 @@
       <c r="C40">
         <v>2.5</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="41" spans="1:41">
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2089,14 +2065,14 @@
       <c r="C41">
         <v>5.5</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-    </row>
-    <row r="42" spans="1:41">
+      <c r="I41" s="31"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2106,29 +2082,29 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="37"/>
-      <c r="AL42" s="37"/>
-      <c r="AM42" s="37"/>
-    </row>
-    <row r="43" spans="1:41">
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2138,27 +2114,27 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="37"/>
-      <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
-      <c r="AK43" s="37"/>
-      <c r="AL43" s="37"/>
-      <c r="AM43" s="37"/>
-    </row>
-    <row r="44" spans="1:41">
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2168,27 +2144,27 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="37"/>
-    </row>
-    <row r="45" spans="1:41">
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="36"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2198,27 +2174,27 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
-      <c r="AM45" s="37"/>
-    </row>
-    <row r="46" spans="1:41">
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="36"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2228,29 +2204,29 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="60"/>
-    </row>
-    <row r="47" spans="1:41">
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="59"/>
+      <c r="AK46" s="59"/>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="59"/>
+      <c r="AN46" s="59"/>
+      <c r="AO46" s="59"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2260,29 +2236,29 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="60"/>
-      <c r="AM47" s="60"/>
-      <c r="AN47" s="60"/>
-      <c r="AO47" s="60"/>
-    </row>
-    <row r="48" spans="1:41">
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="59"/>
+      <c r="AI47" s="59"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="59"/>
+      <c r="AM47" s="59"/>
+      <c r="AN47" s="59"/>
+      <c r="AO47" s="59"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2293,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2306,15 +2282,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="31" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2325,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2336,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2347,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -2357,9 +2333,9 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="J54" s="33"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -2370,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2381,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -2392,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -2403,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2414,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2438,15 +2414,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="34" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2456,9 +2432,9 @@
       <c r="C63">
         <v>0.2</v>
       </c>
-      <c r="D63" s="32"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2468,11 +2444,11 @@
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2482,10 +2458,10 @@
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -2495,10 +2471,10 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="J66" s="36"/>
-      <c r="K66" s="32"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="J66" s="35"/>
+      <c r="K66" s="31"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2508,10 +2484,10 @@
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2521,12 +2497,12 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2536,12 +2512,12 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2551,18 +2527,18 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="39"/>
-      <c r="AB70" s="39"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
+      <c r="AB70" s="38"/>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="38"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2573,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +2573,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -2610,15 +2586,15 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="40">
+      <c r="B75" s="39">
         <f>B74*100</f>
         <v>12100</v>
       </c>
-      <c r="C75" s="40">
+      <c r="C75" s="39">
         <f>C74*100</f>
         <v>3170</v>
       </c>
@@ -2633,375 +2609,375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="40" customWidth="1"/>
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="B2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80">
-      <c r="B2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.25</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2.5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>3.5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1.5</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="43" t="s">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="43" t="s">
+      <c r="C4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="43" t="s">
+      <c r="C5" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="43" t="s">
+      <c r="C7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="43" t="s">
+      <c r="C8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="43" t="s">
+      <c r="C9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="42">
         <f>SUM(B4:B9)</f>
         <v>75</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3016,14 +2992,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="19" width="3.6640625" customWidth="1"/>
@@ -3036,15 +3012,15 @@
     <col min="28" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="47" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -3117,553 +3093,553 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>69</v>
+      <c r="B2" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="51"/>
-      <c r="B3" s="49" t="s">
-        <v>70</v>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+      <c r="B3" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <v>1</v>
       </c>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="51"/>
-      <c r="B4" s="49" t="s">
-        <v>71</v>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>2</v>
       </c>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="51"/>
-      <c r="B5" s="49" t="s">
-        <v>72</v>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="B5" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>1</v>
       </c>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="51"/>
-      <c r="B6" s="49" t="s">
-        <v>73</v>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>1</v>
       </c>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="51"/>
-      <c r="B7" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="49">
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="B7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="48">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>75</v>
+      <c r="B8" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>6</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="51"/>
-      <c r="B9" s="49" t="s">
-        <v>76</v>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+      <c r="B9" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="51"/>
-      <c r="B10" s="49" t="s">
-        <v>71</v>
+      <c r="J9" s="51"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
+      <c r="B10" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="51"/>
-      <c r="B11" s="49" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="50">
-        <v>0</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="51"/>
-      <c r="B12" s="49" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="51"/>
-      <c r="B13" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="52">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>77</v>
+      <c r="B14" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="51"/>
-      <c r="B15" s="49" t="s">
-        <v>78</v>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="50">
-        <v>0</v>
-      </c>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="51"/>
-      <c r="B16" s="49" t="s">
-        <v>71</v>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="50">
-        <v>0</v>
-      </c>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="51"/>
-      <c r="B17" s="49" t="s">
+      <c r="D16" s="49">
+        <v>0</v>
+      </c>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0</v>
+      </c>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="50">
-        <v>0</v>
-      </c>
-      <c r="J17" s="52"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="51"/>
-      <c r="B18" s="49" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="49">
+        <v>0</v>
+      </c>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="50">
-        <v>0</v>
-      </c>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="17" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>79</v>
+      <c r="B20" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <v>5</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="51"/>
-      <c r="B21" s="49" t="s">
-        <v>80</v>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
+      <c r="B21" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="49">
         <v>1.5</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="51"/>
-      <c r="B22" s="49" t="s">
-        <v>71</v>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="49">
         <v>2</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="51"/>
-      <c r="B23" s="49" t="s">
-        <v>72</v>
+      <c r="J22" s="51"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="49">
         <v>1.5</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="51"/>
-      <c r="B24" s="49" t="s">
-        <v>73</v>
+      <c r="J23" s="51"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="49">
         <v>1.5</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="51"/>
-      <c r="B25" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="49">
+      <c r="J24" s="51"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="48">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="52">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>81</v>
+      <c r="B26" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="51"/>
-      <c r="B27" s="49" t="s">
-        <v>82</v>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="49">
         <v>1</v>
       </c>
-      <c r="J27" s="52"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="51"/>
-      <c r="B28" s="49" t="s">
-        <v>71</v>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="49">
         <v>2</v>
       </c>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="51"/>
-      <c r="B29" s="49" t="s">
+      <c r="J28" s="51"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="B29" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0</v>
+      </c>
+      <c r="J29" s="51"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
+      <c r="B30" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="50">
-        <v>0</v>
-      </c>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="51"/>
-      <c r="B30" s="49" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="49">
+        <v>0</v>
+      </c>
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="50"/>
+      <c r="B31" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="50">
-        <v>0</v>
-      </c>
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="51"/>
-      <c r="B31" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="49">
+      <c r="C31" s="48">
         <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="52">
         <f>SUM(D26:D30)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>83</v>
+      <c r="B32" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="49">
         <v>12</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-    </row>
-    <row r="33" spans="1:27">
-      <c r="A33" s="51"/>
-      <c r="B33" s="49" t="s">
-        <v>84</v>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="50"/>
+      <c r="B33" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="49">
         <v>0.5</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="1:27">
-      <c r="A34" s="51"/>
-      <c r="B34" s="49" t="s">
-        <v>71</v>
+      <c r="J33" s="51"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="50"/>
+      <c r="B34" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="49">
         <v>2</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-    </row>
-    <row r="35" spans="1:27">
-      <c r="A35" s="51"/>
-      <c r="B35" s="49" t="s">
-        <v>72</v>
+      <c r="J34" s="51"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="50"/>
+      <c r="B35" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="49">
         <v>4</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-    </row>
-    <row r="36" spans="1:27">
-      <c r="A36" s="51"/>
-      <c r="B36" s="49" t="s">
-        <v>73</v>
+      <c r="J35" s="51"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="49">
         <v>3</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-    </row>
-    <row r="37" spans="1:27">
-      <c r="A37" s="51"/>
-      <c r="B37" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="49">
+      <c r="J36" s="51"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="50"/>
+      <c r="B37" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="48">
         <f>SUM(C32:C36)</f>
         <v>15</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="52">
         <f>SUM(D32:D36)</f>
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="57">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>76</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="58">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
         <v>62</v>
       </c>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7DC10-8547-1E46-81EE-5A6488686C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8192F3-8432-6C4D-A957-D0D0C4625021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1545,18 +1545,17 @@
   <dimension ref="A1:AU75"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="AZ47" sqref="AZ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="47" width="4.83203125" customWidth="1"/>
+    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
@@ -2992,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:AA38"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8192F3-8432-6C4D-A957-D0D0C4625021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,14 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
   <si>
     <t>Total</t>
   </si>
@@ -313,12 +318,27 @@
   </si>
   <si>
     <t>Task:</t>
+  </si>
+  <si>
+    <t>Implement Item-Player interaction</t>
+  </si>
+  <si>
+    <t>Implement Item Placement</t>
+  </si>
+  <si>
+    <t>Implement Item-Enemy interaction</t>
+  </si>
+  <si>
+    <t>End Game Trigger</t>
+  </si>
+  <si>
+    <t>Integration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
@@ -351,7 +371,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +424,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -549,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,6 +707,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,10 +1092,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:P9"/>
     </sheetView>
   </sheetViews>
@@ -1368,28 +1410,28 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>2375</v>
+        <v>2175</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13">
@@ -1478,28 +1520,28 @@
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>28700</v>
+        <v>28600</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>16870</v>
+        <v>16670</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>11830</v>
+        <v>11930</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>3170</v>
+        <v>2970</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>8930</v>
+        <v>9030</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1541,11 +1583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AZ47" sqref="AZ47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2268,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2289,7 +2331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2299,121 +2341,157 @@
       <c r="C51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E51" s="61"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="61"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="32"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="36">
+        <v>0</v>
+      </c>
+      <c r="J54" s="64"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B55" s="36">
+        <v>6</v>
+      </c>
+      <c r="C55" s="36">
+        <v>0</v>
+      </c>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B56" s="36">
+        <v>2</v>
+      </c>
+      <c r="C56" s="36">
+        <v>0</v>
+      </c>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="B57" s="36">
+        <v>7</v>
+      </c>
+      <c r="C57" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62"/>
+      <c r="AB57" s="62"/>
+      <c r="AC57" s="62"/>
+      <c r="AD57" s="62"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="B58" s="36">
+        <v>3</v>
+      </c>
+      <c r="C58" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="62"/>
+      <c r="AH58" s="62"/>
+      <c r="AI58" s="62"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="36">
+        <v>0</v>
+      </c>
+      <c r="C59" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="36">
+        <v>0</v>
+      </c>
+      <c r="C60" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B61">
-        <f>SUM(B51:B60)</f>
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <f>SUM(C51:C60)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="36">
+        <v>0</v>
+      </c>
+      <c r="C61" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2433,7 +2511,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2578,11 +2656,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>31.7</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
@@ -2591,11 +2669,11 @@
       </c>
       <c r="B75" s="39">
         <f>B74*100</f>
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="C75" s="39">
         <f>C74*100</f>
-        <v>3170</v>
+        <v>2970</v>
       </c>
     </row>
   </sheetData>
@@ -2605,10 +2683,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2666,7 +2744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="B2" s="42" t="s">
         <v>62</v>
       </c>
@@ -2988,10 +3066,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8AA3F0-8873-45AD-9C5F-79D39F2B78B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
@@ -587,33 +588,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,7 +633,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,7 +643,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,10 +668,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -680,37 +679,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,58 +1088,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="J1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1345,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1400,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1583,24 +1579,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="47" width="4.83203125" customWidth="1"/>
-    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="47" width="4.81640625" customWidth="1"/>
+    <col min="48" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1643,7 +1639,7 @@
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1655,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1669,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1696,7 @@
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +1717,7 @@
       <c r="AK7" s="29"/>
       <c r="AL7" s="29"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1730,7 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +1742,7 @@
       </c>
       <c r="AO9" s="29"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1758,7 @@
       <c r="AS10" s="29"/>
       <c r="AT10" s="29"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1774,7 +1770,7 @@
       </c>
       <c r="AU11" s="29"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1816,8 +1812,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1827,8 +1826,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1838,8 +1840,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1850,8 +1855,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1861,8 +1869,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1872,8 +1883,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1883,8 +1897,9 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1895,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1906,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +1953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1949,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1971,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +1998,7 @@
       </c>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2005,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2097,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2092,11 +2107,11 @@
       <c r="C40">
         <v>2.5</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2107,13 +2122,13 @@
         <v>5.5</v>
       </c>
       <c r="I41" s="31"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="34"/>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2129,23 +2144,8 @@
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="36"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2159,23 +2159,8 @@
       <c r="V43" s="31"/>
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="36"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2191,21 +2176,8 @@
       <c r="X44" s="28"/>
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2215,27 +2187,11 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
       <c r="AA45" s="29"/>
       <c r="AB45" s="29"/>
       <c r="AC45" s="29"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="36"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2245,29 +2201,14 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
       <c r="AD46" s="29"/>
       <c r="AE46" s="29"/>
       <c r="AF46" s="29"/>
       <c r="AG46" s="29"/>
       <c r="AH46" s="29"/>
       <c r="AI46" s="29"/>
-      <c r="AJ46" s="59"/>
-      <c r="AK46" s="59"/>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="59"/>
-      <c r="AN46" s="59"/>
-      <c r="AO46" s="59"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2277,29 +2218,10 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="59"/>
-      <c r="AI47" s="59"/>
       <c r="AJ47" s="29"/>
       <c r="AK47" s="29"/>
-      <c r="AL47" s="59"/>
-      <c r="AM47" s="59"/>
-      <c r="AN47" s="59"/>
-      <c r="AO47" s="59"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2323,7 +2245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2331,7 +2253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2341,9 +2263,9 @@
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="E51" s="61"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E51" s="56"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2353,11 +2275,11 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2367,131 +2289,124 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="I53" s="61"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="I53" s="56"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>94</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" s="36">
-        <v>0</v>
-      </c>
-      <c r="J54" s="64"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55">
         <v>6</v>
       </c>
-      <c r="C55" s="36">
-        <v>0</v>
-      </c>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" s="36">
-        <v>0</v>
-      </c>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57">
         <v>7</v>
       </c>
-      <c r="C57" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="62"/>
-      <c r="AC57" s="62"/>
-      <c r="AD57" s="62"/>
-      <c r="AE57" s="62"/>
-      <c r="AF57" s="62"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="57"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="62"/>
-      <c r="AH58" s="62"/>
-      <c r="AI58" s="62"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="57"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="57"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="36">
-        <v>0</v>
-      </c>
-      <c r="C59" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="36">
-        <v>0</v>
-      </c>
-      <c r="C60" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="36">
-        <v>0</v>
-      </c>
-      <c r="C61" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
@@ -2499,7 +2414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2511,7 +2426,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2525,7 +2440,7 @@
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2538,7 +2453,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -2548,10 +2463,10 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="J66" s="35"/>
+      <c r="J66" s="34"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2564,7 +2479,7 @@
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2574,12 +2489,12 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2589,12 +2504,12 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2604,18 +2519,18 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
+      <c r="AC70" s="36"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2626,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2637,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2650,7 +2565,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -2663,15 +2578,15 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="39">
+      <c r="B75" s="37">
         <f>B74*100</f>
         <v>12000</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="37">
         <f>C74*100</f>
         <v>2970</v>
       </c>
@@ -2683,34 +2598,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="40" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1796875" style="38" customWidth="1"/>
+    <col min="13" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2744,43 +2659,43 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="B2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3">
@@ -2814,207 +2729,207 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>8.75</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="C4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="C5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="C6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="C7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="40">
         <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="C8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="C9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <f>SUM(B4:B9)</f>
         <v>75</v>
       </c>
@@ -3066,38 +2981,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="3.5" customWidth="1"/>
-    <col min="21" max="23" width="3.1640625" customWidth="1"/>
-    <col min="24" max="24" width="3.83203125" customWidth="1"/>
-    <col min="25" max="25" width="3.5" customWidth="1"/>
-    <col min="26" max="26" width="3.83203125" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" customWidth="1"/>
-    <col min="28" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.6328125" customWidth="1"/>
+    <col min="20" max="20" width="3.453125" customWidth="1"/>
+    <col min="21" max="23" width="3.1796875" customWidth="1"/>
+    <col min="24" max="24" width="3.81640625" customWidth="1"/>
+    <col min="25" max="25" width="3.453125" customWidth="1"/>
+    <col min="26" max="26" width="3.81640625" customWidth="1"/>
+    <col min="27" max="27" width="3.6328125" customWidth="1"/>
+    <col min="28" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -3170,276 +3085,266 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="47">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="46" t="s">
         <v>69</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="48" t="s">
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="48" t="s">
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="47">
         <v>1</v>
       </c>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48" t="s">
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="48"/>
+      <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="47">
         <v>1</v>
       </c>
-      <c r="J6" s="51"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="48" t="s">
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="48"/>
+      <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="50">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>6</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="49"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="48"/>
+      <c r="B11" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>0</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="48" t="s">
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>0</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="48" t="s">
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="50">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="48" t="s">
+      <c r="D14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="48"/>
+      <c r="B15" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48" t="s">
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="48"/>
+      <c r="B16" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="49">
-        <v>0</v>
-      </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48" t="s">
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="49">
-        <v>0</v>
-      </c>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="48" t="s">
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="48"/>
+      <c r="B18" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="49">
-        <v>0</v>
-      </c>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53" t="s">
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="46">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="50">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="47">
         <v>5</v>
       </c>
       <c r="H20" s="31"/>
@@ -3449,274 +3354,274 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="48" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="48"/>
+      <c r="B21" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="47">
         <v>1.5</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="48" t="s">
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="48"/>
+      <c r="B22" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="47">
         <v>2</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="49"/>
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="48"/>
+      <c r="B23" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="47">
         <v>1.5</v>
       </c>
-      <c r="J23" s="51"/>
+      <c r="J23" s="49"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="48" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="48"/>
+      <c r="B24" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="47">
         <v>1.5</v>
       </c>
-      <c r="J24" s="51"/>
+      <c r="J24" s="49"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="48" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="48"/>
+      <c r="B25" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="46">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="50">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="48"/>
+      <c r="B27" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="47">
         <v>1</v>
       </c>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48" t="s">
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="48"/>
+      <c r="B28" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="47">
         <v>2</v>
       </c>
-      <c r="J28" s="51"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="48" t="s">
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="48"/>
+      <c r="B29" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="49">
-        <v>0</v>
-      </c>
-      <c r="J29" s="51"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="48" t="s">
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="48"/>
+      <c r="B30" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="49">
-        <v>0</v>
-      </c>
-      <c r="J30" s="51"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53" t="s">
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="46">
         <f>SUM(C26:C30)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="50">
         <f>SUM(D26:D30)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="47">
         <v>12</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="48" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="48"/>
+      <c r="B33" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="47">
         <v>0.5</v>
       </c>
-      <c r="J33" s="51"/>
+      <c r="J33" s="49"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48" t="s">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="48"/>
+      <c r="B34" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="47">
         <v>2</v>
       </c>
-      <c r="J34" s="51"/>
+      <c r="J34" s="49"/>
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="48" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="47">
         <v>4</v>
       </c>
-      <c r="J35" s="51"/>
+      <c r="J35" s="49"/>
       <c r="T35" s="31"/>
       <c r="U35" s="31"/>
       <c r="V35" s="31"/>
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48" t="s">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="48"/>
+      <c r="B36" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="47">
         <v>3</v>
       </c>
-      <c r="J36" s="51"/>
+      <c r="J36" s="49"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
       <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="53" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="46">
         <f>SUM(C32:C36)</f>
         <v>15</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="50">
         <f>SUM(D32:D36)</f>
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="54">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>76</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="55">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
         <v>62</v>
       </c>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8AA3F0-8873-45AD-9C5F-79D39F2B78B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F07915F-7E3B-43E5-884D-FC8BA3F034DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -1095,28 +1095,28 @@
       <selection activeCell="J1" sqref="J1:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.6328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1582,21 +1582,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="47" width="4.81640625" customWidth="1"/>
-    <col min="48" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="47" width="4.85546875" customWidth="1"/>
+    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="AK7" s="29"/>
       <c r="AL7" s="29"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="AO9" s="29"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="AS10" s="29"/>
       <c r="AT10" s="29"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="AU11" s="29"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="T21" s="29"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="AB45" s="29"/>
       <c r="AC45" s="29"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="AH46" s="29"/>
       <c r="AI46" s="29"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="AJ47" s="29"/>
       <c r="AK47" s="29"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E51" s="56"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="M53" s="58"/>
       <c r="N53" s="58"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="P54" s="58"/>
       <c r="Q54" s="58"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="X56" s="57"/>
       <c r="Y56" s="57"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="AE57" s="57"/>
       <c r="AF57" s="57"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="AH58" s="57"/>
       <c r="AI58" s="57"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="J66" s="34"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="T69" s="36"/>
       <c r="U69" s="36"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="AD70" s="36"/>
       <c r="AE70" s="36"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -2605,23 +2605,23 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1796875" style="38" customWidth="1"/>
-    <col min="13" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="38" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>62</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
@@ -2984,27 +2984,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6328125" customWidth="1"/>
-    <col min="20" max="20" width="3.453125" customWidth="1"/>
-    <col min="21" max="23" width="3.1796875" customWidth="1"/>
-    <col min="24" max="24" width="3.81640625" customWidth="1"/>
-    <col min="25" max="25" width="3.453125" customWidth="1"/>
-    <col min="26" max="26" width="3.81640625" customWidth="1"/>
-    <col min="27" max="27" width="3.6328125" customWidth="1"/>
-    <col min="28" max="1025" width="8.81640625" customWidth="1"/>
+    <col min="5" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="23" width="3.140625" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="3.5703125" customWidth="1"/>
+    <col min="28" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>92</v>
@@ -3085,7 +3085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -3098,8 +3098,14 @@
       <c r="D2" s="47">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="46" t="s">
         <v>69</v>
@@ -3110,9 +3116,12 @@
       <c r="D3" s="47">
         <v>1</v>
       </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -3124,8 +3133,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="49"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -3137,8 +3148,9 @@
         <v>1</v>
       </c>
       <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -3150,8 +3162,9 @@
         <v>1</v>
       </c>
       <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -3165,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +3194,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -3196,7 +3209,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="46" t="s">
         <v>70</v>
@@ -3210,7 +3223,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="46" t="s">
         <v>71</v>
@@ -3225,7 +3238,7 @@
       <c r="F11" s="31"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="46" t="s">
         <v>72</v>
@@ -3240,7 +3253,7 @@
       <c r="F12" s="31"/>
       <c r="J12" s="49"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="46" t="s">
         <v>73</v>
@@ -3254,7 +3267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="46" t="s">
         <v>77</v>
@@ -3281,7 +3294,7 @@
       </c>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="46" t="s">
         <v>70</v>
@@ -3294,7 +3307,7 @@
       </c>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="46" t="s">
         <v>71</v>
@@ -3307,7 +3320,7 @@
       </c>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="46" t="s">
         <v>72</v>
@@ -3320,7 +3333,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="51" t="s">
         <v>73</v>
@@ -3334,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3354,7 +3367,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="46" t="s">
         <v>79</v>
@@ -3370,7 +3383,7 @@
       <c r="G21" s="31"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
         <v>70</v>
@@ -3385,7 +3398,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
         <v>71</v>
@@ -3400,7 +3413,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
         <v>72</v>
@@ -3415,7 +3428,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
         <v>73</v>
@@ -3429,7 +3442,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3443,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
         <v>81</v>
@@ -3456,7 +3469,7 @@
       </c>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
         <v>70</v>
@@ -3469,7 +3482,7 @@
       </c>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
         <v>71</v>
@@ -3482,7 +3495,7 @@
       </c>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="46" t="s">
         <v>72</v>
@@ -3495,7 +3508,7 @@
       </c>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="51" t="s">
         <v>73</v>
@@ -3509,7 +3522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3535,7 +3548,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="46" t="s">
         <v>83</v>
@@ -3549,7 +3562,7 @@
       <c r="J33" s="49"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="46" t="s">
         <v>70</v>
@@ -3564,7 +3577,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="46" t="s">
         <v>71</v>
@@ -3582,7 +3595,7 @@
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="46" t="s">
         <v>72</v>
@@ -3598,7 +3611,7 @@
       <c r="Z36" s="31"/>
       <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="51" t="s">
         <v>84</v>
@@ -3612,7 +3625,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="53" t="s">
         <v>13</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F07915F-7E3B-43E5-884D-FC8BA3F034DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193212D-7E96-9646-AB47-16966FA34ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
   <si>
     <t>Total</t>
   </si>
@@ -334,6 +334,30 @@
   </si>
   <si>
     <t>Integration</t>
+  </si>
+  <si>
+    <t>VR Integration and Setup</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Enemy Testing</t>
+  </si>
+  <si>
+    <t>Item Integration</t>
+  </si>
+  <si>
+    <t>Maze Testing</t>
+  </si>
+  <si>
+    <t>Auto-Tester</t>
+  </si>
+  <si>
+    <t>Integrate Tests</t>
+  </si>
+  <si>
+    <t>Refactor Asset Organization</t>
   </si>
 </sst>
 </file>
@@ -372,7 +396,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +467,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -588,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,6 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,28 +1126,28 @@
       <selection activeCell="J1" sqref="J1:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1170,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1290,34 +1321,34 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>1425</v>
+        <v>2225</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1175</v>
+        <v>2275</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
@@ -1345,7 +1376,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1510,34 +1541,34 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>28600</v>
+        <v>30500</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>16670</v>
+        <v>17470</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>11930</v>
+        <v>13030</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>12000</v>
+        <v>13900</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>2970</v>
+        <v>3770</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>9030</v>
+        <v>10130</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1582,21 +1613,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="47" width="4.85546875" customWidth="1"/>
-    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="47" width="4.83203125" customWidth="1"/>
+    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1639,7 +1670,7 @@
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1686,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1700,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1727,7 @@
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1748,7 @@
       <c r="AK7" s="29"/>
       <c r="AL7" s="29"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1761,7 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1742,7 +1773,7 @@
       </c>
       <c r="AO9" s="29"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1789,7 @@
       <c r="AS10" s="29"/>
       <c r="AT10" s="29"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1770,7 +1801,7 @@
       </c>
       <c r="AU11" s="29"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1847,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1830,7 +1861,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1844,7 +1875,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1859,7 +1890,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1904,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1887,7 +1918,7 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1899,7 +1930,7 @@
       </c>
       <c r="T21" s="29"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
@@ -1953,96 +1984,113 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2064,20 +2112,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2145,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2111,7 +2159,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2128,7 +2176,7 @@
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2145,7 +2193,7 @@
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2208,7 @@
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2225,7 @@
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2191,7 +2239,7 @@
       <c r="AB45" s="29"/>
       <c r="AC45" s="29"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2256,7 @@
       <c r="AH46" s="29"/>
       <c r="AI46" s="29"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2221,7 +2269,7 @@
       <c r="AJ47" s="29"/>
       <c r="AK47" s="29"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2232,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2245,7 +2293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2313,7 @@
       </c>
       <c r="E51" s="56"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2279,7 +2327,7 @@
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2296,7 +2344,7 @@
       <c r="M53" s="58"/>
       <c r="N53" s="58"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2311,7 +2359,7 @@
       <c r="P54" s="58"/>
       <c r="Q54" s="58"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2328,7 +2376,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2341,7 +2389,7 @@
       <c r="X56" s="57"/>
       <c r="Y56" s="57"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2359,7 +2407,7 @@
       <c r="AE57" s="57"/>
       <c r="AF57" s="57"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -2373,7 +2421,7 @@
       <c r="AH58" s="57"/>
       <c r="AI58" s="57"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2395,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2426,7 +2474,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2440,7 +2488,7 @@
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2453,7 +2501,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2514,7 @@
       <c r="J66" s="34"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2479,7 +2527,7 @@
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2542,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2509,7 +2557,7 @@
       <c r="T69" s="36"/>
       <c r="U69" s="36"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2578,7 @@
       <c r="AD70" s="36"/>
       <c r="AE70" s="36"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2541,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2565,30 +2613,30 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="37">
         <f>B74*100</f>
-        <v>12000</v>
+        <v>13900</v>
       </c>
       <c r="C75" s="37">
         <f>C74*100</f>
-        <v>2970</v>
+        <v>3770.0000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2605,23 +2653,23 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="38" customWidth="1"/>
-    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="38" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
@@ -2659,7 +2707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
         <v>62</v>
       </c>
@@ -2694,7 +2742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
@@ -2729,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2806,7 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
@@ -2789,7 +2837,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
@@ -2824,7 +2872,7 @@
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
@@ -2859,7 +2907,7 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -2892,7 +2940,7 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2973,7 @@
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
@@ -2985,26 +3033,25 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" customWidth="1"/>
-    <col min="21" max="23" width="3.140625" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" customWidth="1"/>
-    <col min="28" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="5" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="23" width="3.1640625" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" customWidth="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1"/>
+    <col min="26" max="26" width="3.83203125" customWidth="1"/>
+    <col min="27" max="27" width="3.5" customWidth="1"/>
+    <col min="28" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>92</v>
@@ -3085,7 +3132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3152,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="46" t="s">
         <v>69</v>
@@ -3121,7 +3168,7 @@
       <c r="G3" s="56"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -3136,7 +3183,7 @@
       <c r="K4" s="56"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -3150,7 +3197,7 @@
       <c r="J5" s="49"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -3164,7 +3211,7 @@
       <c r="J6" s="49"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -3178,7 +3225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3194,7 +3241,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -3209,7 +3256,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="46" t="s">
         <v>70</v>
@@ -3223,7 +3270,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="46" t="s">
         <v>71</v>
@@ -3238,7 +3285,7 @@
       <c r="F11" s="31"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="46" t="s">
         <v>72</v>
@@ -3253,7 +3300,7 @@
       <c r="F12" s="31"/>
       <c r="J12" s="49"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="46" t="s">
         <v>73</v>
@@ -3267,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
@@ -3281,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="46" t="s">
         <v>77</v>
@@ -3294,7 +3341,7 @@
       </c>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="46" t="s">
         <v>70</v>
@@ -3307,7 +3354,7 @@
       </c>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="46" t="s">
         <v>71</v>
@@ -3320,7 +3367,7 @@
       </c>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="46" t="s">
         <v>72</v>
@@ -3333,7 +3380,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="51" t="s">
         <v>73</v>
@@ -3347,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +3414,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="46" t="s">
         <v>79</v>
@@ -3383,7 +3430,7 @@
       <c r="G21" s="31"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
         <v>70</v>
@@ -3398,7 +3445,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
         <v>71</v>
@@ -3413,7 +3460,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
         <v>72</v>
@@ -3428,7 +3475,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
         <v>73</v>
@@ -3442,7 +3489,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
         <v>81</v>
@@ -3469,7 +3516,7 @@
       </c>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
         <v>70</v>
@@ -3482,7 +3529,7 @@
       </c>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
         <v>71</v>
@@ -3495,7 +3542,7 @@
       </c>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="46" t="s">
         <v>72</v>
@@ -3508,7 +3555,7 @@
       </c>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="51" t="s">
         <v>73</v>
@@ -3522,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3595,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="46" t="s">
         <v>83</v>
@@ -3562,7 +3609,7 @@
       <c r="J33" s="49"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="46" t="s">
         <v>70</v>
@@ -3577,7 +3624,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="46" t="s">
         <v>71</v>
@@ -3595,7 +3642,7 @@
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="46" t="s">
         <v>72</v>
@@ -3611,7 +3658,7 @@
       <c r="Z36" s="31"/>
       <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="51" t="s">
         <v>84</v>
@@ -3625,7 +3672,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
       <c r="B38" s="53" t="s">
         <v>13</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Documents/GitHub/Maze_Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193212D-7E96-9646-AB47-16966FA34ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -18,19 +17,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -363,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
@@ -396,7 +395,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +472,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -618,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,10 +739,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -1148,27 +1154,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="J1" s="59" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="N1" s="59" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1437,15 +1443,15 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>2175</v>
+        <v>2675</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -1475,15 +1481,15 @@
       <c r="M7" s="5"/>
       <c r="N7" s="13">
         <f>SA!C31*100</f>
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="O7" s="14">
         <f>SA!D31*100</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1547,15 +1553,15 @@
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>30500</v>
+        <v>30800</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>17470</v>
+        <v>17970</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>13030</v>
+        <v>12830</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1586,15 +1592,15 @@
       <c r="M9" s="5"/>
       <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
-        <v>6200</v>
+        <v>6700</v>
       </c>
       <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -1610,10 +1616,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
@@ -2007,9 +2013,9 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2048,9 +2054,9 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2074,8 +2080,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2087,8 +2093,8 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2646,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2707,7 +2713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
         <v>62</v>
       </c>
@@ -3029,11 +3035,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="46" t="s">
         <v>71</v>
@@ -3367,7 +3373,7 @@
       </c>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="46" t="s">
         <v>72</v>
@@ -3380,7 +3386,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="51" t="s">
         <v>73</v>
@@ -3394,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3414,7 +3420,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="46" t="s">
         <v>79</v>
@@ -3430,7 +3436,7 @@
       <c r="G21" s="31"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
         <v>70</v>
@@ -3445,7 +3451,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
         <v>71</v>
@@ -3460,7 +3466,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
         <v>72</v>
@@ -3475,7 +3481,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
         <v>73</v>
@@ -3489,7 +3495,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3502,8 +3508,14 @@
       <c r="D26" s="47">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
         <v>81</v>
@@ -3514,9 +3526,10 @@
       <c r="D27" s="47">
         <v>1</v>
       </c>
+      <c r="E27" s="60"/>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
         <v>70</v>
@@ -3528,48 +3541,55 @@
         <v>2</v>
       </c>
       <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="49"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="46">
         <f>SUM(C26:C30)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D31" s="50">
         <f>SUM(D26:D30)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3679,11 +3699,11 @@
       </c>
       <c r="C38" s="54">
         <f>SUM(C7,C13,C19,C25,C31,C37)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D38" s="55">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Documents/GitHub/Maze_Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -740,10 +740,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,27 +1154,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="J1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1619,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3039,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3508,12 +3508,12 @@
       <c r="D26" s="47">
         <v>6</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
@@ -3526,7 +3526,7 @@
       <c r="D27" s="47">
         <v>1</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="61"/>
       <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -3541,8 +3541,8 @@
         <v>2</v>
       </c>
       <c r="J28" s="49"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
@@ -3556,9 +3556,9 @@
         <v>3</v>
       </c>
       <c r="J29" s="49"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
@@ -3572,8 +3572,8 @@
         <v>2</v>
       </c>
       <c r="J30" s="49"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C73CF-9DAB-F942-91F0-24B04A94231C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -362,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
@@ -740,10 +741,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,11 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1154,27 +1155,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="N1" s="60" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1443,28 +1444,28 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>2900</v>
+        <v>6600</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>2675</v>
+        <v>3275</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>3325</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13">
@@ -1553,28 +1554,28 @@
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>30800</v>
+        <v>34500</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>17970</v>
+        <v>18570</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>12830</v>
+        <v>15930</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>13900</v>
+        <v>17600</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>3770</v>
+        <v>4370</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>10130</v>
+        <v>13230</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1616,11 +1617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2454,10 +2455,12 @@
         <v>13</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <f>SUM(B39:B48)</f>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <f>SUM(C51:C60)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
@@ -2625,11 +2628,11 @@
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>37.700000000000003</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
@@ -2638,11 +2641,11 @@
       </c>
       <c r="B75" s="37">
         <f>B74*100</f>
-        <v>13900</v>
+        <v>17600</v>
       </c>
       <c r="C75" s="37">
         <f>C74*100</f>
-        <v>3770.0000000000005</v>
+        <v>4370</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2713,7 +2716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
         <v>62</v>
       </c>
@@ -3035,11 +3038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA38" sqref="A1:AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3508,12 +3511,12 @@
       <c r="D26" s="47">
         <v>6</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
@@ -3526,7 +3529,7 @@
       <c r="D27" s="47">
         <v>1</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="E27" s="60"/>
       <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -3541,8 +3544,8 @@
         <v>2</v>
       </c>
       <c r="J28" s="49"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
@@ -3556,9 +3559,9 @@
         <v>3</v>
       </c>
       <c r="J29" s="49"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
@@ -3572,8 +3575,8 @@
         <v>2</v>
       </c>
       <c r="J30" s="49"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Documents/GitHub/Maze_Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Project Manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D4165-1057-FC4A-B773-EA0F2180F46E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
   <si>
     <t>Total</t>
   </si>
@@ -107,6 +108,30 @@
     <t>GitHub and Discord Setup</t>
   </si>
   <si>
+    <t>Obtain 3D Assets</t>
+  </si>
+  <si>
+    <t>Implement World Loading</t>
+  </si>
+  <si>
+    <t>Implement Bounds Check</t>
+  </si>
+  <si>
+    <t>Implement item/playe/enemie loading</t>
+  </si>
+  <si>
+    <t>Implement Player manager collision</t>
+  </si>
+  <si>
+    <t>Implement Scene Swapper</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Instalation</t>
+  </si>
+  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -125,9 +150,6 @@
     <t>Make stuff work together</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Installation</t>
   </si>
   <si>
@@ -143,15 +165,15 @@
     <t>Implement Update Player Position</t>
   </si>
   <si>
+    <t>Implement Player Health</t>
+  </si>
+  <si>
     <t>Implement Collision Check</t>
   </si>
   <si>
     <t>Implement Item Collision Check</t>
   </si>
   <si>
-    <t>Instalation</t>
-  </si>
-  <si>
     <t>Coding Standards</t>
   </si>
   <si>
@@ -212,9 +234,6 @@
     <t>Meeting the Team</t>
   </si>
   <si>
-    <t>RFP and SA Presentation Breakdown</t>
-  </si>
-  <si>
     <t>Assigned RFP Sections</t>
   </si>
   <si>
@@ -227,27 +246,6 @@
     <t>Presentation Rehersal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Task: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(RED IS DEPENDENT ON OTHERS)</t>
-    </r>
-  </si>
-  <si>
     <t>Champion (Map)</t>
   </si>
   <si>
@@ -257,6 +255,12 @@
     <t>SA Presentation</t>
   </si>
   <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -293,48 +297,84 @@
     <t>Subtotal:</t>
   </si>
   <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Obtain 3D Assets</t>
-  </si>
-  <si>
-    <t>Implement World Loading</t>
-  </si>
-  <si>
-    <t>Implement Bounds Check</t>
-  </si>
-  <si>
-    <t>Implement item/playe/enemie loading</t>
-  </si>
-  <si>
-    <t>Implement Player manager collision</t>
-  </si>
-  <si>
-    <t>Implement Scene Swapper</t>
-  </si>
-  <si>
-    <t>Development and Merging</t>
-  </si>
-  <si>
-    <t>Feb. 26</t>
-  </si>
-  <si>
     <t>Mar. 19</t>
+  </si>
+  <si>
+    <t>Mar. 25</t>
+  </si>
+  <si>
+    <t>Mar. 28</t>
+  </si>
+  <si>
+    <t>Master Merge and Progress Check</t>
+  </si>
+  <si>
+    <t>Stress Testing and Progress Check</t>
+  </si>
+  <si>
+    <t>Player Additions</t>
+  </si>
+  <si>
+    <t>RFP and SA Breakdown</t>
+  </si>
+  <si>
+    <t>Task:</t>
+  </si>
+  <si>
+    <t>Implement Item-Player interaction</t>
+  </si>
+  <si>
+    <t>Implement Item Placement</t>
+  </si>
+  <si>
+    <t>Implement Item-Enemy interaction</t>
+  </si>
+  <si>
+    <t>End Game Trigger</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>VR Integration and Setup</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Enemy Testing</t>
+  </si>
+  <si>
+    <t>Item Integration</t>
+  </si>
+  <si>
+    <t>Maze Testing</t>
+  </si>
+  <si>
+    <t>Auto-Tester</t>
+  </si>
+  <si>
+    <t>Integrate Tests</t>
+  </si>
+  <si>
+    <t>Refactor Asset Organization</t>
+  </si>
+  <si>
+    <t>Apr. 2-3</t>
+  </si>
+  <si>
+    <t>Implement Dynamic Binding and Paterns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,19 +396,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,13 +424,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFED1C24"/>
       </patternFill>
     </fill>
     <fill>
@@ -413,6 +447,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,18 +471,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFFF200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFED1C24"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -574,26 +644,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,9 +726,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -696,28 +754,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -746,7 +807,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -772,7 +833,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF0D0D0D"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -814,7 +875,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -826,7 +887,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -843,9 +904,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -873,14 +934,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -908,6 +986,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1059,53 +1154,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="16" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
     <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="59" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="59" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-    </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1152,15 +1252,15 @@
       </c>
       <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>2425</v>
+        <v>3125</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>5175</v>
+        <v>3975</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
@@ -1177,15 +1277,15 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K3" s="11">
         <f>Meetings!B4*100</f>
-        <v>1175</v>
+        <v>1875</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>825</v>
+        <v>-375</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="10">
@@ -1207,15 +1307,15 @@
       </c>
       <c r="B4" s="13">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>2375</v>
+        <v>3025</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" si="1"/>
-        <v>725</v>
+        <v>-425</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13">
@@ -1232,15 +1332,15 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K4" s="14">
         <f>Meetings!B5*100</f>
-        <v>1575</v>
+        <v>2225</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>-725</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="13">
@@ -1262,40 +1362,40 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>3225</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1475</v>
+        <v>1275</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="14">
         <f>Meetings!B6*100</f>
-        <v>1625</v>
+        <v>2425</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>-925</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="13">
@@ -1317,24 +1417,24 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>7500</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>4175</v>
+        <v>6375</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>2425</v>
+        <v>1125</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="2"/>
@@ -1342,15 +1442,15 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K6" s="14">
         <f>Meetings!B7*100</f>
-        <v>1625</v>
+        <v>2425</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>-925</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="13">
@@ -1372,164 +1472,164 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>7400</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>2425</v>
+        <v>4275</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>775</v>
+        <v>3125</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
-        <v>100</v>
+        <v>4500</v>
       </c>
       <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>3900</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K7" s="14">
         <f>Meetings!B8*100</f>
-        <v>1325</v>
+        <v>2275</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="3"/>
-        <v>675</v>
+        <v>-775</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="13">
         <f>SA!C31*100</f>
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="O7" s="14">
         <f>SA!D31*100</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>3095</v>
+        <v>5345</v>
       </c>
       <c r="D8" s="19">
         <f t="shared" si="1"/>
-        <v>3505</v>
+        <v>1655</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13">
         <f>(Gantt!$B73)*100</f>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="14">
         <f>(Gantt!$C73)*100</f>
-        <v>20</v>
+        <v>919.99999999999989</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="2"/>
-        <v>3480</v>
+        <v>3080</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K8" s="14">
         <f>Meetings!B9*100</f>
-        <v>1625</v>
+        <v>2275</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>-775</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="17">
         <f>SA!C37*100</f>
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="O8" s="18">
         <f>SA!D37*100</f>
-        <v>1450</v>
+        <v>2150</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="4"/>
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>30200</v>
+        <v>36100</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>16120</v>
+        <v>25370</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>14080</v>
+        <v>10730</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>11000</v>
+        <v>19200</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>1670</v>
+        <v>5170</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>9330</v>
+        <v>14030</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
-        <v>8950</v>
+        <v>13500</v>
       </c>
       <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
-        <v>3050</v>
+        <v>-4500</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
-        <v>5500</v>
+        <v>6700</v>
       </c>
       <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
-        <v>1700</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -1545,19 +1645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="W52" zoomScale="116" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="AR86" sqref="AR86"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AQ47" sqref="AQ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="47" width="4.83203125" customWidth="1"/>
     <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
@@ -1603,11 +1703,11 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1615,15 +1715,15 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1631,13 +1731,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1645,26 +1745,26 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
+      <c r="J6" s="32"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1672,20 +1772,20 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="54"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1693,12 +1793,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1706,7 +1806,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="AO9" s="54"/>
+      <c r="AO9" s="29"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1718,15 +1818,15 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1734,11 +1834,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="AU11" s="54"/>
+      <c r="AU11" s="29"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1761,7 +1861,7 @@
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -1770,7 +1870,7 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1778,10 +1878,13 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1789,10 +1892,13 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1800,10 +1906,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1811,11 +1920,14 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="32"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1823,8 +1935,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1834,10 +1949,13 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1845,10 +1963,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1857,9 +1976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1868,9 +1987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1879,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1892,106 +2011,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2000,9 +2136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2011,30 +2147,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2042,151 +2178,167 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="33"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+        <v>5.5</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>4</v>
       </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43">
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
         <v>3</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="64"/>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="64"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="64"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48">
         <v>2</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="29"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2194,9 +2346,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2204,88 +2356,119 @@
       <c r="C51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E51" s="56"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="56"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="J54" s="31"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="32"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="57"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AG58" s="57"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="57"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2294,9 +2477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2305,30 +2488,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61">
-        <f>SUM(B51:B60)</f>
-        <v>1</v>
+        <f>SUM(B39:B48)</f>
+        <v>45</v>
       </c>
       <c r="C61">
         <f>SUM(C51:C60)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2336,55 +2519,64 @@
       <c r="C63">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="31"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J66" s="34"/>
+      <c r="K66" s="31"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -2392,10 +2584,14 @@
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -2403,8 +2599,12 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2414,21 +2614,31 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
+      <c r="AC70" s="36"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2437,43 +2647,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
       <c r="B73">
         <f>SUM(B63:B72)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C73">
         <f>SUM(C63:C72)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="34">
+        <v>53</v>
+      </c>
+      <c r="B75" s="37">
         <f>B74*100</f>
-        <v>11000</v>
-      </c>
-      <c r="C75" s="34">
+        <v>19200</v>
+      </c>
+      <c r="C75" s="37">
         <f>C74*100</f>
-        <v>1670</v>
+        <v>5170</v>
       </c>
     </row>
   </sheetData>
@@ -2483,102 +2693,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
-    <col min="9" max="10" width="11" style="35" customWidth="1"/>
-    <col min="11" max="12" width="4.1640625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="38" customWidth="1"/>
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>48</v>
+      <c r="A1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="B2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>22</v>
+      <c r="L2" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3">
@@ -2600,227 +2812,245 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="40">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>11.75</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
+        <v>18.75</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="40">
         <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+        <v>22.25</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="40">
         <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+        <v>24.25</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="40">
         <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+        <v>24.25</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="40">
         <f t="shared" si="0"/>
-        <v>13.25</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+        <v>22.75</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="40">
         <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
+        <v>22.75</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="40">
         <f>SUM(B4:B9)</f>
-        <v>89.5</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2848,19 +3078,19 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2870,32 +3100,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA38" sqref="A1:AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="23" width="3.1640625" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" customWidth="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1"/>
+    <col min="26" max="26" width="3.83203125" customWidth="1"/>
+    <col min="27" max="27" width="3.5" customWidth="1"/>
+    <col min="28" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2943,527 +3178,597 @@
       <c r="S1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>18</v>
+      </c>
+      <c r="W1">
+        <v>19</v>
+      </c>
+      <c r="X1">
+        <v>20</v>
+      </c>
+      <c r="Y1">
+        <v>21</v>
+      </c>
+      <c r="Z1">
+        <v>22</v>
+      </c>
+      <c r="AA1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>63</v>
+      <c r="B2" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="47">
         <v>7</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="43" t="s">
-        <v>65</v>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43" t="s">
-        <v>78</v>
+      <c r="J4" s="49"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="47">
         <v>1</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="43" t="s">
-        <v>79</v>
+      <c r="J5" s="49"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="47">
         <v>1</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="M6" s="53"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="J6" s="49"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="46">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="50">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>67</v>
+      <c r="B8" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="47">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="43" t="s">
-        <v>68</v>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43" t="s">
-        <v>65</v>
+      <c r="J9" s="49"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="J10" s="46"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="43" t="s">
-        <v>78</v>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="44">
-        <v>0</v>
-      </c>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43" t="s">
-        <v>79</v>
+      <c r="D11" s="47">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="46"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="43">
+      <c r="D12" s="47">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="46">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="50">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>69</v>
+      <c r="B14" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43" t="s">
-        <v>70</v>
+      <c r="D14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="44">
-        <v>0</v>
-      </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43" t="s">
-        <v>65</v>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="48"/>
+      <c r="B16" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="46"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43" t="s">
-        <v>78</v>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="48"/>
+      <c r="B17" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="44">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43" t="s">
-        <v>79</v>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="48"/>
+      <c r="B18" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="44">
-        <v>0</v>
-      </c>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="43">
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="46">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="50">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>71</v>
+      <c r="B20" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="47">
         <v>5</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="43" t="s">
-        <v>72</v>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="48"/>
+      <c r="B21" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="47">
         <v>1.5</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="43" t="s">
-        <v>65</v>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="47">
         <v>2</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="43" t="s">
-        <v>78</v>
+      <c r="J22" s="49"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="47">
         <v>1.5</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="43" t="s">
-        <v>79</v>
+      <c r="J23" s="49"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="47">
         <v>1.5</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="43">
+      <c r="J24" s="49"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="46">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="50">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>73</v>
+      <c r="B26" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="47">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="43" t="s">
-        <v>74</v>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="47">
         <v>1</v>
       </c>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="43" t="s">
-        <v>65</v>
+      <c r="E27" s="60"/>
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="47">
         <v>2</v>
       </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="43" t="s">
-        <v>78</v>
+      <c r="J28" s="49"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="B29" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="44">
-        <v>0</v>
-      </c>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="43" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="47">
+        <v>3</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="44">
-        <v>0</v>
-      </c>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47">
+        <v>2</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="46">
         <f>SUM(C26:C30)</f>
-        <v>11</v>
-      </c>
-      <c r="D31" s="47">
+        <v>14</v>
+      </c>
+      <c r="D31" s="50">
         <f>SUM(D26:D30)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>75</v>
+      <c r="B32" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="47">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43" t="s">
-        <v>76</v>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="47">
         <v>0.5</v>
       </c>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="43" t="s">
-        <v>65</v>
+      <c r="J33" s="49"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="47">
         <v>2</v>
       </c>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="43" t="s">
-        <v>78</v>
+      <c r="J34" s="49"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="44">
-        <v>0</v>
-      </c>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="47">
+        <v>4</v>
+      </c>
+      <c r="J35" s="49"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
+      <c r="B36" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="47">
+        <v>3</v>
+      </c>
+      <c r="J36" s="49"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="46">
+        <f>SUM(C32:C36)</f>
+        <v>15</v>
+      </c>
+      <c r="D37" s="50">
+        <f>SUM(D32:D36)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="54">
+        <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>79</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="44">
-        <v>0</v>
-      </c>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="43">
-        <f>SUM(C32:C36)</f>
-        <v>11</v>
-      </c>
-      <c r="D37" s="47">
-        <f>SUM(D32:D36)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="51">
-        <f>SUM(C7,C13,C19,C25,C31,C37)</f>
-        <v>72</v>
-      </c>
-      <c r="D38" s="52">
+      <c r="D38" s="55">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Project Manager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D4165-1057-FC4A-B773-EA0F2180F46E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B5EBE-CCC0-B940-BFE2-C3C82A3A48EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -766,13 +766,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,27 +1183,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="J1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="N1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AQ47" sqref="AQ47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2253,12 +2253,12 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -2270,9 +2270,9 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2284,12 +2284,12 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="64"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="64"/>
-      <c r="AI46" s="64"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2320,8 +2320,8 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="AP48" s="65"/>
-      <c r="AQ48" s="65"/>
+      <c r="AP48" s="64"/>
+      <c r="AQ48" s="64"/>
       <c r="AR48" s="29"/>
       <c r="AS48" s="29"/>
     </row>
@@ -2696,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3104,7 +3104,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA38" sqref="A1:AA38"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Project Manager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D4165-1057-FC4A-B773-EA0F2180F46E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D1031-01F5-483F-B9A9-7AA83680D6AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="108">
   <si>
     <t>Total</t>
   </si>
@@ -766,13 +766,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,51 +1161,51 @@
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="J1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="N1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>7825</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>3975</v>
+        <v>-725</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
@@ -1269,11 +1269,11 @@
       </c>
       <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
-        <v>50</v>
+        <v>4750</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
-        <v>4250</v>
+        <v>-450</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10">
@@ -1301,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>25370</v>
+        <v>30070</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>10730</v>
+        <v>6030</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1599,11 +1599,11 @@
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>5170</v>
+        <v>9870</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>14030</v>
+        <v>9330</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1648,21 +1648,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AQ47" sqref="AQ47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="47" width="4.83203125" customWidth="1"/>
-    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="47" width="4.85546875" customWidth="1"/>
+    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1713,15 +1713,15 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1729,13 +1729,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1743,26 +1743,26 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="32"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1770,20 +1770,20 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1791,12 +1791,12 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1804,11 +1804,11 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="29"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="62"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1818,13 +1818,13 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="AU11" s="29"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1857,10 +1857,10 @@
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="T21" s="29"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="J29" s="31"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2253,14 +2253,14 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2270,11 +2270,11 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -2284,14 +2284,14 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="64"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="64"/>
-      <c r="AI46" s="64"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="AP47" s="29"/>
       <c r="AQ47" s="29"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -2320,12 +2320,10 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="AP48" s="65"/>
-      <c r="AQ48" s="65"/>
       <c r="AR48" s="29"/>
       <c r="AS48" s="29"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2358,7 +2356,7 @@
       </c>
       <c r="E51" s="56"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2372,7 +2370,7 @@
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2389,7 +2387,7 @@
       <c r="M53" s="58"/>
       <c r="N53" s="58"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2404,7 +2402,7 @@
       <c r="P54" s="58"/>
       <c r="Q54" s="58"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2421,7 +2419,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2434,7 +2432,7 @@
       <c r="X56" s="57"/>
       <c r="Y56" s="57"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2450,7 @@
       <c r="AE57" s="57"/>
       <c r="AF57" s="57"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -2466,7 +2464,7 @@
       <c r="AH58" s="57"/>
       <c r="AI58" s="57"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2521,7 +2519,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2535,7 +2533,7 @@
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2548,7 +2546,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -2561,7 +2559,7 @@
       <c r="J66" s="34"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2574,7 +2572,7 @@
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2589,7 +2587,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2604,7 +2602,7 @@
       <c r="T69" s="36"/>
       <c r="U69" s="36"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2625,7 +2623,7 @@
       <c r="AD70" s="36"/>
       <c r="AE70" s="36"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2636,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2647,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2660,7 +2658,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -2670,10 +2668,10 @@
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>51.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -2683,7 +2681,7 @@
       </c>
       <c r="C75" s="37">
         <f>C74*100</f>
-        <v>5170</v>
+        <v>9870</v>
       </c>
     </row>
   </sheetData>
@@ -2700,23 +2698,23 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="38" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="38" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
@@ -2754,7 +2752,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>62</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
@@ -2857,7 +2855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +2968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
@@ -3107,22 +3105,22 @@
       <selection activeCell="AA38" sqref="A1:AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="20" width="3.5" customWidth="1"/>
-    <col min="21" max="23" width="3.1640625" customWidth="1"/>
-    <col min="24" max="24" width="3.83203125" customWidth="1"/>
-    <col min="25" max="25" width="3.5" customWidth="1"/>
-    <col min="26" max="26" width="3.83203125" customWidth="1"/>
-    <col min="27" max="27" width="3.5" customWidth="1"/>
-    <col min="28" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="23" width="3.140625" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="3.42578125" customWidth="1"/>
+    <col min="28" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>92</v>
@@ -3203,7 +3201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -3223,7 +3221,7 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="46" t="s">
         <v>69</v>
@@ -3239,7 +3237,7 @@
       <c r="G3" s="56"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -3254,7 +3252,7 @@
       <c r="K4" s="56"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -3268,7 +3266,7 @@
       <c r="J5" s="49"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -3282,7 +3280,7 @@
       <c r="J6" s="49"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -3296,7 +3294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3312,7 +3310,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -3327,7 +3325,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="46" t="s">
         <v>70</v>
@@ -3341,7 +3339,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="46" t="s">
         <v>71</v>
@@ -3356,7 +3354,7 @@
       <c r="F11" s="31"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="46" t="s">
         <v>72</v>
@@ -3371,7 +3369,7 @@
       <c r="F12" s="31"/>
       <c r="J12" s="49"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="46" t="s">
         <v>73</v>
@@ -3385,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="46" t="s">
         <v>77</v>
@@ -3412,7 +3410,7 @@
       </c>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="46" t="s">
         <v>70</v>
@@ -3425,7 +3423,7 @@
       </c>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="46" t="s">
         <v>71</v>
@@ -3438,7 +3436,7 @@
       </c>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="46" t="s">
         <v>72</v>
@@ -3451,7 +3449,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="51" t="s">
         <v>73</v>
@@ -3465,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3483,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="46" t="s">
         <v>79</v>
@@ -3501,7 +3499,7 @@
       <c r="G21" s="31"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="46" t="s">
         <v>70</v>
@@ -3516,7 +3514,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="46" t="s">
         <v>71</v>
@@ -3531,7 +3529,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="46" t="s">
         <v>72</v>
@@ -3546,7 +3544,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="46" t="s">
         <v>73</v>
@@ -3560,7 +3558,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3580,7 +3578,7 @@
       <c r="I26" s="60"/>
       <c r="J26" s="60"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="46" t="s">
         <v>81</v>
@@ -3594,7 +3592,7 @@
       <c r="E27" s="60"/>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="46" t="s">
         <v>70</v>
@@ -3609,7 +3607,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="46" t="s">
         <v>71</v>
@@ -3625,7 +3623,7 @@
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="46" t="s">
         <v>72</v>
@@ -3640,7 +3638,7 @@
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="51" t="s">
         <v>73</v>
@@ -3654,7 +3652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +3678,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="46" t="s">
         <v>83</v>
@@ -3694,7 +3692,7 @@
       <c r="J33" s="49"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="46" t="s">
         <v>70</v>
@@ -3709,7 +3707,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="46" t="s">
         <v>71</v>
@@ -3727,7 +3725,7 @@
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="46" t="s">
         <v>72</v>
@@ -3743,7 +3741,7 @@
       <c r="Z36" s="31"/>
       <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="51" t="s">
         <v>84</v>
@@ -3757,7 +3755,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="53" t="s">
         <v>13</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D1031-01F5-483F-B9A9-7AA83680D6AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571013C-03B5-471B-8723-76567EF418C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="8715" windowWidth="22560" windowHeight="12975" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
   <si>
     <t>Total</t>
   </si>
@@ -769,10 +769,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,27 +1183,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="J1" s="64" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="J1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="N1" s="64" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="N1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1256,11 +1256,11 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>7825</v>
+        <v>7975</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>-725</v>
+        <v>-875</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="K3" s="11">
         <f>Meetings!B4*100</f>
-        <v>1875</v>
+        <v>2025</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>-375</v>
+        <v>-525</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="10">
@@ -1586,11 +1586,11 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>30070</v>
+        <v>30220</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>6030</v>
+        <v>5880</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
-        <v>13500</v>
+        <v>13650</v>
       </c>
       <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
-        <v>-4500</v>
+        <v>-4650</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="21">
@@ -1648,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
@@ -1715,11 +1715,11 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B4" s="40">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>18.75</v>
+        <v>20.25</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>54</v>
@@ -2847,7 +2847,9 @@
         <v>54</v>
       </c>
       <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="J4" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="K4" s="39" t="s">
         <v>54</v>
       </c>
@@ -3048,7 +3050,7 @@
       </c>
       <c r="B10" s="40">
         <f>SUM(B4:B9)</f>
-        <v>135</v>
+        <v>136.5</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -3080,7 +3082,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Delaney/Documents/GitHub/Maze_Runner/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mear8979\Documents\GitHub\Maze_Runner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
   <si>
     <t>Total</t>
   </si>
@@ -325,16 +325,46 @@
   <si>
     <t>Mar. 19</t>
   </si>
+  <si>
+    <t>VR Integration and Setup</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Enemy Testing</t>
+  </si>
+  <si>
+    <t>Item Integration</t>
+  </si>
+  <si>
+    <t>Maze Testing</t>
+  </si>
+  <si>
+    <t>Auto-Tester</t>
+  </si>
+  <si>
+    <t>Integrate Tests</t>
+  </si>
+  <si>
+    <t>Refactor Asset Organization</t>
+  </si>
+  <si>
+    <t>Audio Integration</t>
+  </si>
+  <si>
+    <t>Audio Testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1062,25 +1092,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1135,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1256,34 +1286,34 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>5200</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>2725</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>1475</v>
+        <v>2475</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
@@ -1311,7 +1341,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1396,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1476,34 +1506,34 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>30200</v>
+        <v>32300</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>16120</v>
+        <v>17220</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>14080</v>
+        <v>15080</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>11000</v>
+        <v>13100</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>1670</v>
+        <v>2770</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>9330</v>
+        <v>10330</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1548,21 +1578,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU75"/>
   <sheetViews>
-    <sheetView topLeftCell="W52" zoomScale="116" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="AR86" sqref="AR86"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="47" width="4.83203125" customWidth="1"/>
-    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="47" width="4.85546875" customWidth="1"/>
+    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1585,7 +1615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1605,7 +1635,7 @@
       </c>
       <c r="E3" s="53"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1621,7 +1651,7 @@
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1635,7 +1665,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1662,7 +1692,7 @@
       <c r="AA6" s="54"/>
       <c r="AB6" s="54"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1683,7 +1713,7 @@
       <c r="AK7" s="54"/>
       <c r="AL7" s="54"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1726,7 @@
       <c r="AM8" s="54"/>
       <c r="AN8" s="54"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1708,7 +1738,7 @@
       </c>
       <c r="AO9" s="54"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1754,7 @@
       <c r="AS10" s="54"/>
       <c r="AT10" s="54"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1736,7 +1766,7 @@
       </c>
       <c r="AU11" s="54"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1747,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -1768,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1813,7 +1843,7 @@
       </c>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1857,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1868,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1879,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
@@ -1900,131 +1930,151 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="33"/>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2044,7 +2094,7 @@
       </c>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2058,7 +2108,7 @@
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2125,7 @@
       <c r="M41" s="55"/>
       <c r="N41" s="55"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2142,7 @@
       <c r="S42" s="55"/>
       <c r="T42" s="55"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2109,7 +2159,7 @@
       <c r="Y43" s="57"/>
       <c r="Z43" s="57"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2123,7 +2173,7 @@
       <c r="AB44" s="29"/>
       <c r="AC44" s="29"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2138,7 +2188,7 @@
       <c r="AF45" s="29"/>
       <c r="AG45" s="29"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2151,7 +2201,7 @@
       <c r="AH46" s="29"/>
       <c r="AI46" s="29"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2162,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2194,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2205,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2289,7 @@
       </c>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -2250,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -2261,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -2272,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -2294,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2318,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="32" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2337,7 +2387,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2348,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2359,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -2371,7 +2421,7 @@
       </c>
       <c r="J66" s="31"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -2382,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -2393,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2415,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -2426,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -2437,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2450,30 +2500,30 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>45</v>
       </c>
       <c r="B74">
         <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>46</v>
       </c>
       <c r="B75" s="34">
         <f>B74*100</f>
-        <v>11000</v>
+        <v>13100</v>
       </c>
       <c r="C75" s="34">
         <f>C74*100</f>
-        <v>1670</v>
+        <v>2770</v>
       </c>
     </row>
   </sheetData>
@@ -2490,21 +2540,21 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
     <col min="9" max="10" width="11" style="35" customWidth="1"/>
-    <col min="11" max="12" width="4.1640625" style="35" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="11" max="12" width="4.140625" style="35" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
@@ -2542,7 +2592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="90">
       <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
@@ -2577,7 +2627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2693,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +2726,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -2711,7 +2761,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
@@ -2746,7 +2796,7 @@
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +2829,7 @@
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -2814,7 +2864,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
@@ -2877,17 +2927,17 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="40"/>
       <c r="B1" s="41" t="s">
         <v>62</v>
@@ -2944,7 +2994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +3014,7 @@
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="45"/>
       <c r="B3" s="43" t="s">
         <v>64</v>
@@ -2980,7 +3030,7 @@
       <c r="G3" s="53"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="45"/>
       <c r="B4" s="43" t="s">
         <v>65</v>
@@ -2995,7 +3045,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="58"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="45"/>
       <c r="B5" s="43" t="s">
         <v>78</v>
@@ -3009,7 +3059,7 @@
       <c r="J5" s="46"/>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="45"/>
       <c r="B6" s="43" t="s">
         <v>79</v>
@@ -3023,7 +3073,7 @@
       <c r="J6" s="46"/>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="45"/>
       <c r="B7" s="43" t="s">
         <v>66</v>
@@ -3037,7 +3087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3051,7 +3101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="45"/>
       <c r="B9" s="43" t="s">
         <v>68</v>
@@ -3064,7 +3114,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="45"/>
       <c r="B10" s="43" t="s">
         <v>65</v>
@@ -3077,7 +3127,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="45"/>
       <c r="B11" s="43" t="s">
         <v>78</v>
@@ -3090,7 +3140,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="45"/>
       <c r="B12" s="43" t="s">
         <v>79</v>
@@ -3103,7 +3153,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="45"/>
       <c r="B13" s="43" t="s">
         <v>66</v>
@@ -3117,7 +3167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="45"/>
       <c r="B15" s="43" t="s">
         <v>70</v>
@@ -3144,7 +3194,7 @@
       </c>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="45"/>
       <c r="B16" s="43" t="s">
         <v>65</v>
@@ -3157,7 +3207,7 @@
       </c>
       <c r="J16" s="46"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="45"/>
       <c r="B17" s="43" t="s">
         <v>78</v>
@@ -3170,7 +3220,7 @@
       </c>
       <c r="J17" s="46"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="45"/>
       <c r="B18" s="43" t="s">
         <v>79</v>
@@ -3183,7 +3233,7 @@
       </c>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="45"/>
       <c r="B19" s="48" t="s">
         <v>66</v>
@@ -3197,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3217,7 +3267,7 @@
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
         <v>72</v>
@@ -3233,7 +3283,7 @@
       <c r="G21" s="53"/>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
         <v>65</v>
@@ -3248,7 +3298,7 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
         <v>78</v>
@@ -3263,7 +3313,7 @@
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
         <v>79</v>
@@ -3278,7 +3328,7 @@
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
         <v>66</v>
@@ -3292,7 +3342,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
         <v>74</v>
@@ -3319,7 +3369,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="45"/>
       <c r="B28" s="43" t="s">
         <v>65</v>
@@ -3332,7 +3382,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
         <v>78</v>
@@ -3345,7 +3395,7 @@
       </c>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="45"/>
       <c r="B30" s="43" t="s">
         <v>79</v>
@@ -3358,7 +3408,7 @@
       </c>
       <c r="J30" s="46"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="45"/>
       <c r="B31" s="48" t="s">
         <v>66</v>
@@ -3372,7 +3422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="45"/>
       <c r="B33" s="43" t="s">
         <v>76</v>
@@ -3399,7 +3449,7 @@
       </c>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="45"/>
       <c r="B34" s="43" t="s">
         <v>65</v>
@@ -3412,7 +3462,7 @@
       </c>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="45"/>
       <c r="B35" s="43" t="s">
         <v>78</v>
@@ -3425,7 +3475,7 @@
       </c>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="45"/>
       <c r="B36" s="43" t="s">
         <v>79</v>
@@ -3438,7 +3488,7 @@
       </c>
       <c r="J36" s="46"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="45"/>
       <c r="B37" s="48" t="s">
         <v>77</v>
@@ -3452,7 +3502,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="49"/>
       <c r="B38" s="50" t="s">
         <v>13</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1296,11 +1296,11 @@
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>2725</v>
+        <v>4725</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>2475</v>
+        <v>475</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
@@ -1516,11 +1516,11 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>17220</v>
+        <v>19220</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>15080</v>
+        <v>13080</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1529,11 +1529,11 @@
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>2770</v>
+        <v>4770</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>10330</v>
+        <v>8330</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:AU75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="AG34" sqref="AG34"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
@@ -2018,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
@@ -2033,8 +2033,8 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C74">
         <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>27.7</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="C75" s="34">
         <f>C74*100</f>
-        <v>2770</v>
+        <v>4770</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21615"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mear8979\Documents\GitHub\Maze_Runner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Project Manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{704D4165-1057-FC4A-B773-EA0F2180F46E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8044DD97-56B1-4158-AA22-9B018F6A713D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,19 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>Total</t>
   </si>
@@ -107,6 +108,30 @@
     <t>GitHub and Discord Setup</t>
   </si>
   <si>
+    <t>Obtain 3D Assets</t>
+  </si>
+  <si>
+    <t>Implement World Loading</t>
+  </si>
+  <si>
+    <t>Implement Bounds Check</t>
+  </si>
+  <si>
+    <t>Implement item/playe/enemie loading</t>
+  </si>
+  <si>
+    <t>Implement Player manager collision</t>
+  </si>
+  <si>
+    <t>Implement Scene Swapper</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Instalation</t>
+  </si>
+  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -125,12 +150,33 @@
     <t>Make stuff work together</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Installation</t>
   </si>
   <si>
+    <t>VR Integration and Setup</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Enemy Testing</t>
+  </si>
+  <si>
+    <t>Item Integration</t>
+  </si>
+  <si>
+    <t>Maze Testing</t>
+  </si>
+  <si>
+    <t>Auto-Tester</t>
+  </si>
+  <si>
+    <t>Integrate Tests</t>
+  </si>
+  <si>
+    <t>Refactor Asset Organization</t>
+  </si>
+  <si>
     <t>Setup Master Gantt</t>
   </si>
   <si>
@@ -143,18 +189,39 @@
     <t>Implement Update Player Position</t>
   </si>
   <si>
+    <t>Implement Player Health</t>
+  </si>
+  <si>
     <t>Implement Collision Check</t>
   </si>
   <si>
     <t>Implement Item Collision Check</t>
   </si>
   <si>
-    <t>Instalation</t>
+    <t>Implement Dynamic Binding and Paterns</t>
   </si>
   <si>
     <t>Coding Standards</t>
   </si>
   <si>
+    <t>Implement Item-Player interaction</t>
+  </si>
+  <si>
+    <t>Implement Item Placement</t>
+  </si>
+  <si>
+    <t>Implement Item-Enemy interaction</t>
+  </si>
+  <si>
+    <t>End Game Trigger</t>
+  </si>
+  <si>
+    <t>Stress Testing</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
     <t>Logo Design</t>
   </si>
   <si>
@@ -206,13 +273,28 @@
     <t>Feb. 6</t>
   </si>
   <si>
+    <t>Mar. 19</t>
+  </si>
+  <si>
+    <t>Mar. 25</t>
+  </si>
+  <si>
+    <t>Mar. 28</t>
+  </si>
+  <si>
+    <t>Apr. 2-3</t>
+  </si>
+  <si>
+    <t>Apr. 18</t>
+  </si>
+  <si>
     <t>Purpose:</t>
   </si>
   <si>
     <t>Meeting the Team</t>
   </si>
   <si>
-    <t>RFP and SA Presentation Breakdown</t>
+    <t>RFP and SA Breakdown</t>
   </si>
   <si>
     <t>Assigned RFP Sections</t>
@@ -227,25 +309,16 @@
     <t>Presentation Rehersal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Task: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(RED IS DEPENDENT ON OTHERS)</t>
-    </r>
+    <t>Stress Testing and Progress Check</t>
+  </si>
+  <si>
+    <t>Player Additions</t>
+  </si>
+  <si>
+    <t>Master Merge and Progress Check</t>
+  </si>
+  <si>
+    <t>Task:</t>
   </si>
   <si>
     <t>Champion (Map)</t>
@@ -257,6 +330,12 @@
     <t>SA Presentation</t>
   </si>
   <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -291,80 +370,17 @@
   </si>
   <si>
     <t>Subtotal:</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Obtain 3D Assets</t>
-  </si>
-  <si>
-    <t>Implement World Loading</t>
-  </si>
-  <si>
-    <t>Implement Bounds Check</t>
-  </si>
-  <si>
-    <t>Implement item/playe/enemie loading</t>
-  </si>
-  <si>
-    <t>Implement Player manager collision</t>
-  </si>
-  <si>
-    <t>Implement Scene Swapper</t>
-  </si>
-  <si>
-    <t>Development and Merging</t>
-  </si>
-  <si>
-    <t>Feb. 26</t>
-  </si>
-  <si>
-    <t>Mar. 19</t>
-  </si>
-  <si>
-    <t>VR Integration and Setup</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>Enemy Testing</t>
-  </si>
-  <si>
-    <t>Item Integration</t>
-  </si>
-  <si>
-    <t>Maze Testing</t>
-  </si>
-  <si>
-    <t>Auto-Tester</t>
-  </si>
-  <si>
-    <t>Integrate Tests</t>
-  </si>
-  <si>
-    <t>Refactor Asset Organization</t>
-  </si>
-  <si>
-    <t>Audio Integration</t>
-  </si>
-  <si>
-    <t>Audio Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,19 +402,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,13 +444,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFED1C24"/>
       </patternFill>
     </fill>
     <fill>
@@ -449,24 +473,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -604,26 +640,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,9 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -726,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -736,18 +758,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -776,7 +801,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -802,7 +827,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF0D0D0D"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -844,7 +869,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -856,7 +881,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -873,9 +898,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -903,14 +928,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -938,6 +980,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1089,53 +1148,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
     <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="59" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="59" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1182,15 +1246,15 @@
       </c>
       <c r="B3" s="10">
         <f t="shared" ref="B3:C8" si="0">(SUM(F3,J3,N3))</f>
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>2425</v>
+        <v>8825</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">(B3-C3)</f>
-        <v>5175</v>
+        <v>-1725</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13">
@@ -1199,23 +1263,23 @@
       </c>
       <c r="G3" s="14">
         <f>(Gantt!$C13)*100</f>
-        <v>50</v>
+        <v>5750</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="2">(F3-G3)</f>
-        <v>4250</v>
+        <v>-1450</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K3" s="11">
         <f>Meetings!B4*100</f>
-        <v>1175</v>
+        <v>1875</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L8" si="3">(J3-K3)</f>
-        <v>825</v>
+        <v>-375</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="10">
@@ -1237,15 +1301,15 @@
       </c>
       <c r="B4" s="13">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>2375</v>
+        <v>3025</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" si="1"/>
-        <v>725</v>
+        <v>-425</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13">
@@ -1262,15 +1326,15 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K4" s="14">
         <f>Meetings!B5*100</f>
-        <v>1575</v>
+        <v>2225</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>-725</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="13">
@@ -1292,40 +1356,40 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>4725</v>
+        <v>3225</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>1275</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
         <f>(Gantt!$B37)*100</f>
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G5" s="14">
         <f>(Gantt!$C37)*100</f>
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="14">
         <f>Meetings!B6*100</f>
-        <v>1625</v>
+        <v>2425</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>-925</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="13">
@@ -1347,40 +1411,40 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>7500</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>4175</v>
+        <v>8575</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>2425</v>
+        <v>-1075</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
         <f>(Gantt!$B49)*100</f>
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>1700</v>
+        <v>-500</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K6" s="14">
         <f>Meetings!B7*100</f>
-        <v>1625</v>
+        <v>2425</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>-925</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="13">
@@ -1402,164 +1466,164 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>7400</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>2425</v>
+        <v>5475</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>775</v>
+        <v>1925</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
         <f>(Gantt!$B61)*100</f>
-        <v>100</v>
+        <v>4500</v>
       </c>
       <c r="G7" s="14">
         <f>(Gantt!$C61)*100</f>
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>2700</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K7" s="14">
         <f>Meetings!B8*100</f>
-        <v>1325</v>
+        <v>2275</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="3"/>
-        <v>675</v>
+        <v>-775</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="13">
         <f>SA!C31*100</f>
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="O7" s="14">
         <f>SA!D31*100</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>3095</v>
+        <v>9645</v>
       </c>
       <c r="D8" s="19">
         <f t="shared" si="1"/>
-        <v>3505</v>
+        <v>-2645</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13">
-        <f>(Gantt!$B73)*100</f>
-        <v>3500</v>
+        <f>(Gantt!$B72)*100</f>
+        <v>4000</v>
       </c>
       <c r="G8" s="14">
-        <f>(Gantt!$C73)*100</f>
-        <v>20</v>
+        <f>(Gantt!$C72)*100</f>
+        <v>5220</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="2"/>
-        <v>3480</v>
+        <v>-1220</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="13">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K8" s="14">
         <f>Meetings!B9*100</f>
-        <v>1625</v>
+        <v>2275</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>-775</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="17">
         <f>SA!C37*100</f>
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="O8" s="18">
         <f>SA!D37*100</f>
-        <v>1450</v>
+        <v>2150</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="4"/>
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
-        <v>32300</v>
+        <v>36100</v>
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>19220</v>
+        <v>38770</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>13080</v>
+        <v>-2670</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
         <f>SUM(F3:F8)</f>
-        <v>13100</v>
+        <v>19200</v>
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>4770</v>
+        <v>18570</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>8330</v>
+        <v>630</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
         <f>SUM(J3:J8)</f>
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="K9" s="25">
         <f>SUM(K3:K8)</f>
-        <v>8950</v>
+        <v>13500</v>
       </c>
       <c r="L9" s="26">
         <f>SUM(L3:L8)</f>
-        <v>3050</v>
+        <v>-4500</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="21">
         <f>SUM(N3:N8)</f>
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O3:O8)</f>
-        <v>5500</v>
+        <v>6700</v>
       </c>
       <c r="P9" s="23">
         <f>SUM(P3:P8)</f>
-        <v>1700</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -1575,24 +1639,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="47" width="4.85546875" customWidth="1"/>
     <col min="48" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:56">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1615,7 +1679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:56">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1633,112 +1697,112 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:47">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:47">
+        <v>2</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="6" spans="1:47">
+        <v>3</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-    </row>
-    <row r="7" spans="1:47">
+        <v>15</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+    </row>
+    <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="54"/>
-    </row>
-    <row r="8" spans="1:47">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+    </row>
+    <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-    </row>
-    <row r="9" spans="1:47">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+    </row>
+    <row r="9" spans="1:56">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="54"/>
-    </row>
-    <row r="10" spans="1:47">
+        <v>7</v>
+      </c>
+      <c r="AO9" s="60"/>
+    </row>
+    <row r="10" spans="1:56">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1746,29 +1810,39 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-    </row>
-    <row r="11" spans="1:47">
+        <v>18</v>
+      </c>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+    </row>
+    <row r="11" spans="1:56">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="54"/>
-    </row>
-    <row r="12" spans="1:47">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="60"/>
+    </row>
+    <row r="12" spans="1:56">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1777,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:56">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1787,20 +1861,20 @@
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47">
-      <c r="A14" s="32" t="s">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:56">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1808,10 +1882,13 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:47">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:56">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1819,10 +1896,13 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1830,10 +1910,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1841,11 +1924,14 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="J18" s="32"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1853,8 +1939,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1864,10 +1953,13 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1875,10 +1967,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1887,9 +1980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1898,9 +1991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1909,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1922,17 +2015,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:20">
+      <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1940,26 +2033,26 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1967,11 +2060,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="J29" s="33"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1979,28 +2072,28 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-    </row>
-    <row r="32" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2008,24 +2101,24 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="R32" s="33"/>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:45">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>16</v>
-      </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-    </row>
-    <row r="34" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2033,58 +2126,55 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+    </row>
+    <row r="35" spans="1:45">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-    </row>
-    <row r="36" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="33"/>
-    </row>
-    <row r="37" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37">
         <f>SUM(B27:B36)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <f>SUM(C27:C36)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:45">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2092,151 +2182,167 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="33"/>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:45">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-    </row>
-    <row r="41" spans="1:35">
+        <v>2.5</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:45">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-    </row>
-    <row r="42" spans="1:35">
+        <v>5.5</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="1:45">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>4</v>
       </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43">
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
         <v>3</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+    </row>
+    <row r="46" spans="1:45">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="60"/>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="AJ47" s="55"/>
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
+      <c r="AN47" s="55"/>
+      <c r="AO47" s="55"/>
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55"/>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48">
         <v>2</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="AP48" s="59"/>
+      <c r="AQ48" s="59"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="29"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49">
         <f>SUM(B39:B48)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2244,9 +2350,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2254,88 +2360,120 @@
       <c r="C51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="E51" s="54"/>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="31"/>
-    </row>
-    <row r="55" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>7</v>
+      </c>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="61"/>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="55"/>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="AG58" s="55"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="55"/>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2344,9 +2482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2355,30 +2493,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:35">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61">
-        <f>SUM(B51:B60)</f>
-        <v>1</v>
+        <f>SUM(B39:B48)</f>
+        <v>45</v>
       </c>
       <c r="C61">
         <f>SUM(C51:C60)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2386,75 +2524,92 @@
       <c r="C63">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="1:52">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:52">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="31"/>
-    </row>
-    <row r="67" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="J66" s="34"/>
+      <c r="K66" s="31"/>
+    </row>
+    <row r="67" spans="1:52">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+    </row>
+    <row r="68" spans="1:52">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="60"/>
+    </row>
+    <row r="69" spans="1:52">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+    </row>
+    <row r="70" spans="1:52">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2462,68 +2617,93 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="60"/>
+      <c r="AA70" s="60"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="60"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="60"/>
+      <c r="AH70" s="60"/>
+      <c r="AI70" s="60"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="60"/>
+      <c r="AL70" s="60"/>
+      <c r="AM70" s="60"/>
+      <c r="AN70" s="60"/>
+      <c r="AO70" s="60"/>
+      <c r="AP70" s="60"/>
+      <c r="AQ70" s="60"/>
+      <c r="AR70" s="60"/>
+      <c r="AS70" s="60"/>
+      <c r="AT70" s="60"/>
+      <c r="AU70" s="60"/>
+      <c r="AV70" s="60"/>
+      <c r="AW70" s="60"/>
+      <c r="AX70" s="60"/>
+      <c r="AY70" s="60"/>
+      <c r="AZ70" s="60"/>
+    </row>
+    <row r="71" spans="1:52">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+    </row>
+    <row r="72" spans="1:52">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <f>SUM(B63:B71)</f>
+        <v>40</v>
       </c>
       <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <f>SUM(C63:C71)</f>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B73">
-        <f>SUM(B63:B72)</f>
-        <v>35</v>
+        <f>SUM(B13,B25,B37,B49,B61,B72)</f>
+        <v>192</v>
       </c>
       <c r="C73">
-        <f>SUM(C63:C72)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <f>SUM(C13,C25,C37,C49,C61,C72)</f>
+        <v>185.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52">
       <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74">
-        <f>SUM(B13,B25,B37,B49,B61,B73)</f>
-        <v>131</v>
-      </c>
-      <c r="C74">
-        <f>SUM(C13,C25,C37,C49,C61,C73)</f>
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="34">
-        <f>B74*100</f>
-        <v>13100</v>
-      </c>
-      <c r="C75" s="34">
-        <f>C74*100</f>
-        <v>4770</v>
+        <v>68</v>
+      </c>
+      <c r="B74" s="35">
+        <f>B73*100</f>
+        <v>19200</v>
+      </c>
+      <c r="C74" s="35">
+        <f>C73*100</f>
+        <v>18570</v>
       </c>
     </row>
   </sheetData>
@@ -2533,102 +2713,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="35" customWidth="1"/>
-    <col min="9" max="10" width="11" style="35" customWidth="1"/>
-    <col min="11" max="12" width="4.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="36" customWidth="1"/>
     <col min="13" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>48</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75">
+      <c r="B2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="90">
-      <c r="B2" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="37" t="s">
+      <c r="I2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3">
@@ -2650,227 +2838,260 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
       <c r="L3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3">
         <v>7</v>
       </c>
-      <c r="B4" s="37">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="38">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
-        <v>11.75</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="37" t="s">
+        <v>18.75</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="38">
         <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="37" t="s">
+        <v>22.25</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="38">
         <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="37" t="s">
+        <v>24.25</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="37" t="s">
+        <v>24.25</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="38">
         <f t="shared" si="0"/>
-        <v>13.25</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="37" t="s">
+        <v>22.75</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="38">
         <f t="shared" si="0"/>
-        <v>16.25</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="37" t="s">
+        <v>22.75</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="38">
         <f>SUM(B4:B9)</f>
-        <v>89.5</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -2898,19 +3119,23 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10" si="2">COUNTIF(M4:M9,"*ü*") * M3</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2920,32 +3145,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="5" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="23" width="3.140625" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="3.42578125" customWidth="1"/>
+    <col min="28" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E1">
@@ -2993,527 +3223,597 @@
       <c r="S1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>18</v>
+      </c>
+      <c r="W1">
+        <v>19</v>
+      </c>
+      <c r="X1">
+        <v>20</v>
+      </c>
+      <c r="Y1">
+        <v>21</v>
+      </c>
+      <c r="Z1">
+        <v>22</v>
+      </c>
+      <c r="AA1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>63</v>
+      <c r="B2" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <v>7</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="46"/>
+      <c r="B3" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="45">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="45"/>
-      <c r="B4" s="43" t="s">
-        <v>65</v>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="46"/>
+      <c r="B4" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43" t="s">
-        <v>78</v>
+      <c r="J4" s="47"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="46"/>
+      <c r="B5" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="45">
         <v>1</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="45"/>
-      <c r="B6" s="43" t="s">
-        <v>79</v>
+      <c r="J5" s="47"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="46"/>
+      <c r="B6" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="M6" s="53"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="45"/>
-      <c r="B7" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="J6" s="47"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="46"/>
+      <c r="B7" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="44">
         <f>SUM(C2:C6)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="48">
         <f>SUM(D2:D6)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:27">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>67</v>
+      <c r="B8" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="45"/>
-      <c r="B9" s="43" t="s">
-        <v>68</v>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="46"/>
+      <c r="B9" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43" t="s">
-        <v>65</v>
+      <c r="J9" s="47"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="46"/>
+      <c r="B10" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="46"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="45"/>
-      <c r="B11" s="43" t="s">
-        <v>78</v>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="46"/>
+      <c r="B11" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="44">
-        <v>0</v>
-      </c>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43" t="s">
-        <v>79</v>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="46"/>
+      <c r="B12" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="46"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="45"/>
-      <c r="B13" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="43">
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="44">
         <f>SUM(C8:C12)</f>
         <v>11</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="48">
         <f>SUM(D8:D12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:27">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>69</v>
+      <c r="B14" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43" t="s">
-        <v>70</v>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="46"/>
+      <c r="B15" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="44">
-        <v>0</v>
-      </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43" t="s">
-        <v>65</v>
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="46"/>
+      <c r="B16" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="46"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43" t="s">
-        <v>78</v>
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="46"/>
+      <c r="B17" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="44">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43" t="s">
-        <v>79</v>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="46"/>
+      <c r="B18" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="44">
-        <v>0</v>
-      </c>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="43">
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="46"/>
+      <c r="B19" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="44">
         <f>SUM(C14:C18)</f>
         <v>11</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="48">
         <f>SUM(D14:D18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:17">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>71</v>
+      <c r="B20" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="43" t="s">
-        <v>72</v>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="46"/>
+      <c r="B21" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="45">
         <v>1.5</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="43" t="s">
-        <v>65</v>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="46"/>
+      <c r="B22" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="45">
         <v>2</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="43" t="s">
-        <v>78</v>
+      <c r="J22" s="47"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="46"/>
+      <c r="B23" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="45">
         <v>1.5</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="43" t="s">
-        <v>79</v>
+      <c r="J23" s="47"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="46"/>
+      <c r="B24" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="45">
         <v>1.5</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="43">
+      <c r="J24" s="47"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="46"/>
+      <c r="B25" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="44">
         <f>SUM(C20:C24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="48">
         <f>SUM(D20:D24)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:17">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>73</v>
+      <c r="B26" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="43" t="s">
-        <v>74</v>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="46"/>
+      <c r="B27" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="45">
         <v>1</v>
       </c>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="43" t="s">
-        <v>65</v>
+      <c r="E27" s="57"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="46"/>
+      <c r="B28" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="45">
         <v>2</v>
       </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="43" t="s">
-        <v>78</v>
+      <c r="J28" s="47"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="46"/>
+      <c r="B29" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="44">
-        <v>0</v>
-      </c>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="43" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="45">
+        <v>3</v>
+      </c>
+      <c r="J29" s="47"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="46"/>
+      <c r="B30" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="44">
-        <v>0</v>
-      </c>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D30" s="45">
+        <v>2</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="46"/>
+      <c r="B31" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="44">
         <f>SUM(C26:C30)</f>
-        <v>11</v>
-      </c>
-      <c r="D31" s="47">
+        <v>14</v>
+      </c>
+      <c r="D31" s="48">
         <f>SUM(D26:D30)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>75</v>
+      <c r="B32" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="45">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43" t="s">
-        <v>76</v>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="46"/>
+      <c r="B33" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="45">
         <v>0.5</v>
       </c>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="45"/>
-      <c r="B34" s="43" t="s">
-        <v>65</v>
+      <c r="J33" s="47"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="46"/>
+      <c r="B34" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="45">
         <v>2</v>
       </c>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="45"/>
-      <c r="B35" s="43" t="s">
-        <v>78</v>
+      <c r="J34" s="47"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="44">
-        <v>0</v>
-      </c>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="45"/>
-      <c r="B36" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="45">
+        <v>4</v>
+      </c>
+      <c r="J35" s="47"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="46"/>
+      <c r="B36" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="45">
+        <v>3</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="46"/>
+      <c r="B37" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="44">
+        <f>SUM(C32:C36)</f>
+        <v>15</v>
+      </c>
+      <c r="D37" s="48">
+        <f>SUM(D32:D36)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="52">
+        <f>SUM(C7,C13,C19,C25,C31,C37)</f>
         <v>79</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="44">
-        <v>0</v>
-      </c>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="43">
-        <f>SUM(C32:C36)</f>
-        <v>11</v>
-      </c>
-      <c r="D37" s="47">
-        <f>SUM(D32:D36)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="51">
-        <f>SUM(C7,C13,C19,C25,C31,C37)</f>
-        <v>72</v>
-      </c>
-      <c r="D38" s="52">
+      <c r="D38" s="53">
         <f>SUM(D7,D13,D19,D25,D31,D37)</f>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Project Manager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{704D4165-1057-FC4A-B773-EA0F2180F46E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8044DD97-56B1-4158-AA22-9B018F6A713D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DC66E-EE37-C641-8F3B-80A1DC1F48FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -763,10 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,55 +1151,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="J1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -1642,21 +1642,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="47" width="4.85546875" customWidth="1"/>
-    <col min="48" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="47" width="4.83203125" customWidth="1"/>
+    <col min="48" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="L5" s="60"/>
       <c r="M5" s="60"/>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1740,23 +1740,23 @@
         <v>15</v>
       </c>
       <c r="J6" s="32"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="AK7" s="60"/>
       <c r="AL7" s="60"/>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="AM8" s="60"/>
       <c r="AN8" s="60"/>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="AO9" s="60"/>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="BC10" s="60"/>
       <c r="BD10" s="60"/>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AU11" s="60"/>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="T21" s="29"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="J29" s="31"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="S33" s="56"/>
       <c r="T33" s="56"/>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="U34" s="56"/>
       <c r="V34" s="56"/>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2257,14 +2257,14 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-    </row>
-    <row r="45" spans="1:45">
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="AB45" s="58"/>
       <c r="AC45" s="58"/>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="AH46" s="60"/>
       <c r="AI46" s="60"/>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2305,16 +2305,16 @@
       <c r="C47">
         <v>12</v>
       </c>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
-    </row>
-    <row r="48" spans="1:45">
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -2326,10 +2326,10 @@
       </c>
       <c r="AP48" s="59"/>
       <c r="AQ48" s="59"/>
-      <c r="AR48" s="29"/>
-      <c r="AS48" s="29"/>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AR48" s="58"/>
+      <c r="AS48" s="58"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>11</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="E51" s="54"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="M53" s="60"/>
       <c r="N53" s="60"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="P54" s="60"/>
       <c r="Q54" s="60"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="W55" s="60"/>
       <c r="X55" s="61"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="X56" s="60"/>
       <c r="Y56" s="60"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="AH58" s="55"/>
       <c r="AI58" s="55"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="J66" s="34"/>
       <c r="K66" s="31"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="P68" s="60"/>
       <c r="Q68" s="60"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="T69" s="60"/>
       <c r="U69" s="60"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="AY70" s="60"/>
       <c r="AZ70" s="60"/>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="U71" s="60"/>
       <c r="V71" s="60"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>185.7</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2716,27 +2716,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="36" customWidth="1"/>
-    <col min="13" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="36" customWidth="1"/>
+    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>69</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75">
+    <row r="2" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>82</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>20</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="M5" s="37"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="M6" s="37"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>13</v>
       </c>
@@ -3148,26 +3148,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="20" width="3.42578125" customWidth="1"/>
-    <col min="21" max="23" width="3.140625" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="27" width="3.42578125" customWidth="1"/>
-    <col min="28" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="5" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="23" width="3.1640625" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" customWidth="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1"/>
+    <col min="26" max="26" width="3.83203125" customWidth="1"/>
+    <col min="27" max="27" width="3.5" customWidth="1"/>
+    <col min="28" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42" t="s">
         <v>92</v>
@@ -3248,7 +3248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="44" t="s">
         <v>94</v>
@@ -3284,7 +3284,7 @@
       <c r="G3" s="54"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="46"/>
       <c r="B4" s="44" t="s">
         <v>95</v>
@@ -3299,7 +3299,7 @@
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="44" t="s">
         <v>96</v>
@@ -3313,7 +3313,7 @@
       <c r="J5" s="47"/>
       <c r="L5" s="54"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="46"/>
       <c r="B6" s="44" t="s">
         <v>97</v>
@@ -3327,7 +3327,7 @@
       <c r="J6" s="47"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="44" t="s">
         <v>98</v>
@@ -3341,7 +3341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="44" t="s">
         <v>100</v>
@@ -3372,7 +3372,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="44" t="s">
         <v>95</v>
@@ -3386,7 +3386,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="44" t="s">
         <v>96</v>
@@ -3401,7 +3401,7 @@
       <c r="F11" s="31"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="44" t="s">
         <v>97</v>
@@ -3416,7 +3416,7 @@
       <c r="F12" s="31"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="44" t="s">
         <v>98</v>
@@ -3430,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="44" t="s">
         <v>102</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="44" t="s">
         <v>95</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="44" t="s">
         <v>96</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="44" t="s">
         <v>97</v>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
       <c r="B19" s="49" t="s">
         <v>98</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="44" t="s">
         <v>104</v>
@@ -3546,7 +3546,7 @@
       <c r="G21" s="31"/>
       <c r="J21" s="47"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="44" t="s">
         <v>95</v>
@@ -3561,7 +3561,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="44" t="s">
         <v>96</v>
@@ -3576,7 +3576,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="44" t="s">
         <v>97</v>
@@ -3591,7 +3591,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="44" t="s">
         <v>98</v>
@@ -3605,7 +3605,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="44" t="s">
         <v>106</v>
@@ -3639,7 +3639,7 @@
       <c r="E27" s="57"/>
       <c r="J27" s="47"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="44" t="s">
         <v>95</v>
@@ -3654,7 +3654,7 @@
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="44" t="s">
         <v>96</v>
@@ -3670,7 +3670,7 @@
       <c r="N29" s="57"/>
       <c r="O29" s="57"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="44" t="s">
         <v>97</v>
@@ -3685,7 +3685,7 @@
       <c r="P30" s="57"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="49" t="s">
         <v>98</v>
@@ -3699,7 +3699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
       <c r="B33" s="44" t="s">
         <v>108</v>
@@ -3739,7 +3739,7 @@
       <c r="J33" s="47"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="44" t="s">
         <v>95</v>
@@ -3754,7 +3754,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
       <c r="B35" s="44" t="s">
         <v>96</v>
@@ -3772,7 +3772,7 @@
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
       <c r="B36" s="44" t="s">
         <v>97</v>
@@ -3788,7 +3788,7 @@
       <c r="Z36" s="31"/>
       <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
       <c r="B37" s="49" t="s">
         <v>109</v>
@@ -3802,7 +3802,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="51" t="s">
         <v>13</v>

--- a/Documents/Master Gantt.xlsx
+++ b/Documents/Master Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenjaminHallman/Documents/College/Classes/Computer Science/383/Projects/Dream Team/Maze Runner/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DC66E-EE37-C641-8F3B-80A1DC1F48FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9668A10-FFC1-A54C-8137-4A1E4BA709FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>8575</v>
+        <v>9075</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>-1075</v>
+        <v>-1575</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="G6" s="14">
         <f>(Gantt!$C49)*100</f>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="2"/>
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
-        <v>38770</v>
+        <v>39270</v>
       </c>
       <c r="D9" s="23">
         <f>SUM(D3:D8)</f>
-        <v>-2670</v>
+        <v>-3170</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="24">
@@ -1593,11 +1593,11 @@
       </c>
       <c r="G9" s="25">
         <f>SUM(G3:G8)</f>
-        <v>18570</v>
+        <v>19070</v>
       </c>
       <c r="H9" s="26">
         <f>SUM(H3:H8)</f>
-        <v>630</v>
+        <v>130</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="24">
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:BD74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U43" s="31"/>
       <c r="V43" s="31"/>
@@ -2255,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C49">
         <f>SUM(C39:C48)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C73">
         <f>SUM(C13,C25,C37,C49,C61,C72)</f>
-        <v>185.7</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.2">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C74" s="35">
         <f>C73*100</f>
-        <v>18570</v>
+        <v>19070</v>
       </c>
     </row>
   </sheetData>
